--- a/BackTest/2019-10-19 BackTest LINK.xlsx
+++ b/BackTest/2019-10-19 BackTest LINK.xlsx
@@ -917,7 +917,9 @@
       <c r="J12" t="n">
         <v>30</v>
       </c>
-      <c r="K12" t="inlineStr"/>
+      <c r="K12" t="n">
+        <v>36</v>
+      </c>
       <c r="L12" t="n">
         <v>2774.6</v>
       </c>
@@ -962,7 +964,9 @@
       <c r="J13" t="n">
         <v>34</v>
       </c>
-      <c r="K13" t="inlineStr"/>
+      <c r="K13" t="n">
+        <v>40.74074074074074</v>
+      </c>
       <c r="L13" t="n">
         <v>2775.9</v>
       </c>
@@ -1007,7 +1011,9 @@
       <c r="J14" t="n">
         <v>35</v>
       </c>
-      <c r="K14" t="inlineStr"/>
+      <c r="K14" t="n">
+        <v>90.47619047619048</v>
+      </c>
       <c r="L14" t="n">
         <v>2777.1</v>
       </c>
@@ -1052,7 +1058,9 @@
       <c r="J15" t="n">
         <v>36</v>
       </c>
-      <c r="K15" t="inlineStr"/>
+      <c r="K15" t="n">
+        <v>90.90909090909091</v>
+      </c>
       <c r="L15" t="n">
         <v>2779.1</v>
       </c>
@@ -1097,7 +1105,9 @@
       <c r="J16" t="n">
         <v>37</v>
       </c>
-      <c r="K16" t="inlineStr"/>
+      <c r="K16" t="n">
+        <v>82.60869565217391</v>
+      </c>
       <c r="L16" t="n">
         <v>2781</v>
       </c>
@@ -1142,7 +1152,9 @@
       <c r="J17" t="n">
         <v>41</v>
       </c>
-      <c r="K17" t="inlineStr"/>
+      <c r="K17" t="n">
+        <v>84.61538461538461</v>
+      </c>
       <c r="L17" t="n">
         <v>2783.3</v>
       </c>
@@ -1187,7 +1199,9 @@
       <c r="J18" t="n">
         <v>42</v>
       </c>
-      <c r="K18" t="inlineStr"/>
+      <c r="K18" t="n">
+        <v>84.61538461538461</v>
+      </c>
       <c r="L18" t="n">
         <v>2785.6</v>
       </c>
@@ -1232,7 +1246,9 @@
       <c r="J19" t="n">
         <v>48</v>
       </c>
-      <c r="K19" t="inlineStr"/>
+      <c r="K19" t="n">
+        <v>27.27272727272727</v>
+      </c>
       <c r="L19" t="n">
         <v>2787.2</v>
       </c>
@@ -1277,7 +1293,9 @@
       <c r="J20" t="n">
         <v>48</v>
       </c>
-      <c r="K20" t="inlineStr"/>
+      <c r="K20" t="n">
+        <v>15.78947368421053</v>
+      </c>
       <c r="L20" t="n">
         <v>2787.8</v>
       </c>
@@ -1322,7 +1340,9 @@
       <c r="J21" t="n">
         <v>48</v>
       </c>
-      <c r="K21" t="inlineStr"/>
+      <c r="K21" t="n">
+        <v>22.22222222222222</v>
+      </c>
       <c r="L21" t="n">
         <v>2788.1</v>
       </c>
@@ -1369,7 +1389,9 @@
       <c r="J22" t="n">
         <v>48</v>
       </c>
-      <c r="K22" t="inlineStr"/>
+      <c r="K22" t="n">
+        <v>0</v>
+      </c>
       <c r="L22" t="n">
         <v>2788.5</v>
       </c>
@@ -1417,7 +1439,7 @@
         <v>48</v>
       </c>
       <c r="K23" t="n">
-        <v>30.23255813953488</v>
+        <v>-7.692307692307693</v>
       </c>
       <c r="L23" t="n">
         <v>2788.5</v>
@@ -1466,7 +1488,7 @@
         <v>48</v>
       </c>
       <c r="K24" t="n">
-        <v>26.82926829268293</v>
+        <v>-16.66666666666666</v>
       </c>
       <c r="L24" t="n">
         <v>2788.4</v>
@@ -1515,7 +1537,7 @@
         <v>48</v>
       </c>
       <c r="K25" t="n">
-        <v>52.94117647058824</v>
+        <v>-9.090909090909092</v>
       </c>
       <c r="L25" t="n">
         <v>2788.2</v>
@@ -1564,7 +1586,7 @@
         <v>48</v>
       </c>
       <c r="K26" t="n">
-        <v>52.94117647058824</v>
+        <v>-71.42857142857143</v>
       </c>
       <c r="L26" t="n">
         <v>2788.1</v>
@@ -1613,7 +1635,7 @@
         <v>48</v>
       </c>
       <c r="K27" t="n">
-        <v>52.94117647058824</v>
+        <v>-100</v>
       </c>
       <c r="L27" t="n">
         <v>2787.6</v>
@@ -1661,9 +1683,7 @@
       <c r="J28" t="n">
         <v>48</v>
       </c>
-      <c r="K28" t="n">
-        <v>51.51515151515152</v>
-      </c>
+      <c r="K28" t="inlineStr"/>
       <c r="L28" t="n">
         <v>2787</v>
       </c>
@@ -1711,7 +1731,7 @@
         <v>55</v>
       </c>
       <c r="K29" t="n">
-        <v>58.97435897435898</v>
+        <v>100</v>
       </c>
       <c r="L29" t="n">
         <v>2787.7</v>
@@ -1760,7 +1780,7 @@
         <v>65</v>
       </c>
       <c r="K30" t="n">
-        <v>58.97435897435898</v>
+        <v>100</v>
       </c>
       <c r="L30" t="n">
         <v>2789.4</v>
@@ -1809,7 +1829,7 @@
         <v>68</v>
       </c>
       <c r="K31" t="n">
-        <v>43.58974358974359</v>
+        <v>70</v>
       </c>
       <c r="L31" t="n">
         <v>2790.8</v>
@@ -1860,7 +1880,7 @@
         <v>71</v>
       </c>
       <c r="K32" t="n">
-        <v>36.58536585365854</v>
+        <v>47.82608695652174</v>
       </c>
       <c r="L32" t="n">
         <v>2791.9</v>
@@ -1911,7 +1931,7 @@
         <v>75</v>
       </c>
       <c r="K33" t="n">
-        <v>17.07317073170732</v>
+        <v>25.92592592592592</v>
       </c>
       <c r="L33" t="n">
         <v>2792.6</v>
@@ -1962,7 +1982,7 @@
         <v>86</v>
       </c>
       <c r="K34" t="n">
-        <v>33.33333333333333</v>
+        <v>47.36842105263158</v>
       </c>
       <c r="L34" t="n">
         <v>2794.4</v>
@@ -2013,7 +2033,7 @@
         <v>87</v>
       </c>
       <c r="K35" t="n">
-        <v>29.41176470588236</v>
+        <v>43.58974358974359</v>
       </c>
       <c r="L35" t="n">
         <v>2796.1</v>
@@ -2064,7 +2084,7 @@
         <v>95</v>
       </c>
       <c r="K36" t="n">
-        <v>13.79310344827586</v>
+        <v>19.14893617021277</v>
       </c>
       <c r="L36" t="n">
         <v>2797</v>
@@ -2115,7 +2135,7 @@
         <v>108</v>
       </c>
       <c r="K37" t="n">
-        <v>25.37313432835821</v>
+        <v>36.66666666666666</v>
       </c>
       <c r="L37" t="n">
         <v>2799.2</v>
@@ -2166,7 +2186,7 @@
         <v>110</v>
       </c>
       <c r="K38" t="n">
-        <v>20.58823529411764</v>
+        <v>23.63636363636364</v>
       </c>
       <c r="L38" t="n">
         <v>2801.2</v>
@@ -2217,7 +2237,7 @@
         <v>114</v>
       </c>
       <c r="K39" t="n">
-        <v>24.24242424242424</v>
+        <v>-2.040816326530612</v>
       </c>
       <c r="L39" t="n">
         <v>2802.1</v>
@@ -2268,7 +2288,7 @@
         <v>116</v>
       </c>
       <c r="K40" t="n">
-        <v>26.47058823529412</v>
+        <v>8.333333333333332</v>
       </c>
       <c r="L40" t="n">
         <v>2802.2</v>
@@ -2319,7 +2339,7 @@
         <v>121</v>
       </c>
       <c r="K41" t="n">
-        <v>31.50684931506849</v>
+        <v>24</v>
       </c>
       <c r="L41" t="n">
         <v>2803.1</v>
@@ -2370,7 +2390,7 @@
         <v>123</v>
       </c>
       <c r="K42" t="n">
-        <v>33.33333333333333</v>
+        <v>37.5</v>
       </c>
       <c r="L42" t="n">
         <v>2804.5</v>
@@ -2421,7 +2441,7 @@
         <v>123</v>
       </c>
       <c r="K43" t="n">
-        <v>33.33333333333333</v>
+        <v>18.91891891891892</v>
       </c>
       <c r="L43" t="n">
         <v>2806.3</v>
@@ -2472,7 +2492,7 @@
         <v>135</v>
       </c>
       <c r="K44" t="n">
-        <v>14.94252873563219</v>
+        <v>-8.333333333333332</v>
       </c>
       <c r="L44" t="n">
         <v>2805.8</v>
@@ -2523,7 +2543,7 @@
         <v>144</v>
       </c>
       <c r="K45" t="n">
-        <v>22.91666666666666</v>
+        <v>26.53061224489796</v>
       </c>
       <c r="L45" t="n">
         <v>2806.3</v>
@@ -2574,7 +2594,7 @@
         <v>145</v>
       </c>
       <c r="K46" t="n">
-        <v>23.71134020618556</v>
+        <v>2.702702702702703</v>
       </c>
       <c r="L46" t="n">
         <v>2807.7</v>
@@ -2625,7 +2645,7 @@
         <v>145</v>
       </c>
       <c r="K47" t="n">
-        <v>23.71134020618556</v>
+        <v>8.571428571428571</v>
       </c>
       <c r="L47" t="n">
         <v>2807.8</v>
@@ -2676,7 +2696,7 @@
         <v>145</v>
       </c>
       <c r="K48" t="n">
-        <v>23.71134020618556</v>
+        <v>22.58064516129032</v>
       </c>
       <c r="L48" t="n">
         <v>2808.1</v>
@@ -2727,7 +2747,7 @@
         <v>154</v>
       </c>
       <c r="K49" t="n">
-        <v>25.25252525252525</v>
+        <v>36.84210526315789</v>
       </c>
       <c r="L49" t="n">
         <v>2809.7</v>
@@ -2778,7 +2798,7 @@
         <v>158</v>
       </c>
       <c r="K50" t="n">
-        <v>20.43010752688172</v>
+        <v>35.13513513513514</v>
       </c>
       <c r="L50" t="n">
         <v>2811.5</v>
@@ -2829,7 +2849,7 @@
         <v>159</v>
       </c>
       <c r="K51" t="n">
-        <v>25.27472527472527</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L51" t="n">
         <v>2812.9</v>
@@ -2880,7 +2900,7 @@
         <v>165</v>
       </c>
       <c r="K52" t="n">
-        <v>21.27659574468085</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L52" t="n">
         <v>2813.5</v>
@@ -2931,7 +2951,7 @@
         <v>170</v>
       </c>
       <c r="K53" t="n">
-        <v>20</v>
+        <v>37.14285714285715</v>
       </c>
       <c r="L53" t="n">
         <v>2813.6</v>
@@ -2982,7 +3002,7 @@
         <v>171</v>
       </c>
       <c r="K54" t="n">
-        <v>8.235294117647058</v>
+        <v>11.11111111111111</v>
       </c>
       <c r="L54" t="n">
         <v>2814.8</v>
@@ -3033,7 +3053,7 @@
         <v>172</v>
       </c>
       <c r="K55" t="n">
-        <v>8.235294117647058</v>
+        <v>3.703703703703703</v>
       </c>
       <c r="L55" t="n">
         <v>2815</v>
@@ -3084,7 +3104,7 @@
         <v>180</v>
       </c>
       <c r="K56" t="n">
-        <v>8.235294117647058</v>
+        <v>-20</v>
       </c>
       <c r="L56" t="n">
         <v>2814.3</v>
@@ -3135,7 +3155,7 @@
         <v>190</v>
       </c>
       <c r="K57" t="n">
-        <v>-19.51219512195122</v>
+        <v>-37.77777777777778</v>
       </c>
       <c r="L57" t="n">
         <v>2812.6</v>
@@ -3186,7 +3206,7 @@
         <v>190</v>
       </c>
       <c r="K58" t="n">
-        <v>-17.5</v>
+        <v>-72.22222222222221</v>
       </c>
       <c r="L58" t="n">
         <v>2810.9</v>
@@ -3237,7 +3257,7 @@
         <v>190</v>
       </c>
       <c r="K59" t="n">
-        <v>-13.1578947368421</v>
+        <v>-93.75</v>
       </c>
       <c r="L59" t="n">
         <v>2808.3</v>
@@ -3288,7 +3308,7 @@
         <v>192</v>
       </c>
       <c r="K60" t="n">
-        <v>-13.1578947368421</v>
+        <v>-87.87878787878788</v>
       </c>
       <c r="L60" t="n">
         <v>2805.5</v>
@@ -3339,7 +3359,7 @@
         <v>195</v>
       </c>
       <c r="K61" t="n">
-        <v>-24.32432432432433</v>
+        <v>-86.66666666666667</v>
       </c>
       <c r="L61" t="n">
         <v>2802.3</v>
@@ -3390,7 +3410,7 @@
         <v>199</v>
       </c>
       <c r="K62" t="n">
-        <v>-21.05263157894737</v>
+        <v>-58.62068965517241</v>
       </c>
       <c r="L62" t="n">
         <v>2800.1</v>
@@ -3441,7 +3461,7 @@
         <v>199</v>
       </c>
       <c r="K63" t="n">
-        <v>-21.05263157894737</v>
+        <v>-57.14285714285714</v>
       </c>
       <c r="L63" t="n">
         <v>2798.4</v>
@@ -3492,7 +3512,7 @@
         <v>202</v>
       </c>
       <c r="K64" t="n">
-        <v>-10.44776119402985</v>
+        <v>-60</v>
       </c>
       <c r="L64" t="n">
         <v>2796.5</v>
@@ -3543,7 +3563,7 @@
         <v>202</v>
       </c>
       <c r="K65" t="n">
-        <v>-27.58620689655172</v>
+        <v>-45.45454545454545</v>
       </c>
       <c r="L65" t="n">
         <v>2794.7</v>
@@ -3594,7 +3614,7 @@
         <v>202</v>
       </c>
       <c r="K66" t="n">
-        <v>-29.82456140350877</v>
+        <v>0</v>
       </c>
       <c r="L66" t="n">
         <v>2793.7</v>
@@ -3645,7 +3665,7 @@
         <v>206</v>
       </c>
       <c r="K67" t="n">
-        <v>-21.31147540983606</v>
+        <v>25</v>
       </c>
       <c r="L67" t="n">
         <v>2794.1</v>
@@ -3696,7 +3716,7 @@
         <v>206</v>
       </c>
       <c r="K68" t="n">
-        <v>-21.31147540983606</v>
+        <v>25</v>
       </c>
       <c r="L68" t="n">
         <v>2794.5</v>
@@ -3747,7 +3767,7 @@
         <v>209</v>
       </c>
       <c r="K69" t="n">
-        <v>-34.54545454545455</v>
+        <v>29.41176470588236</v>
       </c>
       <c r="L69" t="n">
         <v>2795.2</v>
@@ -3798,7 +3818,7 @@
         <v>216</v>
       </c>
       <c r="K70" t="n">
-        <v>-51.72413793103448</v>
+        <v>4.761904761904762</v>
       </c>
       <c r="L70" t="n">
         <v>2795</v>
@@ -3849,7 +3869,7 @@
         <v>219</v>
       </c>
       <c r="K71" t="n">
-        <v>-56.66666666666666</v>
+        <v>-30</v>
       </c>
       <c r="L71" t="n">
         <v>2794.8</v>
@@ -3900,7 +3920,7 @@
         <v>225</v>
       </c>
       <c r="K72" t="n">
-        <v>-36.66666666666666</v>
+        <v>0</v>
       </c>
       <c r="L72" t="n">
         <v>2794.8</v>
@@ -3951,7 +3971,7 @@
         <v>225</v>
       </c>
       <c r="K73" t="n">
-        <v>-30.90909090909091</v>
+        <v>13.04347826086956</v>
       </c>
       <c r="L73" t="n">
         <v>2794.8</v>
@@ -4002,7 +4022,7 @@
         <v>225</v>
       </c>
       <c r="K74" t="n">
-        <v>-29.62962962962963</v>
+        <v>13.04347826086956</v>
       </c>
       <c r="L74" t="n">
         <v>2795.1</v>
@@ -4053,7 +4073,7 @@
         <v>225</v>
       </c>
       <c r="K75" t="n">
-        <v>-28.30188679245283</v>
+        <v>13.04347826086956</v>
       </c>
       <c r="L75" t="n">
         <v>2795.4</v>
@@ -4104,7 +4124,7 @@
         <v>236</v>
       </c>
       <c r="K76" t="n">
-        <v>-32.14285714285715</v>
+        <v>-40</v>
       </c>
       <c r="L76" t="n">
         <v>2794.6</v>
@@ -4155,7 +4175,7 @@
         <v>241</v>
       </c>
       <c r="K77" t="n">
-        <v>-25.49019607843137</v>
+        <v>-48.57142857142857</v>
       </c>
       <c r="L77" t="n">
         <v>2792.9</v>
@@ -4206,7 +4226,7 @@
         <v>241</v>
       </c>
       <c r="K78" t="n">
-        <v>-25.49019607843137</v>
+        <v>-62.5</v>
       </c>
       <c r="L78" t="n">
         <v>2791.2</v>
@@ -4257,7 +4277,7 @@
         <v>249</v>
       </c>
       <c r="K79" t="n">
-        <v>-35.59322033898305</v>
+        <v>-63.63636363636363</v>
       </c>
       <c r="L79" t="n">
         <v>2788.4</v>
@@ -4308,7 +4328,7 @@
         <v>249</v>
       </c>
       <c r="K80" t="n">
-        <v>-40.35087719298245</v>
+        <v>-60</v>
       </c>
       <c r="L80" t="n">
         <v>2786.3</v>
@@ -4359,7 +4379,7 @@
         <v>258</v>
       </c>
       <c r="K81" t="n">
-        <v>-17.46031746031746</v>
+        <v>-45.45454545454545</v>
       </c>
       <c r="L81" t="n">
         <v>2785.4</v>
@@ -4410,7 +4430,7 @@
         <v>267</v>
       </c>
       <c r="K82" t="n">
-        <v>-35.29411764705883</v>
+        <v>-57.14285714285714</v>
       </c>
       <c r="L82" t="n">
         <v>2783</v>
@@ -4461,7 +4481,7 @@
         <v>268</v>
       </c>
       <c r="K83" t="n">
-        <v>-36.23188405797102</v>
+        <v>-58.13953488372093</v>
       </c>
       <c r="L83" t="n">
         <v>2780.5</v>
@@ -4512,7 +4532,7 @@
         <v>270</v>
       </c>
       <c r="K84" t="n">
-        <v>-35.29411764705883</v>
+        <v>-60</v>
       </c>
       <c r="L84" t="n">
         <v>2777.8</v>
@@ -4563,7 +4583,7 @@
         <v>289</v>
       </c>
       <c r="K85" t="n">
-        <v>-49.42528735632184</v>
+        <v>-66.0377358490566</v>
       </c>
       <c r="L85" t="n">
         <v>2773.2</v>
@@ -4614,7 +4634,7 @@
         <v>292</v>
       </c>
       <c r="K86" t="n">
-        <v>-44.44444444444444</v>
+        <v>-52.94117647058824</v>
       </c>
       <c r="L86" t="n">
         <v>2770</v>
@@ -4665,7 +4685,7 @@
         <v>292</v>
       </c>
       <c r="K87" t="n">
-        <v>-51.16279069767442</v>
+        <v>-52.94117647058824</v>
       </c>
       <c r="L87" t="n">
         <v>2767.3</v>
@@ -4716,7 +4736,7 @@
         <v>296</v>
       </c>
       <c r="K88" t="n">
-        <v>-44.44444444444444</v>
+        <v>-31.91489361702128</v>
       </c>
       <c r="L88" t="n">
         <v>2765</v>
@@ -4767,7 +4787,7 @@
         <v>310</v>
       </c>
       <c r="K89" t="n">
-        <v>-28.71287128712871</v>
+        <v>-1.639344262295082</v>
       </c>
       <c r="L89" t="n">
         <v>2764.9</v>
@@ -4818,7 +4838,7 @@
         <v>310</v>
       </c>
       <c r="K90" t="n">
-        <v>-23.40425531914894</v>
+        <v>-19.23076923076923</v>
       </c>
       <c r="L90" t="n">
         <v>2764.8</v>
@@ -4869,7 +4889,7 @@
         <v>332</v>
       </c>
       <c r="K91" t="n">
-        <v>-36.28318584070797</v>
+        <v>-35.38461538461539</v>
       </c>
       <c r="L91" t="n">
         <v>2761.6</v>
@@ -4920,7 +4940,7 @@
         <v>333</v>
       </c>
       <c r="K92" t="n">
-        <v>-42.5925925925926</v>
+        <v>-32.30769230769231</v>
       </c>
       <c r="L92" t="n">
         <v>2759.4</v>
@@ -4971,7 +4991,7 @@
         <v>334</v>
       </c>
       <c r="K93" t="n">
-        <v>-41.28440366972477</v>
+        <v>-28.125</v>
       </c>
       <c r="L93" t="n">
         <v>2757.4</v>
@@ -5022,7 +5042,7 @@
         <v>336</v>
       </c>
       <c r="K94" t="n">
-        <v>-42.34234234234234</v>
+        <v>-2.127659574468085</v>
       </c>
       <c r="L94" t="n">
         <v>2755.4</v>
@@ -5073,7 +5093,7 @@
         <v>341</v>
       </c>
       <c r="K95" t="n">
-        <v>-44.82758620689656</v>
+        <v>-18.36734693877551</v>
       </c>
       <c r="L95" t="n">
         <v>2754.8</v>
@@ -5124,7 +5144,7 @@
         <v>344</v>
       </c>
       <c r="K96" t="n">
-        <v>-40.74074074074074</v>
+        <v>-23.07692307692308</v>
       </c>
       <c r="L96" t="n">
         <v>2753.6</v>
@@ -5175,7 +5195,7 @@
         <v>353</v>
       </c>
       <c r="K97" t="n">
-        <v>-42.85714285714285</v>
+        <v>-43.85964912280701</v>
       </c>
       <c r="L97" t="n">
         <v>2751.5</v>
@@ -5226,7 +5246,7 @@
         <v>354</v>
       </c>
       <c r="K98" t="n">
-        <v>-43.36283185840708</v>
+        <v>-90.90909090909091</v>
       </c>
       <c r="L98" t="n">
         <v>2748.9</v>
@@ -5277,7 +5297,7 @@
         <v>354</v>
       </c>
       <c r="K99" t="n">
-        <v>-39.04761904761905</v>
+        <v>-90.90909090909091</v>
       </c>
       <c r="L99" t="n">
         <v>2744.9</v>
@@ -5328,7 +5348,7 @@
         <v>355</v>
       </c>
       <c r="K100" t="n">
-        <v>-39.62264150943396</v>
+        <v>-82.60869565217391</v>
       </c>
       <c r="L100" t="n">
         <v>2740.8</v>
@@ -5379,7 +5399,7 @@
         <v>362</v>
       </c>
       <c r="K101" t="n">
-        <v>-55.76923076923077</v>
+        <v>-93.10344827586206</v>
       </c>
       <c r="L101" t="n">
         <v>2738.2</v>
@@ -5430,7 +5450,7 @@
         <v>371</v>
       </c>
       <c r="K102" t="n">
-        <v>-38.46153846153847</v>
+        <v>-51.35135135135135</v>
       </c>
       <c r="L102" t="n">
         <v>2736.4</v>
@@ -5481,7 +5501,7 @@
         <v>373</v>
       </c>
       <c r="K103" t="n">
-        <v>-35.23809523809524</v>
+        <v>-40.54054054054054</v>
       </c>
       <c r="L103" t="n">
         <v>2734.7</v>
@@ -5532,7 +5552,7 @@
         <v>379</v>
       </c>
       <c r="K104" t="n">
-        <v>-26.60550458715597</v>
+        <v>-10.52631578947368</v>
       </c>
       <c r="L104" t="n">
         <v>2733.8</v>
@@ -5583,7 +5603,7 @@
         <v>381</v>
       </c>
       <c r="K105" t="n">
-        <v>-13.04347826086956</v>
+        <v>-8.108108108108109</v>
       </c>
       <c r="L105" t="n">
         <v>2733.2</v>
@@ -5634,7 +5654,7 @@
         <v>387</v>
       </c>
       <c r="K106" t="n">
-        <v>-9.473684210526317</v>
+        <v>35.29411764705883</v>
       </c>
       <c r="L106" t="n">
         <v>2733.5</v>
@@ -5685,7 +5705,7 @@
         <v>391</v>
       </c>
       <c r="K107" t="n">
-        <v>-13.13131313131313</v>
+        <v>24.32432432432433</v>
       </c>
       <c r="L107" t="n">
         <v>2734.3</v>
@@ -5736,7 +5756,7 @@
         <v>391</v>
       </c>
       <c r="K108" t="n">
-        <v>-17.89473684210526</v>
+        <v>24.32432432432433</v>
       </c>
       <c r="L108" t="n">
         <v>2735.2</v>
@@ -5787,7 +5807,7 @@
         <v>392</v>
       </c>
       <c r="K109" t="n">
-        <v>-39.02439024390244</v>
+        <v>24.32432432432433</v>
       </c>
       <c r="L109" t="n">
         <v>2736</v>
@@ -5838,7 +5858,7 @@
         <v>397</v>
       </c>
       <c r="K110" t="n">
-        <v>-31.03448275862069</v>
+        <v>60</v>
       </c>
       <c r="L110" t="n">
         <v>2737.4</v>
@@ -5889,7 +5909,7 @@
         <v>405</v>
       </c>
       <c r="K111" t="n">
-        <v>4.10958904109589</v>
+        <v>58.82352941176471</v>
       </c>
       <c r="L111" t="n">
         <v>2740.3</v>
@@ -5940,7 +5960,7 @@
         <v>411</v>
       </c>
       <c r="K112" t="n">
-        <v>-5.128205128205128</v>
+        <v>31.57894736842105</v>
       </c>
       <c r="L112" t="n">
         <v>2741.7</v>
@@ -5991,7 +6011,7 @@
         <v>418</v>
       </c>
       <c r="K113" t="n">
-        <v>2.380952380952381</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L113" t="n">
         <v>2743.6</v>
@@ -6042,7 +6062,7 @@
         <v>425</v>
       </c>
       <c r="K114" t="n">
-        <v>-3.370786516853932</v>
+        <v>18.18181818181818</v>
       </c>
       <c r="L114" t="n">
         <v>2744.2</v>
@@ -6093,7 +6113,7 @@
         <v>429</v>
       </c>
       <c r="K115" t="n">
-        <v>-2.272727272727273</v>
+        <v>-4.761904761904762</v>
       </c>
       <c r="L115" t="n">
         <v>2744.6</v>
@@ -6144,7 +6164,7 @@
         <v>431</v>
       </c>
       <c r="K116" t="n">
-        <v>-1.149425287356322</v>
+        <v>0</v>
       </c>
       <c r="L116" t="n">
         <v>2744.2</v>
@@ -6195,7 +6215,7 @@
         <v>431</v>
       </c>
       <c r="K117" t="n">
-        <v>10.25641025641026</v>
+        <v>0</v>
       </c>
       <c r="L117" t="n">
         <v>2744.2</v>
@@ -6246,7 +6266,7 @@
         <v>431</v>
       </c>
       <c r="K118" t="n">
-        <v>11.68831168831169</v>
+        <v>2.564102564102564</v>
       </c>
       <c r="L118" t="n">
         <v>2744.2</v>
@@ -6297,7 +6317,7 @@
         <v>439</v>
       </c>
       <c r="K119" t="n">
-        <v>20</v>
+        <v>9.523809523809524</v>
       </c>
       <c r="L119" t="n">
         <v>2745.1</v>
@@ -6348,7 +6368,7 @@
         <v>485</v>
       </c>
       <c r="K120" t="n">
-        <v>49.23076923076923</v>
+        <v>52.5</v>
       </c>
       <c r="L120" t="n">
         <v>2750.1</v>
@@ -6399,7 +6419,7 @@
         <v>543</v>
       </c>
       <c r="K121" t="n">
-        <v>7.18232044198895</v>
+        <v>-7.575757575757576</v>
       </c>
       <c r="L121" t="n">
         <v>2748.5</v>
@@ -6450,7 +6470,7 @@
         <v>544</v>
       </c>
       <c r="K122" t="n">
-        <v>1.734104046242774</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L122" t="n">
         <v>2747.4</v>
@@ -6501,7 +6521,7 @@
         <v>545</v>
       </c>
       <c r="K123" t="n">
-        <v>1.162790697674419</v>
+        <v>-8.333333333333332</v>
       </c>
       <c r="L123" t="n">
         <v>2745.7</v>
@@ -6552,7 +6572,7 @@
         <v>547</v>
       </c>
       <c r="K124" t="n">
-        <v>-1.19047619047619</v>
+        <v>-3.389830508474576</v>
       </c>
       <c r="L124" t="n">
         <v>2744.9</v>
@@ -6603,7 +6623,7 @@
         <v>557</v>
       </c>
       <c r="K125" t="n">
-        <v>5.681818181818182</v>
+        <v>6.349206349206349</v>
       </c>
       <c r="L125" t="n">
         <v>2745.5</v>
@@ -6654,7 +6674,7 @@
         <v>557</v>
       </c>
       <c r="K126" t="n">
-        <v>2.352941176470588</v>
+        <v>6.349206349206349</v>
       </c>
       <c r="L126" t="n">
         <v>2746.3</v>
@@ -6705,7 +6725,7 @@
         <v>560</v>
       </c>
       <c r="K127" t="n">
-        <v>6.508875739644971</v>
+        <v>8.527131782945736</v>
       </c>
       <c r="L127" t="n">
         <v>2747.4</v>
@@ -6756,7 +6776,7 @@
         <v>563</v>
       </c>
       <c r="K128" t="n">
-        <v>4.651162790697675</v>
+        <v>0</v>
       </c>
       <c r="L128" t="n">
         <v>2748.2</v>
@@ -6807,7 +6827,7 @@
         <v>571</v>
       </c>
       <c r="K129" t="n">
-        <v>0.5586592178770949</v>
+        <v>-62.7906976744186</v>
       </c>
       <c r="L129" t="n">
         <v>2747.4</v>
@@ -6858,7 +6878,7 @@
         <v>573</v>
       </c>
       <c r="K130" t="n">
-        <v>-3.409090909090909</v>
+        <v>6.666666666666667</v>
       </c>
       <c r="L130" t="n">
         <v>2741.8</v>
@@ -6909,7 +6929,7 @@
         <v>581</v>
       </c>
       <c r="K131" t="n">
-        <v>-12.5</v>
+        <v>-13.51351351351351</v>
       </c>
       <c r="L131" t="n">
         <v>2741.2</v>
@@ -6960,7 +6980,7 @@
         <v>582</v>
       </c>
       <c r="K132" t="n">
-        <v>-8.771929824561402</v>
+        <v>-13.51351351351351</v>
       </c>
       <c r="L132" t="n">
         <v>2740.8</v>
@@ -7011,7 +7031,7 @@
         <v>582</v>
       </c>
       <c r="K133" t="n">
-        <v>-13.41463414634146</v>
+        <v>-20</v>
       </c>
       <c r="L133" t="n">
         <v>2740.3</v>
@@ -7062,7 +7082,7 @@
         <v>582</v>
       </c>
       <c r="K134" t="n">
-        <v>-9.554140127388536</v>
+        <v>-68</v>
       </c>
       <c r="L134" t="n">
         <v>2739.6</v>
@@ -7113,7 +7133,7 @@
         <v>583</v>
       </c>
       <c r="K135" t="n">
-        <v>-7.792207792207792</v>
+        <v>-69.23076923076923</v>
       </c>
       <c r="L135" t="n">
         <v>2737.8</v>
@@ -7164,7 +7184,7 @@
         <v>583</v>
       </c>
       <c r="K136" t="n">
-        <v>-6.578947368421052</v>
+        <v>-91.30434782608695</v>
       </c>
       <c r="L136" t="n">
         <v>2736</v>
@@ -7215,7 +7235,7 @@
         <v>587</v>
       </c>
       <c r="K137" t="n">
-        <v>-3.846153846153846</v>
+        <v>-58.33333333333334</v>
       </c>
       <c r="L137" t="n">
         <v>2734.3</v>
@@ -7266,7 +7286,7 @@
         <v>598</v>
       </c>
       <c r="K138" t="n">
-        <v>-10.17964071856287</v>
+        <v>-62.96296296296296</v>
       </c>
       <c r="L138" t="n">
         <v>2731.8</v>
@@ -7317,7 +7337,7 @@
         <v>607</v>
       </c>
       <c r="K139" t="n">
-        <v>-9.523809523809524</v>
+        <v>-17.64705882352941</v>
       </c>
       <c r="L139" t="n">
         <v>2731</v>
@@ -7368,7 +7388,7 @@
         <v>615</v>
       </c>
       <c r="K140" t="n">
-        <v>-41.53846153846154</v>
+        <v>29.41176470588236</v>
       </c>
       <c r="L140" t="n">
         <v>2731.2</v>
@@ -7419,7 +7439,7 @@
         <v>622</v>
       </c>
       <c r="K141" t="n">
-        <v>-3.79746835443038</v>
+        <v>5</v>
       </c>
       <c r="L141" t="n">
         <v>2731.5</v>
@@ -7470,7 +7490,7 @@
         <v>623</v>
       </c>
       <c r="K142" t="n">
-        <v>-1.265822784810127</v>
+        <v>7.317073170731707</v>
       </c>
       <c r="L142" t="n">
         <v>2731.8</v>
@@ -7521,7 +7541,7 @@
         <v>631</v>
       </c>
       <c r="K143" t="n">
-        <v>6.976744186046512</v>
+        <v>22.44897959183674</v>
       </c>
       <c r="L143" t="n">
         <v>2732.9</v>
@@ -7572,7 +7592,7 @@
         <v>633</v>
       </c>
       <c r="K144" t="n">
-        <v>6.976744186046512</v>
+        <v>28</v>
       </c>
       <c r="L144" t="n">
         <v>2734.2</v>
@@ -7623,7 +7643,7 @@
         <v>641</v>
       </c>
       <c r="K145" t="n">
-        <v>-14.28571428571428</v>
+        <v>10.3448275862069</v>
       </c>
       <c r="L145" t="n">
         <v>2734.8</v>
@@ -7674,7 +7694,7 @@
         <v>642</v>
       </c>
       <c r="K146" t="n">
-        <v>-15.29411764705882</v>
+        <v>1.818181818181818</v>
       </c>
       <c r="L146" t="n">
         <v>2735.3</v>
@@ -7725,7 +7745,7 @@
         <v>646</v>
       </c>
       <c r="K147" t="n">
-        <v>-13.95348837209302</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L147" t="n">
         <v>2735.8</v>
@@ -7776,7 +7796,7 @@
         <v>652</v>
       </c>
       <c r="K148" t="n">
-        <v>-16.85393258426966</v>
+        <v>2.222222222222222</v>
       </c>
       <c r="L148" t="n">
         <v>2736.8</v>
@@ -7827,7 +7847,7 @@
         <v>654</v>
       </c>
       <c r="K149" t="n">
-        <v>-10.8433734939759</v>
+        <v>-23.07692307692308</v>
       </c>
       <c r="L149" t="n">
         <v>2736.7</v>
@@ -7878,7 +7898,7 @@
         <v>664</v>
       </c>
       <c r="K150" t="n">
-        <v>3.296703296703297</v>
+        <v>19.04761904761905</v>
       </c>
       <c r="L150" t="n">
         <v>2736.8</v>
@@ -7929,7 +7949,7 @@
         <v>667</v>
       </c>
       <c r="K151" t="n">
-        <v>9.302325581395349</v>
+        <v>9.090909090909092</v>
       </c>
       <c r="L151" t="n">
         <v>2737.3</v>
@@ -7980,7 +8000,7 @@
         <v>683</v>
       </c>
       <c r="K152" t="n">
-        <v>22.77227722772277</v>
+        <v>23.07692307692308</v>
       </c>
       <c r="L152" t="n">
         <v>2739.3</v>
@@ -8031,7 +8051,7 @@
         <v>689</v>
       </c>
       <c r="K153" t="n">
-        <v>15.88785046728972</v>
+        <v>7.142857142857142</v>
       </c>
       <c r="L153" t="n">
         <v>2739.9</v>
@@ -8082,7 +8102,7 @@
         <v>700</v>
       </c>
       <c r="K154" t="n">
-        <v>23.72881355932203</v>
+        <v>38.98305084745763</v>
       </c>
       <c r="L154" t="n">
         <v>2741.4</v>
@@ -8133,7 +8153,7 @@
         <v>707</v>
       </c>
       <c r="K155" t="n">
-        <v>29.03225806451613</v>
+        <v>47.69230769230769</v>
       </c>
       <c r="L155" t="n">
         <v>2744.4</v>
@@ -8184,7 +8204,7 @@
         <v>707</v>
       </c>
       <c r="K156" t="n">
-        <v>29.03225806451613</v>
+        <v>44.26229508196721</v>
       </c>
       <c r="L156" t="n">
         <v>2747.5</v>
@@ -8235,7 +8255,7 @@
         <v>714</v>
       </c>
       <c r="K157" t="n">
-        <v>19.68503937007874</v>
+        <v>41.93548387096774</v>
       </c>
       <c r="L157" t="n">
         <v>2749.5</v>
@@ -8286,7 +8306,7 @@
         <v>720</v>
       </c>
       <c r="K158" t="n">
-        <v>24.59016393442623</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L158" t="n">
         <v>2751.5</v>
@@ -8337,7 +8357,7 @@
         <v>721</v>
       </c>
       <c r="K159" t="n">
-        <v>17.5438596491228</v>
+        <v>19.29824561403509</v>
       </c>
       <c r="L159" t="n">
         <v>2753.6</v>
@@ -8388,7 +8408,7 @@
         <v>731</v>
       </c>
       <c r="K160" t="n">
-        <v>1.724137931034483</v>
+        <v>6.25</v>
       </c>
       <c r="L160" t="n">
         <v>2753.7</v>
@@ -8439,7 +8459,7 @@
         <v>742</v>
       </c>
       <c r="K161" t="n">
-        <v>16.66666666666666</v>
+        <v>-1.694915254237288</v>
       </c>
       <c r="L161" t="n">
         <v>2755.2</v>
@@ -8490,7 +8510,7 @@
         <v>754</v>
       </c>
       <c r="K162" t="n">
-        <v>23.66412213740458</v>
+        <v>26.15384615384616</v>
       </c>
       <c r="L162" t="n">
         <v>2756.3</v>
@@ -8541,7 +8561,7 @@
         <v>758</v>
       </c>
       <c r="K163" t="n">
-        <v>21.25984251968504</v>
+        <v>17.24137931034483</v>
       </c>
       <c r="L163" t="n">
         <v>2758.4</v>
@@ -8592,7 +8612,7 @@
         <v>764</v>
       </c>
       <c r="K164" t="n">
-        <v>23.66412213740458</v>
+        <v>15.78947368421053</v>
       </c>
       <c r="L164" t="n">
         <v>2760</v>
@@ -8643,7 +8663,7 @@
         <v>779</v>
       </c>
       <c r="K165" t="n">
-        <v>17.39130434782609</v>
+        <v>-8.333333333333332</v>
       </c>
       <c r="L165" t="n">
         <v>2759.4</v>
@@ -8694,7 +8714,7 @@
         <v>787</v>
       </c>
       <c r="K166" t="n">
-        <v>22.75862068965517</v>
+        <v>12.32876712328767</v>
       </c>
       <c r="L166" t="n">
         <v>2759.6</v>
@@ -8745,7 +8765,7 @@
         <v>802</v>
       </c>
       <c r="K167" t="n">
-        <v>28.2051282051282</v>
+        <v>36.58536585365854</v>
       </c>
       <c r="L167" t="n">
         <v>2762</v>
@@ -8796,7 +8816,7 @@
         <v>817</v>
       </c>
       <c r="K168" t="n">
-        <v>21.21212121212121</v>
+        <v>16.66666666666666</v>
       </c>
       <c r="L168" t="n">
         <v>2763.5</v>
@@ -8847,7 +8867,7 @@
         <v>832</v>
       </c>
       <c r="K169" t="n">
-        <v>29.21348314606741</v>
+        <v>40.5940594059406</v>
       </c>
       <c r="L169" t="n">
         <v>2766.6</v>
@@ -8898,7 +8918,7 @@
         <v>833</v>
       </c>
       <c r="K170" t="n">
-        <v>25.44378698224852</v>
+        <v>34.06593406593407</v>
       </c>
       <c r="L170" t="n">
         <v>2770.8</v>
@@ -8949,7 +8969,7 @@
         <v>835</v>
       </c>
       <c r="K171" t="n">
-        <v>26.19047619047619</v>
+        <v>20.98765432098765</v>
       </c>
       <c r="L171" t="n">
         <v>2773.7</v>
@@ -9000,7 +9020,7 @@
         <v>845</v>
       </c>
       <c r="K172" t="n">
-        <v>11.11111111111111</v>
+        <v>3.448275862068965</v>
       </c>
       <c r="L172" t="n">
         <v>2774.4</v>
@@ -9051,7 +9071,7 @@
         <v>845</v>
       </c>
       <c r="K173" t="n">
-        <v>15.38461538461539</v>
+        <v>-3.703703703703703</v>
       </c>
       <c r="L173" t="n">
         <v>2774.7</v>
@@ -9102,7 +9122,7 @@
         <v>845</v>
       </c>
       <c r="K174" t="n">
-        <v>8.96551724137931</v>
+        <v>18.18181818181818</v>
       </c>
       <c r="L174" t="n">
         <v>2774.4</v>
@@ -9153,7 +9173,7 @@
         <v>847</v>
       </c>
       <c r="K175" t="n">
-        <v>2.857142857142857</v>
+        <v>3.333333333333333</v>
       </c>
       <c r="L175" t="n">
         <v>2775.4</v>
@@ -9204,7 +9224,7 @@
         <v>850</v>
       </c>
       <c r="K176" t="n">
-        <v>4.895104895104895</v>
+        <v>-20.83333333333334</v>
       </c>
       <c r="L176" t="n">
         <v>2775.9</v>
@@ -9255,7 +9275,7 @@
         <v>850</v>
       </c>
       <c r="K177" t="n">
-        <v>10.29411764705882</v>
+        <v>15.15151515151515</v>
       </c>
       <c r="L177" t="n">
         <v>2774.9</v>
@@ -9306,7 +9326,7 @@
         <v>851</v>
       </c>
       <c r="K178" t="n">
-        <v>16.03053435114504</v>
+        <v>-47.36842105263158</v>
       </c>
       <c r="L178" t="n">
         <v>2775.5</v>
@@ -9357,7 +9377,7 @@
         <v>856</v>
       </c>
       <c r="K179" t="n">
-        <v>12.59259259259259</v>
+        <v>-65.21739130434783</v>
       </c>
       <c r="L179" t="n">
         <v>2774.1</v>
@@ -9408,7 +9428,7 @@
         <v>858</v>
       </c>
       <c r="K180" t="n">
-        <v>19.68503937007874</v>
+        <v>-65.21739130434783</v>
       </c>
       <c r="L180" t="n">
         <v>2772.4</v>
@@ -9459,7 +9479,7 @@
         <v>875</v>
       </c>
       <c r="K181" t="n">
-        <v>23.30827067669173</v>
+        <v>40</v>
       </c>
       <c r="L181" t="n">
         <v>2772.6</v>
@@ -9510,7 +9530,7 @@
         <v>878</v>
       </c>
       <c r="K182" t="n">
-        <v>17.74193548387097</v>
+        <v>45.45454545454545</v>
       </c>
       <c r="L182" t="n">
         <v>2774.1</v>
@@ -9561,7 +9581,7 @@
         <v>879</v>
       </c>
       <c r="K183" t="n">
-        <v>15.70247933884298</v>
+        <v>47.05882352941176</v>
       </c>
       <c r="L183" t="n">
         <v>2775.7</v>
@@ -9612,7 +9632,7 @@
         <v>882</v>
       </c>
       <c r="K184" t="n">
-        <v>8.474576271186439</v>
+        <v>42.85714285714285</v>
       </c>
       <c r="L184" t="n">
         <v>2777</v>
@@ -9663,7 +9683,7 @@
         <v>890</v>
       </c>
       <c r="K185" t="n">
-        <v>15.31531531531531</v>
+        <v>10</v>
       </c>
       <c r="L185" t="n">
         <v>2777.7</v>
@@ -9714,7 +9734,7 @@
         <v>890</v>
       </c>
       <c r="K186" t="n">
-        <v>8.737864077669903</v>
+        <v>10</v>
       </c>
       <c r="L186" t="n">
         <v>2778.1</v>
@@ -9765,7 +9785,7 @@
         <v>893</v>
       </c>
       <c r="K187" t="n">
-        <v>-9.890109890109891</v>
+        <v>0</v>
       </c>
       <c r="L187" t="n">
         <v>2778.2</v>
@@ -9816,7 +9836,7 @@
         <v>893</v>
       </c>
       <c r="K188" t="n">
-        <v>7.894736842105263</v>
+        <v>13.51351351351351</v>
       </c>
       <c r="L188" t="n">
         <v>2778.2</v>
@@ -9867,7 +9887,7 @@
         <v>893</v>
       </c>
       <c r="K189" t="n">
-        <v>-14.75409836065574</v>
+        <v>20</v>
       </c>
       <c r="L189" t="n">
         <v>2778.7</v>
@@ -9918,7 +9938,7 @@
         <v>901</v>
       </c>
       <c r="K190" t="n">
-        <v>-26.47058823529412</v>
+        <v>-69.23076923076923</v>
       </c>
       <c r="L190" t="n">
         <v>2778.6</v>
@@ -9969,7 +9989,7 @@
         <v>913</v>
       </c>
       <c r="K191" t="n">
-        <v>-35.8974358974359</v>
+        <v>-94.28571428571428</v>
       </c>
       <c r="L191" t="n">
         <v>2775.6</v>
@@ -10020,7 +10040,7 @@
         <v>913</v>
       </c>
       <c r="K192" t="n">
-        <v>-26.47058823529412</v>
+        <v>-100</v>
       </c>
       <c r="L192" t="n">
         <v>2772.3</v>
@@ -10071,7 +10091,7 @@
         <v>921</v>
       </c>
       <c r="K193" t="n">
-        <v>-13.1578947368421</v>
+        <v>-58.97435897435898</v>
       </c>
       <c r="L193" t="n">
         <v>2769.7</v>
@@ -10122,7 +10142,7 @@
         <v>932</v>
       </c>
       <c r="K194" t="n">
-        <v>1.149425287356322</v>
+        <v>-9.523809523809524</v>
       </c>
       <c r="L194" t="n">
         <v>2768.5</v>
@@ -10173,7 +10193,7 @@
         <v>942</v>
       </c>
       <c r="K195" t="n">
-        <v>-7.368421052631578</v>
+        <v>-26.92307692307692</v>
       </c>
       <c r="L195" t="n">
         <v>2767.1</v>
@@ -10224,7 +10244,7 @@
         <v>942</v>
       </c>
       <c r="K196" t="n">
-        <v>-10.8695652173913</v>
+        <v>-22.44897959183674</v>
       </c>
       <c r="L196" t="n">
         <v>2765.7</v>
@@ -10275,7 +10295,7 @@
         <v>943</v>
       </c>
       <c r="K197" t="n">
-        <v>-11.82795698924731</v>
+        <v>-24</v>
       </c>
       <c r="L197" t="n">
         <v>2764.5</v>
@@ -10326,7 +10346,7 @@
         <v>943</v>
       </c>
       <c r="K198" t="n">
-        <v>-13.04347826086956</v>
+        <v>-24</v>
       </c>
       <c r="L198" t="n">
         <v>2763.3</v>
@@ -10377,7 +10397,7 @@
         <v>949</v>
       </c>
       <c r="K199" t="n">
-        <v>-13.97849462365591</v>
+        <v>-20.83333333333334</v>
       </c>
       <c r="L199" t="n">
         <v>2761.5</v>
@@ -10428,7 +10448,7 @@
         <v>954</v>
       </c>
       <c r="K200" t="n">
-        <v>-6.25</v>
+        <v>17.07317073170732</v>
       </c>
       <c r="L200" t="n">
         <v>2761</v>
@@ -10479,7 +10499,7 @@
         <v>959</v>
       </c>
       <c r="K201" t="n">
-        <v>-33.33333333333333</v>
+        <v>4.347826086956522</v>
       </c>
       <c r="L201" t="n">
         <v>2761.2</v>
@@ -10530,7 +10550,7 @@
         <v>962</v>
       </c>
       <c r="K202" t="n">
-        <v>-33.33333333333333</v>
+        <v>-7.317073170731707</v>
       </c>
       <c r="L202" t="n">
         <v>2761.7</v>
@@ -10581,7 +10601,7 @@
         <v>965</v>
       </c>
       <c r="K203" t="n">
-        <v>-30.23255813953488</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L203" t="n">
         <v>2761.7</v>
@@ -10632,7 +10652,7 @@
         <v>985</v>
       </c>
       <c r="K204" t="n">
-        <v>-2.912621359223301</v>
+        <v>44.18604651162791</v>
       </c>
       <c r="L204" t="n">
         <v>2762.6</v>
@@ -10683,7 +10703,7 @@
         <v>989</v>
       </c>
       <c r="K205" t="n">
-        <v>1.01010101010101</v>
+        <v>31.91489361702128</v>
       </c>
       <c r="L205" t="n">
         <v>2764.1</v>
@@ -10734,7 +10754,7 @@
         <v>989</v>
       </c>
       <c r="K206" t="n">
-        <v>1.01010101010101</v>
+        <v>34.78260869565217</v>
       </c>
       <c r="L206" t="n">
         <v>2765.6</v>
@@ -10785,7 +10805,7 @@
         <v>989</v>
       </c>
       <c r="K207" t="n">
-        <v>4.166666666666666</v>
+        <v>34.78260869565217</v>
       </c>
       <c r="L207" t="n">
         <v>2767.2</v>
@@ -10836,7 +10856,7 @@
         <v>996</v>
       </c>
       <c r="K208" t="n">
-        <v>10.67961165048544</v>
+        <v>61.70212765957447</v>
       </c>
       <c r="L208" t="n">
         <v>2769.5</v>
@@ -10887,7 +10907,7 @@
         <v>1003</v>
       </c>
       <c r="K209" t="n">
-        <v>3.636363636363636</v>
+        <v>34.69387755102041</v>
       </c>
       <c r="L209" t="n">
         <v>2771.7</v>
@@ -10938,7 +10958,7 @@
         <v>1003</v>
       </c>
       <c r="K210" t="n">
-        <v>11.76470588235294</v>
+        <v>50</v>
       </c>
       <c r="L210" t="n">
         <v>2773.4</v>
@@ -10989,7 +11009,7 @@
         <v>1003</v>
       </c>
       <c r="K211" t="n">
-        <v>26.66666666666667</v>
+        <v>46.34146341463415</v>
       </c>
       <c r="L211" t="n">
         <v>2775.6</v>
@@ -11040,7 +11060,7 @@
         <v>1013</v>
       </c>
       <c r="K212" t="n">
-        <v>34</v>
+        <v>54.16666666666666</v>
       </c>
       <c r="L212" t="n">
         <v>2778.5</v>
@@ -11091,7 +11111,7 @@
         <v>1015</v>
       </c>
       <c r="K213" t="n">
-        <v>29.78723404255319</v>
+        <v>26.66666666666667</v>
       </c>
       <c r="L213" t="n">
         <v>2781.3</v>
@@ -11142,7 +11162,7 @@
         <v>1028</v>
       </c>
       <c r="K214" t="n">
-        <v>4.166666666666666</v>
+        <v>-2.564102564102564</v>
       </c>
       <c r="L214" t="n">
         <v>2780.8</v>
@@ -11193,7 +11213,7 @@
         <v>1040</v>
       </c>
       <c r="K215" t="n">
-        <v>2.040816326530612</v>
+        <v>-25.49019607843137</v>
       </c>
       <c r="L215" t="n">
         <v>2779.5</v>
@@ -11244,7 +11264,7 @@
         <v>1046</v>
       </c>
       <c r="K216" t="n">
-        <v>-3.846153846153846</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L216" t="n">
         <v>2777.6</v>
@@ -11295,7 +11315,7 @@
         <v>1047</v>
       </c>
       <c r="K217" t="n">
-        <v>-1.923076923076923</v>
+        <v>-49.01960784313725</v>
       </c>
       <c r="L217" t="n">
         <v>2775.8</v>
@@ -11346,7 +11366,7 @@
         <v>1049</v>
       </c>
       <c r="K218" t="n">
-        <v>0</v>
+        <v>-34.78260869565217</v>
       </c>
       <c r="L218" t="n">
         <v>2773.5</v>
@@ -11397,7 +11417,7 @@
         <v>1050</v>
       </c>
       <c r="K219" t="n">
-        <v>4.95049504950495</v>
+        <v>-36.17021276595745</v>
       </c>
       <c r="L219" t="n">
         <v>2771.8</v>
@@ -11448,7 +11468,7 @@
         <v>1058</v>
       </c>
       <c r="K220" t="n">
-        <v>7.692307692307693</v>
+        <v>-16.36363636363636</v>
       </c>
       <c r="L220" t="n">
         <v>2770.9</v>
@@ -11499,7 +11519,7 @@
         <v>1059</v>
       </c>
       <c r="K221" t="n">
-        <v>12</v>
+        <v>-43.47826086956522</v>
       </c>
       <c r="L221" t="n">
         <v>2769.9</v>
@@ -11550,7 +11570,7 @@
         <v>1067</v>
       </c>
       <c r="K222" t="n">
-        <v>0.9523809523809524</v>
+        <v>-57.69230769230769</v>
       </c>
       <c r="L222" t="n">
         <v>2767.1</v>
@@ -11601,7 +11621,7 @@
         <v>1074</v>
       </c>
       <c r="K223" t="n">
-        <v>4.587155963302752</v>
+        <v>-21.73913043478261</v>
       </c>
       <c r="L223" t="n">
         <v>2764.8</v>
@@ -11652,7 +11672,7 @@
         <v>1075</v>
       </c>
       <c r="K224" t="n">
-        <v>-17.77777777777778</v>
+        <v>2.857142857142857</v>
       </c>
       <c r="L224" t="n">
         <v>2763.7</v>
@@ -11703,7 +11723,7 @@
         <v>1076</v>
       </c>
       <c r="K225" t="n">
-        <v>-12.64367816091954</v>
+        <v>26.66666666666667</v>
       </c>
       <c r="L225" t="n">
         <v>2763.9</v>
@@ -11754,7 +11774,7 @@
         <v>1078</v>
       </c>
       <c r="K226" t="n">
-        <v>-14.60674157303371</v>
+        <v>16.12903225806452</v>
       </c>
       <c r="L226" t="n">
         <v>2764.5</v>
@@ -11805,7 +11825,7 @@
         <v>1078</v>
       </c>
       <c r="K227" t="n">
-        <v>-14.60674157303371</v>
+        <v>10.3448275862069</v>
       </c>
       <c r="L227" t="n">
         <v>2765</v>
@@ -11856,7 +11876,7 @@
         <v>1083</v>
       </c>
       <c r="K228" t="n">
-        <v>-17.24137931034483</v>
+        <v>27.27272727272727</v>
       </c>
       <c r="L228" t="n">
         <v>2765.8</v>
@@ -11907,7 +11927,7 @@
         <v>1097</v>
       </c>
       <c r="K229" t="n">
-        <v>6.382978723404255</v>
+        <v>38.46153846153847</v>
       </c>
       <c r="L229" t="n">
         <v>2768.1</v>
@@ -11958,7 +11978,7 @@
         <v>1103</v>
       </c>
       <c r="K230" t="n">
-        <v>12</v>
+        <v>50</v>
       </c>
       <c r="L230" t="n">
         <v>2770.2</v>
@@ -12009,7 +12029,7 @@
         <v>1121</v>
       </c>
       <c r="K231" t="n">
-        <v>-5.084745762711865</v>
+        <v>22.22222222222222</v>
       </c>
       <c r="L231" t="n">
         <v>2770.6</v>
@@ -12060,7 +12080,7 @@
         <v>1121</v>
       </c>
       <c r="K232" t="n">
-        <v>-14.81481481481481</v>
+        <v>10.63829787234043</v>
       </c>
       <c r="L232" t="n">
         <v>2771.8</v>
@@ -12111,7 +12131,7 @@
         <v>1121</v>
       </c>
       <c r="K233" t="n">
-        <v>-16.9811320754717</v>
+        <v>13.04347826086956</v>
       </c>
       <c r="L233" t="n">
         <v>2772.3</v>
@@ -12162,7 +12182,7 @@
         <v>1121</v>
       </c>
       <c r="K234" t="n">
-        <v>-5.376344086021505</v>
+        <v>11.11111111111111</v>
       </c>
       <c r="L234" t="n">
         <v>2772.9</v>
@@ -12213,7 +12233,7 @@
         <v>1121</v>
       </c>
       <c r="K235" t="n">
-        <v>8.641975308641975</v>
+        <v>16.27906976744186</v>
       </c>
       <c r="L235" t="n">
         <v>2773.4</v>
@@ -12264,7 +12284,7 @@
         <v>1123</v>
       </c>
       <c r="K236" t="n">
-        <v>14.28571428571428</v>
+        <v>11.11111111111111</v>
       </c>
       <c r="L236" t="n">
         <v>2773.9</v>
@@ -12315,7 +12335,7 @@
         <v>1137</v>
       </c>
       <c r="K237" t="n">
-        <v>-4.444444444444445</v>
+        <v>-25.92592592592592</v>
       </c>
       <c r="L237" t="n">
         <v>2773</v>
@@ -12366,7 +12386,7 @@
         <v>1137</v>
       </c>
       <c r="K238" t="n">
-        <v>-6.818181818181817</v>
+        <v>-70</v>
       </c>
       <c r="L238" t="n">
         <v>2771.6</v>
@@ -12417,7 +12437,7 @@
         <v>1137</v>
       </c>
       <c r="K239" t="n">
-        <v>-5.747126436781609</v>
+        <v>-100</v>
       </c>
       <c r="L239" t="n">
         <v>2768.8</v>
@@ -12468,7 +12488,7 @@
         <v>1139</v>
       </c>
       <c r="K240" t="n">
-        <v>-18.51851851851852</v>
+        <v>-100</v>
       </c>
       <c r="L240" t="n">
         <v>2765.2</v>
@@ -12519,7 +12539,7 @@
         <v>1143</v>
       </c>
       <c r="K241" t="n">
-        <v>-21.42857142857143</v>
+        <v>-100</v>
       </c>
       <c r="L241" t="n">
         <v>2763</v>
@@ -12576,7 +12596,7 @@
         <v>1148</v>
       </c>
       <c r="K242" t="n">
-        <v>-18.51851851851852</v>
+        <v>-100</v>
       </c>
       <c r="L242" t="n">
         <v>2760.3</v>
@@ -12637,7 +12657,7 @@
         <v>1148</v>
       </c>
       <c r="K243" t="n">
-        <v>-29.72972972972973</v>
+        <v>-100</v>
       </c>
       <c r="L243" t="n">
         <v>2757.6</v>
@@ -12696,7 +12716,7 @@
         <v>1149</v>
       </c>
       <c r="K244" t="n">
-        <v>-27.02702702702703</v>
+        <v>-92.85714285714286</v>
       </c>
       <c r="L244" t="n">
         <v>2755</v>
@@ -12759,7 +12779,7 @@
         <v>1150</v>
       </c>
       <c r="K245" t="n">
-        <v>-29.72972972972973</v>
+        <v>-92.5925925925926</v>
       </c>
       <c r="L245" t="n">
         <v>2752.3</v>
@@ -12818,7 +12838,7 @@
         <v>1152</v>
       </c>
       <c r="K246" t="n">
-        <v>-29.72972972972973</v>
+        <v>-86.66666666666667</v>
       </c>
       <c r="L246" t="n">
         <v>2749.6</v>
@@ -12875,7 +12895,7 @@
         <v>1152</v>
       </c>
       <c r="K247" t="n">
-        <v>-29.72972972972973</v>
+        <v>-86.66666666666667</v>
       </c>
       <c r="L247" t="n">
         <v>2748.3</v>
@@ -12932,7 +12952,7 @@
         <v>1152</v>
       </c>
       <c r="K248" t="n">
-        <v>-39.1304347826087</v>
+        <v>-86.66666666666667</v>
       </c>
       <c r="L248" t="n">
         <v>2747</v>
@@ -12989,7 +13009,7 @@
         <v>1152</v>
       </c>
       <c r="K249" t="n">
-        <v>-74.54545454545455</v>
+        <v>-84.61538461538461</v>
       </c>
       <c r="L249" t="n">
         <v>2745.7</v>
@@ -13046,7 +13066,7 @@
         <v>1153</v>
       </c>
       <c r="K250" t="n">
-        <v>-92</v>
+        <v>-60</v>
       </c>
       <c r="L250" t="n">
         <v>2744.7</v>
@@ -13103,7 +13123,7 @@
         <v>1154</v>
       </c>
       <c r="K251" t="n">
-        <v>-87.87878787878788</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L251" t="n">
         <v>2744</v>
@@ -13160,7 +13180,7 @@
         <v>1154</v>
       </c>
       <c r="K252" t="n">
-        <v>-87.87878787878788</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L252" t="n">
         <v>2743.8</v>
@@ -13217,7 +13237,7 @@
         <v>1154</v>
       </c>
       <c r="K253" t="n">
-        <v>-87.87878787878788</v>
+        <v>-60</v>
       </c>
       <c r="L253" t="n">
         <v>2743.6</v>
@@ -13274,7 +13294,7 @@
         <v>1161</v>
       </c>
       <c r="K254" t="n">
-        <v>-90</v>
+        <v>-81.81818181818183</v>
       </c>
       <c r="L254" t="n">
         <v>2742.6</v>
@@ -13331,7 +13351,7 @@
         <v>1161</v>
       </c>
       <c r="K255" t="n">
-        <v>-90</v>
+        <v>-77.77777777777779</v>
       </c>
       <c r="L255" t="n">
         <v>2741.7</v>
@@ -13388,7 +13408,7 @@
         <v>1161</v>
       </c>
       <c r="K256" t="n">
-        <v>-89.47368421052632</v>
+        <v>-77.77777777777779</v>
       </c>
       <c r="L256" t="n">
         <v>2741</v>
@@ -13445,7 +13465,7 @@
         <v>1167</v>
       </c>
       <c r="K257" t="n">
-        <v>-46.66666666666666</v>
+        <v>-6.666666666666667</v>
       </c>
       <c r="L257" t="n">
         <v>2740.9</v>
@@ -13502,7 +13522,7 @@
         <v>1171</v>
       </c>
       <c r="K258" t="n">
-        <v>-52.94117647058824</v>
+        <v>-26.31578947368421</v>
       </c>
       <c r="L258" t="n">
         <v>2740.4</v>
@@ -13559,7 +13579,7 @@
         <v>1183</v>
       </c>
       <c r="K259" t="n">
-        <v>-13.04347826086956</v>
+        <v>20</v>
       </c>
       <c r="L259" t="n">
         <v>2741.1</v>
@@ -13616,7 +13636,7 @@
         <v>1185</v>
       </c>
       <c r="K260" t="n">
-        <v>-13.04347826086956</v>
+        <v>16.12903225806452</v>
       </c>
       <c r="L260" t="n">
         <v>2741.5</v>
@@ -13667,7 +13687,7 @@
         <v>1185</v>
       </c>
       <c r="K261" t="n">
-        <v>-4.761904761904762</v>
+        <v>16.12903225806452</v>
       </c>
       <c r="L261" t="n">
         <v>2742</v>
@@ -13718,7 +13738,7 @@
         <v>1185</v>
       </c>
       <c r="K262" t="n">
-        <v>8.108108108108109</v>
+        <v>16.12903225806452</v>
       </c>
       <c r="L262" t="n">
         <v>2742.5</v>
@@ -13769,7 +13789,7 @@
         <v>1185</v>
       </c>
       <c r="K263" t="n">
-        <v>8.108108108108109</v>
+        <v>50</v>
       </c>
       <c r="L263" t="n">
         <v>2743</v>
@@ -13820,7 +13840,7 @@
         <v>1195</v>
       </c>
       <c r="K264" t="n">
-        <v>26.08695652173913</v>
+        <v>64.70588235294117</v>
       </c>
       <c r="L264" t="n">
         <v>2745.2</v>
@@ -13871,7 +13891,7 @@
         <v>1195</v>
       </c>
       <c r="K265" t="n">
-        <v>28.88888888888889</v>
+        <v>64.70588235294117</v>
       </c>
       <c r="L265" t="n">
         <v>2747.4</v>
@@ -13922,7 +13942,7 @@
         <v>1205</v>
       </c>
       <c r="K266" t="n">
-        <v>47.16981132075472</v>
+        <v>68.42105263157895</v>
       </c>
       <c r="L266" t="n">
         <v>2750.6</v>
@@ -13973,7 +13993,7 @@
         <v>1213</v>
       </c>
       <c r="K267" t="n">
-        <v>27.86885245901639</v>
+        <v>52.38095238095239</v>
       </c>
       <c r="L267" t="n">
         <v>2752.4</v>
@@ -14024,7 +14044,7 @@
         <v>1226</v>
       </c>
       <c r="K268" t="n">
-        <v>40.54054054054054</v>
+        <v>53.48837209302325</v>
       </c>
       <c r="L268" t="n">
         <v>2755.9</v>
@@ -14075,7 +14095,7 @@
         <v>1227</v>
       </c>
       <c r="K269" t="n">
-        <v>38.66666666666666</v>
+        <v>57.14285714285714</v>
       </c>
       <c r="L269" t="n">
         <v>2758.1</v>
@@ -14126,7 +14146,7 @@
         <v>1243</v>
       </c>
       <c r="K270" t="n">
-        <v>13.33333333333333</v>
+        <v>13.79310344827586</v>
       </c>
       <c r="L270" t="n">
         <v>2758.9</v>
@@ -14177,7 +14197,7 @@
         <v>1243</v>
       </c>
       <c r="K271" t="n">
-        <v>14.60674157303371</v>
+        <v>13.79310344827586</v>
       </c>
       <c r="L271" t="n">
         <v>2759.7</v>
@@ -14228,7 +14248,7 @@
         <v>1249</v>
       </c>
       <c r="K272" t="n">
-        <v>7.368421052631578</v>
+        <v>3.125</v>
       </c>
       <c r="L272" t="n">
         <v>2759.9</v>
@@ -14279,7 +14299,7 @@
         <v>1250</v>
       </c>
       <c r="K273" t="n">
-        <v>6.25</v>
+        <v>-16.36363636363636</v>
       </c>
       <c r="L273" t="n">
         <v>2760</v>
@@ -14330,7 +14350,7 @@
         <v>1250</v>
       </c>
       <c r="K274" t="n">
-        <v>14.60674157303371</v>
+        <v>-16.36363636363636</v>
       </c>
       <c r="L274" t="n">
         <v>2759.1</v>
@@ -14381,7 +14401,7 @@
         <v>1251</v>
       </c>
       <c r="K275" t="n">
-        <v>13.33333333333333</v>
+        <v>-43.47826086956522</v>
       </c>
       <c r="L275" t="n">
         <v>2758.1</v>
@@ -14432,7 +14452,7 @@
         <v>1251</v>
       </c>
       <c r="K276" t="n">
-        <v>13.33333333333333</v>
+        <v>-31.57894736842105</v>
       </c>
       <c r="L276" t="n">
         <v>2756.1</v>
@@ -14483,7 +14503,7 @@
         <v>1256</v>
       </c>
       <c r="K277" t="n">
-        <v>12.35955056179775</v>
+        <v>-66.66666666666666</v>
       </c>
       <c r="L277" t="n">
         <v>2755.4</v>
@@ -14534,7 +14554,7 @@
         <v>1256</v>
       </c>
       <c r="K278" t="n">
-        <v>17.64705882352941</v>
+        <v>-65.51724137931035</v>
       </c>
       <c r="L278" t="n">
         <v>2753.4</v>
@@ -14585,7 +14605,7 @@
         <v>1262</v>
       </c>
       <c r="K279" t="n">
-        <v>-3.79746835443038</v>
+        <v>-47.36842105263158</v>
       </c>
       <c r="L279" t="n">
         <v>2750.9</v>
@@ -14636,7 +14656,7 @@
         <v>1267</v>
       </c>
       <c r="K280" t="n">
-        <v>4.878048780487805</v>
+        <v>-16.66666666666666</v>
       </c>
       <c r="L280" t="n">
         <v>2750.5</v>
@@ -14687,7 +14707,7 @@
         <v>1268</v>
       </c>
       <c r="K281" t="n">
-        <v>6.024096385542169</v>
+        <v>15.78947368421053</v>
       </c>
       <c r="L281" t="n">
         <v>2750.2</v>
@@ -14738,7 +14758,7 @@
         <v>1280</v>
       </c>
       <c r="K282" t="n">
-        <v>-7.368421052631578</v>
+        <v>-26.66666666666667</v>
       </c>
       <c r="L282" t="n">
         <v>2749.3</v>
@@ -14789,7 +14809,7 @@
         <v>1282</v>
       </c>
       <c r="K283" t="n">
-        <v>-5.154639175257731</v>
+        <v>-18.75</v>
       </c>
       <c r="L283" t="n">
         <v>2748.7</v>
@@ -14840,7 +14860,7 @@
         <v>1282</v>
       </c>
       <c r="K284" t="n">
-        <v>-17.24137931034483</v>
+        <v>-16.12903225806452</v>
       </c>
       <c r="L284" t="n">
         <v>2748.1</v>
@@ -14891,7 +14911,7 @@
         <v>1290</v>
       </c>
       <c r="K285" t="n">
-        <v>-7.368421052631578</v>
+        <v>7.692307692307693</v>
       </c>
       <c r="L285" t="n">
         <v>2748.4</v>
@@ -14942,7 +14962,7 @@
         <v>1298</v>
       </c>
       <c r="K286" t="n">
-        <v>-9.67741935483871</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L286" t="n">
         <v>2749.5</v>
@@ -14993,7 +15013,7 @@
         <v>1299</v>
       </c>
       <c r="K287" t="n">
-        <v>0</v>
+        <v>16.27906976744186</v>
       </c>
       <c r="L287" t="n">
         <v>2750.2</v>
@@ -15044,7 +15064,7 @@
         <v>1299</v>
       </c>
       <c r="K288" t="n">
-        <v>-17.80821917808219</v>
+        <v>35.13513513513514</v>
       </c>
       <c r="L288" t="n">
         <v>2750.9</v>
@@ -15095,7 +15115,7 @@
         <v>1299</v>
       </c>
       <c r="K289" t="n">
-        <v>-16.66666666666666</v>
+        <v>25</v>
       </c>
       <c r="L289" t="n">
         <v>2752.2</v>
@@ -15146,7 +15166,7 @@
         <v>1316</v>
       </c>
       <c r="K290" t="n">
-        <v>28.76712328767123</v>
+        <v>50</v>
       </c>
       <c r="L290" t="n">
         <v>2754.7</v>
@@ -15197,7 +15217,7 @@
         <v>1320</v>
       </c>
       <c r="K291" t="n">
-        <v>32.46753246753246</v>
+        <v>100</v>
       </c>
       <c r="L291" t="n">
         <v>2757.5</v>
@@ -15248,7 +15268,7 @@
         <v>1320</v>
       </c>
       <c r="K292" t="n">
-        <v>43.66197183098591</v>
+        <v>100</v>
       </c>
       <c r="L292" t="n">
         <v>2761.5</v>
@@ -15299,7 +15319,7 @@
         <v>1320</v>
       </c>
       <c r="K293" t="n">
-        <v>45.71428571428572</v>
+        <v>100</v>
       </c>
       <c r="L293" t="n">
         <v>2765.3</v>
@@ -15350,7 +15370,7 @@
         <v>1322</v>
       </c>
       <c r="K294" t="n">
-        <v>47.22222222222222</v>
+        <v>100</v>
       </c>
       <c r="L294" t="n">
         <v>2769.3</v>
@@ -15401,7 +15421,7 @@
         <v>1334</v>
       </c>
       <c r="K295" t="n">
-        <v>27.71084337349398</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L295" t="n">
         <v>2771.3</v>
@@ -15452,7 +15472,7 @@
         <v>1344</v>
       </c>
       <c r="K296" t="n">
-        <v>35.48387096774194</v>
+        <v>46.66666666666666</v>
       </c>
       <c r="L296" t="n">
         <v>2773.5</v>
@@ -15503,7 +15523,7 @@
         <v>1346</v>
       </c>
       <c r="K297" t="n">
-        <v>33.33333333333333</v>
+        <v>48.93617021276596</v>
       </c>
       <c r="L297" t="n">
         <v>2775.8</v>
@@ -15554,7 +15574,7 @@
         <v>1347</v>
       </c>
       <c r="K298" t="n">
-        <v>31.86813186813187</v>
+        <v>45.83333333333333</v>
       </c>
       <c r="L298" t="n">
         <v>2778</v>
@@ -15605,7 +15625,7 @@
         <v>1347</v>
       </c>
       <c r="K299" t="n">
-        <v>41.17647058823529</v>
+        <v>16.12903225806452</v>
       </c>
       <c r="L299" t="n">
         <v>2780.2</v>
@@ -15656,7 +15676,7 @@
         <v>1347</v>
       </c>
       <c r="K300" t="n">
-        <v>37.5</v>
+        <v>3.703703703703703</v>
       </c>
       <c r="L300" t="n">
         <v>2780.7</v>
@@ -15707,7 +15727,7 @@
         <v>1355</v>
       </c>
       <c r="K301" t="n">
-        <v>42.5287356321839</v>
+        <v>25.71428571428571</v>
       </c>
       <c r="L301" t="n">
         <v>2781.6</v>
@@ -15758,7 +15778,7 @@
         <v>1356</v>
       </c>
       <c r="K302" t="n">
-        <v>63.1578947368421</v>
+        <v>22.22222222222222</v>
       </c>
       <c r="L302" t="n">
         <v>2782.4</v>
@@ -15809,7 +15829,7 @@
         <v>1361</v>
       </c>
       <c r="K303" t="n">
-        <v>64.55696202531645</v>
+        <v>28.2051282051282</v>
       </c>
       <c r="L303" t="n">
         <v>2783.7</v>
@@ -15860,7 +15880,7 @@
         <v>1380</v>
       </c>
       <c r="K304" t="n">
-        <v>71.42857142857143</v>
+        <v>91.30434782608695</v>
       </c>
       <c r="L304" t="n">
         <v>2786.7</v>
@@ -15911,7 +15931,7 @@
         <v>1396</v>
       </c>
       <c r="K305" t="n">
-        <v>43.39622641509434</v>
+        <v>30.76923076923077</v>
       </c>
       <c r="L305" t="n">
         <v>2789.3</v>
@@ -15962,7 +15982,7 @@
         <v>1402</v>
       </c>
       <c r="K306" t="n">
-        <v>42.30769230769231</v>
+        <v>35.71428571428572</v>
       </c>
       <c r="L306" t="n">
         <v>2791.5</v>
@@ -16013,7 +16033,7 @@
         <v>1403</v>
       </c>
       <c r="K307" t="n">
-        <v>42.30769230769231</v>
+        <v>39.28571428571428</v>
       </c>
       <c r="L307" t="n">
         <v>2793.6</v>
@@ -16064,7 +16084,7 @@
         <v>1403</v>
       </c>
       <c r="K308" t="n">
-        <v>42.30769230769231</v>
+        <v>39.28571428571428</v>
       </c>
       <c r="L308" t="n">
         <v>2795.8</v>
@@ -16115,7 +16135,7 @@
         <v>1412</v>
       </c>
       <c r="K309" t="n">
-        <v>30.97345132743363</v>
+        <v>20</v>
       </c>
       <c r="L309" t="n">
         <v>2797.1</v>
@@ -16166,7 +16186,7 @@
         <v>1417</v>
       </c>
       <c r="K310" t="n">
-        <v>12.87128712871287</v>
+        <v>0</v>
       </c>
       <c r="L310" t="n">
         <v>2797.9</v>
@@ -16217,7 +16237,7 @@
         <v>1418</v>
       </c>
       <c r="K311" t="n">
-        <v>8.163265306122449</v>
+        <v>0</v>
       </c>
       <c r="L311" t="n">
         <v>2797.8</v>
@@ -16268,7 +16288,7 @@
         <v>1430</v>
       </c>
       <c r="K312" t="n">
-        <v>18.18181818181818</v>
+        <v>10.14492753623188</v>
       </c>
       <c r="L312" t="n">
         <v>2799</v>
@@ -16319,7 +16339,7 @@
         <v>1431</v>
       </c>
       <c r="K313" t="n">
-        <v>17.11711711711712</v>
+        <v>-25.49019607843137</v>
       </c>
       <c r="L313" t="n">
         <v>2799.6</v>
@@ -16370,7 +16390,7 @@
         <v>1444</v>
       </c>
       <c r="K314" t="n">
-        <v>3.278688524590164</v>
+        <v>-20.83333333333334</v>
       </c>
       <c r="L314" t="n">
         <v>2797</v>
@@ -16421,7 +16441,7 @@
         <v>1447</v>
       </c>
       <c r="K315" t="n">
-        <v>11.50442477876106</v>
+        <v>-42.22222222222222</v>
       </c>
       <c r="L315" t="n">
         <v>2795.7</v>
@@ -16472,7 +16492,7 @@
         <v>1448</v>
       </c>
       <c r="K316" t="n">
-        <v>1.923076923076923</v>
+        <v>-46.66666666666666</v>
       </c>
       <c r="L316" t="n">
         <v>2793.7</v>
@@ -16523,7 +16543,7 @@
         <v>1448</v>
       </c>
       <c r="K317" t="n">
-        <v>0</v>
+        <v>-46.66666666666666</v>
       </c>
       <c r="L317" t="n">
         <v>2791.6</v>
@@ -16574,7 +16594,7 @@
         <v>1449</v>
       </c>
       <c r="K318" t="n">
-        <v>0</v>
+        <v>-35.13513513513514</v>
       </c>
       <c r="L318" t="n">
         <v>2789.4</v>
@@ -16625,7 +16645,7 @@
         <v>1459</v>
       </c>
       <c r="K319" t="n">
-        <v>-8.928571428571429</v>
+        <v>-42.85714285714285</v>
       </c>
       <c r="L319" t="n">
         <v>2787.1</v>
@@ -16676,7 +16696,7 @@
         <v>1464</v>
       </c>
       <c r="K320" t="n">
-        <v>-4.273504273504273</v>
+        <v>-26.08695652173913</v>
       </c>
       <c r="L320" t="n">
         <v>2785.8</v>
@@ -16727,7 +16747,7 @@
         <v>1464</v>
       </c>
       <c r="K321" t="n">
-        <v>-11.92660550458716</v>
+        <v>-70.58823529411765</v>
       </c>
       <c r="L321" t="n">
         <v>2784.6</v>
@@ -16778,7 +16798,7 @@
         <v>1464</v>
       </c>
       <c r="K322" t="n">
-        <v>-11.11111111111111</v>
+        <v>-69.6969696969697</v>
       </c>
       <c r="L322" t="n">
         <v>2782.2</v>
@@ -16829,7 +16849,7 @@
         <v>1466</v>
       </c>
       <c r="K323" t="n">
-        <v>-14.28571428571428</v>
+        <v>-36.36363636363637</v>
       </c>
       <c r="L323" t="n">
         <v>2780.1</v>
@@ -16880,7 +16900,7 @@
         <v>1470</v>
       </c>
       <c r="K324" t="n">
-        <v>-33.33333333333333</v>
+        <v>-4.347826086956522</v>
       </c>
       <c r="L324" t="n">
         <v>2779.7</v>
@@ -16931,7 +16951,7 @@
         <v>1472</v>
       </c>
       <c r="K325" t="n">
-        <v>-15.78947368421053</v>
+        <v>8.333333333333332</v>
       </c>
       <c r="L325" t="n">
         <v>2779.8</v>
@@ -16982,7 +17002,7 @@
         <v>1476</v>
       </c>
       <c r="K326" t="n">
-        <v>-29.72972972972973</v>
+        <v>-7.142857142857142</v>
       </c>
       <c r="L326" t="n">
         <v>2779.6</v>
@@ -17033,7 +17053,7 @@
         <v>1480</v>
       </c>
       <c r="K327" t="n">
-        <v>-24.67532467532467</v>
+        <v>9.67741935483871</v>
       </c>
       <c r="L327" t="n">
         <v>2779.8</v>
@@ -17084,7 +17104,7 @@
         <v>1489</v>
       </c>
       <c r="K328" t="n">
-        <v>-32.55813953488372</v>
+        <v>13.33333333333333</v>
       </c>
       <c r="L328" t="n">
         <v>2779.2</v>
@@ -17135,7 +17155,7 @@
         <v>1491</v>
       </c>
       <c r="K329" t="n">
-        <v>-21.51898734177215</v>
+        <v>3.703703703703703</v>
       </c>
       <c r="L329" t="n">
         <v>2779.8</v>
@@ -17186,7 +17206,7 @@
         <v>1491</v>
       </c>
       <c r="K330" t="n">
-        <v>-16.21621621621622</v>
+        <v>3.703703703703703</v>
       </c>
       <c r="L330" t="n">
         <v>2779.9</v>
@@ -17237,7 +17257,7 @@
         <v>1492</v>
       </c>
       <c r="K331" t="n">
-        <v>-16.21621621621622</v>
+        <v>0</v>
       </c>
       <c r="L331" t="n">
         <v>2779.9</v>
@@ -17288,7 +17308,7 @@
         <v>1494</v>
       </c>
       <c r="K332" t="n">
-        <v>-40.625</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L332" t="n">
         <v>2779.7</v>
@@ -17339,7 +17359,7 @@
         <v>1503</v>
       </c>
       <c r="K333" t="n">
-        <v>-22.22222222222222</v>
+        <v>3.03030303030303</v>
       </c>
       <c r="L333" t="n">
         <v>2780.2</v>
@@ -17390,7 +17410,7 @@
         <v>1503</v>
       </c>
       <c r="K334" t="n">
-        <v>-5.084745762711865</v>
+        <v>-3.225806451612903</v>
       </c>
       <c r="L334" t="n">
         <v>2780.3</v>
@@ -17441,7 +17461,7 @@
         <v>1508</v>
       </c>
       <c r="K335" t="n">
-        <v>-8.196721311475409</v>
+        <v>-6.25</v>
       </c>
       <c r="L335" t="n">
         <v>2779.7</v>
@@ -17492,7 +17512,7 @@
         <v>1511</v>
       </c>
       <c r="K336" t="n">
-        <v>-11.11111111111111</v>
+        <v>-29.03225806451613</v>
       </c>
       <c r="L336" t="n">
         <v>2779.2</v>
@@ -17543,7 +17563,7 @@
         <v>1512</v>
       </c>
       <c r="K337" t="n">
-        <v>-9.375</v>
+        <v>4.347826086956522</v>
       </c>
       <c r="L337" t="n">
         <v>2778.4</v>
@@ -17594,7 +17614,7 @@
         <v>1516</v>
       </c>
       <c r="K338" t="n">
-        <v>-1.492537313432836</v>
+        <v>12</v>
       </c>
       <c r="L338" t="n">
         <v>2778.9</v>
@@ -17645,7 +17665,7 @@
         <v>1521</v>
       </c>
       <c r="K339" t="n">
-        <v>22.58064516129032</v>
+        <v>26.66666666666667</v>
       </c>
       <c r="L339" t="n">
         <v>2779.7</v>
@@ -17696,7 +17716,7 @@
         <v>1521</v>
       </c>
       <c r="K340" t="n">
-        <v>15.78947368421053</v>
+        <v>31.03448275862069</v>
       </c>
       <c r="L340" t="n">
         <v>2780.5</v>
@@ -17747,7 +17767,7 @@
         <v>1522</v>
       </c>
       <c r="K341" t="n">
-        <v>17.24137931034483</v>
+        <v>42.85714285714285</v>
       </c>
       <c r="L341" t="n">
         <v>2781.5</v>
@@ -17798,7 +17818,7 @@
         <v>1532</v>
       </c>
       <c r="K342" t="n">
-        <v>29.41176470588236</v>
+        <v>44.82758620689656</v>
       </c>
       <c r="L342" t="n">
         <v>2783.7</v>
@@ -17849,7 +17869,7 @@
         <v>1533</v>
       </c>
       <c r="K343" t="n">
-        <v>28.35820895522388</v>
+        <v>46.66666666666666</v>
       </c>
       <c r="L343" t="n">
         <v>2785.1</v>
@@ -17900,7 +17920,7 @@
         <v>1544</v>
       </c>
       <c r="K344" t="n">
-        <v>5.405405405405405</v>
+        <v>22.22222222222222</v>
       </c>
       <c r="L344" t="n">
         <v>2785.4</v>
@@ -17951,7 +17971,7 @@
         <v>1546</v>
       </c>
       <c r="K345" t="n">
-        <v>5.405405405405405</v>
+        <v>37.14285714285715</v>
       </c>
       <c r="L345" t="n">
         <v>2786.4</v>
@@ -18002,7 +18022,7 @@
         <v>1548</v>
       </c>
       <c r="K346" t="n">
-        <v>8.333333333333332</v>
+        <v>27.77777777777778</v>
       </c>
       <c r="L346" t="n">
         <v>2787.5</v>
@@ -18053,7 +18073,7 @@
         <v>1552</v>
       </c>
       <c r="K347" t="n">
-        <v>-2.777777777777778</v>
+        <v>5.555555555555555</v>
       </c>
       <c r="L347" t="n">
         <v>2788.1</v>
@@ -18104,7 +18124,7 @@
         <v>1553</v>
       </c>
       <c r="K348" t="n">
-        <v>9.375</v>
+        <v>-12.5</v>
       </c>
       <c r="L348" t="n">
         <v>2788.2</v>
@@ -18155,7 +18175,7 @@
         <v>1554</v>
       </c>
       <c r="K349" t="n">
-        <v>7.936507936507936</v>
+        <v>-9.090909090909092</v>
       </c>
       <c r="L349" t="n">
         <v>2787.9</v>
@@ -18206,7 +18226,7 @@
         <v>1562</v>
       </c>
       <c r="K350" t="n">
-        <v>18.30985915492958</v>
+        <v>10</v>
       </c>
       <c r="L350" t="n">
         <v>2788.4</v>
@@ -18257,7 +18277,7 @@
         <v>1564</v>
       </c>
       <c r="K351" t="n">
-        <v>22.22222222222222</v>
+        <v>-12.5</v>
       </c>
       <c r="L351" t="n">
         <v>2789</v>
@@ -18308,7 +18328,7 @@
         <v>1564</v>
       </c>
       <c r="K352" t="n">
-        <v>25.71428571428571</v>
+        <v>-16.12903225806452</v>
       </c>
       <c r="L352" t="n">
         <v>2788.6</v>
@@ -18359,7 +18379,7 @@
         <v>1569</v>
       </c>
       <c r="K353" t="n">
-        <v>6.060606060606061</v>
+        <v>4</v>
       </c>
       <c r="L353" t="n">
         <v>2787.6</v>
@@ -18410,7 +18430,7 @@
         <v>1569</v>
       </c>
       <c r="K354" t="n">
-        <v>6.060606060606061</v>
+        <v>-4.347826086956522</v>
       </c>
       <c r="L354" t="n">
         <v>2787.7</v>
@@ -18461,7 +18481,7 @@
         <v>1569</v>
       </c>
       <c r="K355" t="n">
-        <v>14.75409836065574</v>
+        <v>4.761904761904762</v>
       </c>
       <c r="L355" t="n">
         <v>2787.6</v>
@@ -18512,7 +18532,7 @@
         <v>1569</v>
       </c>
       <c r="K356" t="n">
-        <v>20.68965517241379</v>
+        <v>29.41176470588236</v>
       </c>
       <c r="L356" t="n">
         <v>2787.7</v>
@@ -18563,7 +18583,7 @@
         <v>1582</v>
       </c>
       <c r="K357" t="n">
-        <v>34.28571428571428</v>
+        <v>65.51724137931035</v>
       </c>
       <c r="L357" t="n">
         <v>2789.5</v>
@@ -18614,7 +18634,7 @@
         <v>1582</v>
       </c>
       <c r="K358" t="n">
-        <v>30.3030303030303</v>
+        <v>64.28571428571429</v>
       </c>
       <c r="L358" t="n">
         <v>2791.4</v>
@@ -18665,7 +18685,7 @@
         <v>1593</v>
       </c>
       <c r="K359" t="n">
-        <v>36.11111111111111</v>
+        <v>67.74193548387096</v>
       </c>
       <c r="L359" t="n">
         <v>2794.3</v>
@@ -18716,7 +18736,7 @@
         <v>1594</v>
       </c>
       <c r="K360" t="n">
-        <v>36.98630136986301</v>
+        <v>66.66666666666666</v>
       </c>
       <c r="L360" t="n">
         <v>2796.5</v>
@@ -18767,7 +18787,7 @@
         <v>1594</v>
       </c>
       <c r="K361" t="n">
-        <v>36.11111111111111</v>
+        <v>66.66666666666666</v>
       </c>
       <c r="L361" t="n">
         <v>2798.5</v>
@@ -18818,7 +18838,7 @@
         <v>1608</v>
       </c>
       <c r="K362" t="n">
-        <v>2.631578947368421</v>
+        <v>28.2051282051282</v>
       </c>
       <c r="L362" t="n">
         <v>2799.1</v>
@@ -18869,7 +18889,7 @@
         <v>1614</v>
       </c>
       <c r="K363" t="n">
-        <v>8.641975308641975</v>
+        <v>37.77777777777778</v>
       </c>
       <c r="L363" t="n">
         <v>2800.8</v>
@@ -18920,7 +18940,7 @@
         <v>1619</v>
       </c>
       <c r="K364" t="n">
-        <v>30.66666666666666</v>
+        <v>44</v>
       </c>
       <c r="L364" t="n">
         <v>2803</v>
@@ -18971,7 +18991,7 @@
         <v>1623</v>
       </c>
       <c r="K365" t="n">
-        <v>32.46753246753246</v>
+        <v>48.14814814814815</v>
       </c>
       <c r="L365" t="n">
         <v>2805.6</v>
@@ -19022,7 +19042,7 @@
         <v>1625</v>
       </c>
       <c r="K366" t="n">
-        <v>32.46753246753246</v>
+        <v>25.58139534883721</v>
       </c>
       <c r="L366" t="n">
         <v>2808</v>
@@ -19073,7 +19093,7 @@
         <v>1627</v>
       </c>
       <c r="K367" t="n">
-        <v>36</v>
+        <v>20</v>
       </c>
       <c r="L367" t="n">
         <v>2808.9</v>
@@ -19124,7 +19144,7 @@
         <v>1627</v>
       </c>
       <c r="K368" t="n">
-        <v>37.83783783783784</v>
+        <v>-5.88235294117647</v>
       </c>
       <c r="L368" t="n">
         <v>2809.8</v>
@@ -19175,7 +19195,7 @@
         <v>1637</v>
       </c>
       <c r="K369" t="n">
-        <v>20.48192771084337</v>
+        <v>-30.23255813953488</v>
       </c>
       <c r="L369" t="n">
         <v>2808.6</v>
@@ -19226,7 +19246,7 @@
         <v>1644</v>
       </c>
       <c r="K370" t="n">
-        <v>19.51219512195122</v>
+        <v>-12</v>
       </c>
       <c r="L370" t="n">
         <v>2808</v>
@@ -19277,7 +19297,7 @@
         <v>1650</v>
       </c>
       <c r="K371" t="n">
-        <v>23.25581395348837</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L371" t="n">
         <v>2808</v>
@@ -19328,7 +19348,7 @@
         <v>1660</v>
       </c>
       <c r="K372" t="n">
-        <v>10.41666666666667</v>
+        <v>-4.347826086956522</v>
       </c>
       <c r="L372" t="n">
         <v>2808.4</v>
@@ -19379,7 +19399,7 @@
         <v>1664</v>
       </c>
       <c r="K373" t="n">
-        <v>20</v>
+        <v>-6.666666666666667</v>
       </c>
       <c r="L373" t="n">
         <v>2808.6</v>
@@ -19430,7 +19450,7 @@
         <v>1681</v>
       </c>
       <c r="K374" t="n">
-        <v>1.785714285714286</v>
+        <v>-41.37931034482759</v>
       </c>
       <c r="L374" t="n">
         <v>2806.6</v>
@@ -19481,7 +19501,7 @@
         <v>1689</v>
       </c>
       <c r="K375" t="n">
-        <v>8.333333333333332</v>
+        <v>-21.875</v>
       </c>
       <c r="L375" t="n">
         <v>2805</v>
@@ -19532,7 +19552,7 @@
         <v>1692</v>
       </c>
       <c r="K376" t="n">
-        <v>5.691056910569105</v>
+        <v>-23.07692307692308</v>
       </c>
       <c r="L376" t="n">
         <v>2803.3</v>
@@ -19583,7 +19603,7 @@
         <v>1692</v>
       </c>
       <c r="K377" t="n">
-        <v>-5.454545454545454</v>
+        <v>-23.07692307692308</v>
       </c>
       <c r="L377" t="n">
         <v>2801.8</v>
@@ -19634,7 +19654,7 @@
         <v>1692</v>
       </c>
       <c r="K378" t="n">
-        <v>-5.454545454545454</v>
+        <v>-9.090909090909092</v>
       </c>
       <c r="L378" t="n">
         <v>2800.3</v>
@@ -19685,7 +19705,7 @@
         <v>1692</v>
       </c>
       <c r="K379" t="n">
-        <v>-17.17171717171717</v>
+        <v>-25</v>
       </c>
       <c r="L379" t="n">
         <v>2799.8</v>
@@ -19736,7 +19756,7 @@
         <v>1698</v>
       </c>
       <c r="K380" t="n">
-        <v>-23.07692307692308</v>
+        <v>-50</v>
       </c>
       <c r="L380" t="n">
         <v>2798</v>
@@ -19787,7 +19807,7 @@
         <v>1709</v>
       </c>
       <c r="K381" t="n">
-        <v>-30.43478260869566</v>
+        <v>-51.02040816326531</v>
       </c>
       <c r="L381" t="n">
         <v>2794.5</v>
@@ -19838,7 +19858,7 @@
         <v>1719</v>
       </c>
       <c r="K382" t="n">
-        <v>-9.90990990990991</v>
+        <v>-34.54545454545455</v>
       </c>
       <c r="L382" t="n">
         <v>2793</v>
@@ -19889,7 +19909,7 @@
         <v>1722</v>
       </c>
       <c r="K383" t="n">
-        <v>-18.51851851851852</v>
+        <v>-12.19512195121951</v>
       </c>
       <c r="L383" t="n">
         <v>2790.8</v>
@@ -19940,7 +19960,7 @@
         <v>1723</v>
       </c>
       <c r="K384" t="n">
-        <v>-25</v>
+        <v>-41.17647058823529</v>
       </c>
       <c r="L384" t="n">
         <v>2790.2</v>
@@ -19991,7 +20011,7 @@
         <v>1725</v>
       </c>
       <c r="K385" t="n">
-        <v>-31.37254901960784</v>
+        <v>-39.39393939393939</v>
       </c>
       <c r="L385" t="n">
         <v>2788.6</v>
@@ -20042,7 +20062,7 @@
         <v>1728</v>
       </c>
       <c r="K386" t="n">
-        <v>-26.21359223300971</v>
+        <v>-27.77777777777778</v>
       </c>
       <c r="L386" t="n">
         <v>2787.6</v>
@@ -20093,7 +20113,7 @@
         <v>1738</v>
       </c>
       <c r="K387" t="n">
-        <v>-13.51351351351351</v>
+        <v>0</v>
       </c>
       <c r="L387" t="n">
         <v>2787.6</v>
@@ -20144,7 +20164,7 @@
         <v>1746</v>
       </c>
       <c r="K388" t="n">
-        <v>-19.32773109243698</v>
+        <v>-14.81481481481481</v>
       </c>
       <c r="L388" t="n">
         <v>2786.8</v>
@@ -20195,7 +20215,7 @@
         <v>1746</v>
       </c>
       <c r="K389" t="n">
-        <v>-11.92660550458716</v>
+        <v>-4.166666666666666</v>
       </c>
       <c r="L389" t="n">
         <v>2786</v>
@@ -20246,7 +20266,7 @@
         <v>1753</v>
       </c>
       <c r="K390" t="n">
-        <v>-24.77064220183486</v>
+        <v>4.545454545454546</v>
       </c>
       <c r="L390" t="n">
         <v>2785.1</v>
@@ -20297,7 +20317,7 @@
         <v>1762</v>
       </c>
       <c r="K391" t="n">
-        <v>-21.42857142857143</v>
+        <v>2.325581395348837</v>
       </c>
       <c r="L391" t="n">
         <v>2786.2</v>
@@ -20348,7 +20368,7 @@
         <v>1762</v>
       </c>
       <c r="K392" t="n">
-        <v>-13.72549019607843</v>
+        <v>10</v>
       </c>
       <c r="L392" t="n">
         <v>2786.3</v>
@@ -20399,7 +20419,7 @@
         <v>1765</v>
       </c>
       <c r="K393" t="n">
-        <v>-14.85148514851485</v>
+        <v>19.04761904761905</v>
       </c>
       <c r="L393" t="n">
         <v>2787</v>
@@ -20450,7 +20470,7 @@
         <v>1773</v>
       </c>
       <c r="K394" t="n">
-        <v>-6.521739130434782</v>
+        <v>4.166666666666666</v>
       </c>
       <c r="L394" t="n">
         <v>2787</v>
@@ -20501,7 +20521,7 @@
         <v>1777</v>
       </c>
       <c r="K395" t="n">
-        <v>-20.45454545454546</v>
+        <v>-10.20408163265306</v>
       </c>
       <c r="L395" t="n">
         <v>2786.8</v>
@@ -20552,7 +20572,7 @@
         <v>1777</v>
       </c>
       <c r="K396" t="n">
-        <v>-17.64705882352941</v>
+        <v>-38.46153846153847</v>
       </c>
       <c r="L396" t="n">
         <v>2786.3</v>
@@ -20603,7 +20623,7 @@
         <v>1784</v>
       </c>
       <c r="K397" t="n">
-        <v>-23.91304347826087</v>
+        <v>-36.84210526315789</v>
       </c>
       <c r="L397" t="n">
         <v>2784.1</v>
@@ -20654,7 +20674,7 @@
         <v>1797</v>
       </c>
       <c r="K398" t="n">
-        <v>-33.33333333333333</v>
+        <v>-52.94117647058824</v>
       </c>
       <c r="L398" t="n">
         <v>2781.4</v>
@@ -20705,7 +20725,7 @@
         <v>1806</v>
       </c>
       <c r="K399" t="n">
-        <v>-38.59649122807017</v>
+        <v>-54.71698113207547</v>
       </c>
       <c r="L399" t="n">
         <v>2777.8</v>
@@ -20756,7 +20776,7 @@
         <v>1813</v>
       </c>
       <c r="K400" t="n">
-        <v>-26.95652173913043</v>
+        <v>-60.78431372549019</v>
       </c>
       <c r="L400" t="n">
         <v>2775.6</v>
@@ -20807,7 +20827,7 @@
         <v>1814</v>
       </c>
       <c r="K401" t="n">
-        <v>-18.09523809523809</v>
+        <v>-57.69230769230769</v>
       </c>
       <c r="L401" t="n">
         <v>2772.6</v>
@@ -20858,7 +20878,7 @@
         <v>1823</v>
       </c>
       <c r="K402" t="n">
-        <v>-36.53846153846153</v>
+        <v>-72.41379310344827</v>
       </c>
       <c r="L402" t="n">
         <v>2768.7</v>
@@ -20909,7 +20929,7 @@
         <v>1835</v>
       </c>
       <c r="K403" t="n">
-        <v>-20.35398230088496</v>
+        <v>-35.48387096774194</v>
       </c>
       <c r="L403" t="n">
         <v>2765.7</v>
@@ -20960,7 +20980,7 @@
         <v>1839</v>
       </c>
       <c r="K404" t="n">
-        <v>-15.51724137931035</v>
+        <v>-22.58064516129032</v>
       </c>
       <c r="L404" t="n">
         <v>2763.9</v>
@@ -21011,7 +21031,7 @@
         <v>1845</v>
       </c>
       <c r="K405" t="n">
-        <v>-18.33333333333333</v>
+        <v>-29.41176470588236</v>
       </c>
       <c r="L405" t="n">
         <v>2761.9</v>
@@ -21062,7 +21082,7 @@
         <v>1846</v>
       </c>
       <c r="K406" t="n">
-        <v>-22.03389830508474</v>
+        <v>-22.58064516129032</v>
       </c>
       <c r="L406" t="n">
         <v>2759.8</v>
@@ -21113,7 +21133,7 @@
         <v>1846</v>
       </c>
       <c r="K407" t="n">
-        <v>-33.33333333333333</v>
+        <v>-2.040816326530612</v>
       </c>
       <c r="L407" t="n">
         <v>2758.4</v>
@@ -21164,7 +21184,7 @@
         <v>1846</v>
       </c>
       <c r="K408" t="n">
-        <v>-28</v>
+        <v>20</v>
       </c>
       <c r="L408" t="n">
         <v>2758.3</v>
@@ -21215,7 +21235,7 @@
         <v>1846</v>
       </c>
       <c r="K409" t="n">
-        <v>-28</v>
+        <v>3.03030303030303</v>
       </c>
       <c r="L409" t="n">
         <v>2759.1</v>
@@ -21266,7 +21286,7 @@
         <v>1851</v>
       </c>
       <c r="K410" t="n">
-        <v>-26.53061224489796</v>
+        <v>-13.51351351351351</v>
       </c>
       <c r="L410" t="n">
         <v>2758.7</v>
@@ -21317,7 +21337,7 @@
         <v>1853</v>
       </c>
       <c r="K411" t="n">
-        <v>-36.26373626373626</v>
+        <v>20</v>
       </c>
       <c r="L411" t="n">
         <v>2758.4</v>
@@ -21368,7 +21388,7 @@
         <v>1858</v>
       </c>
       <c r="K412" t="n">
-        <v>-39.58333333333333</v>
+        <v>-47.82608695652174</v>
       </c>
       <c r="L412" t="n">
         <v>2758.5</v>
@@ -21419,7 +21439,7 @@
         <v>1858</v>
       </c>
       <c r="K413" t="n">
-        <v>-44.08602150537634</v>
+        <v>-78.94736842105263</v>
       </c>
       <c r="L413" t="n">
         <v>2757.4</v>
@@ -21470,7 +21490,7 @@
         <v>1859</v>
       </c>
       <c r="K414" t="n">
-        <v>-37.2093023255814</v>
+        <v>-57.14285714285714</v>
       </c>
       <c r="L414" t="n">
         <v>2756</v>
@@ -21521,7 +21541,7 @@
         <v>1859</v>
       </c>
       <c r="K415" t="n">
-        <v>-34.14634146341464</v>
+        <v>-53.84615384615385</v>
       </c>
       <c r="L415" t="n">
         <v>2755.2</v>
@@ -21572,7 +21592,7 @@
         <v>1867</v>
       </c>
       <c r="K416" t="n">
-        <v>-22.22222222222222</v>
+        <v>4.761904761904762</v>
       </c>
       <c r="L416" t="n">
         <v>2755.3</v>
@@ -21623,7 +21643,7 @@
         <v>1874</v>
       </c>
       <c r="K417" t="n">
-        <v>-6.666666666666667</v>
+        <v>28.57142857142857</v>
       </c>
       <c r="L417" t="n">
         <v>2756.1</v>
@@ -21674,7 +21694,7 @@
         <v>1874</v>
       </c>
       <c r="K418" t="n">
-        <v>9.090909090909092</v>
+        <v>28.57142857142857</v>
       </c>
       <c r="L418" t="n">
         <v>2756.9</v>
@@ -21725,7 +21745,7 @@
         <v>1877</v>
       </c>
       <c r="K419" t="n">
-        <v>26.76056338028169</v>
+        <v>61.53846153846154</v>
       </c>
       <c r="L419" t="n">
         <v>2758</v>
@@ -21776,7 +21796,7 @@
         <v>1877</v>
       </c>
       <c r="K420" t="n">
-        <v>18.75</v>
+        <v>58.33333333333334</v>
       </c>
       <c r="L420" t="n">
         <v>2759.6</v>
@@ -21827,7 +21847,7 @@
         <v>1877</v>
       </c>
       <c r="K421" t="n">
-        <v>17.46031746031746</v>
+        <v>100</v>
       </c>
       <c r="L421" t="n">
         <v>2761</v>
@@ -21878,7 +21898,7 @@
         <v>1877</v>
       </c>
       <c r="K422" t="n">
-        <v>37.03703703703704</v>
+        <v>100</v>
       </c>
       <c r="L422" t="n">
         <v>2762.9</v>
@@ -21929,7 +21949,7 @@
         <v>1877</v>
       </c>
       <c r="K423" t="n">
-        <v>19.04761904761905</v>
+        <v>100</v>
       </c>
       <c r="L423" t="n">
         <v>2764.8</v>
@@ -21980,7 +22000,7 @@
         <v>1880</v>
       </c>
       <c r="K424" t="n">
-        <v>2.439024390243902</v>
+        <v>71.42857142857143</v>
       </c>
       <c r="L424" t="n">
         <v>2766.3</v>
@@ -22031,7 +22051,7 @@
         <v>1888</v>
       </c>
       <c r="K425" t="n">
-        <v>34.88372093023256</v>
+        <v>71.42857142857143</v>
       </c>
       <c r="L425" t="n">
         <v>2768.6</v>
@@ -22082,7 +22102,7 @@
         <v>1899</v>
       </c>
       <c r="K426" t="n">
-        <v>50.9433962264151</v>
+        <v>76</v>
       </c>
       <c r="L426" t="n">
         <v>2771.2</v>
@@ -22133,7 +22153,7 @@
         <v>1900</v>
       </c>
       <c r="K427" t="n">
-        <v>51.85185185185185</v>
+        <v>76.92307692307693</v>
       </c>
       <c r="L427" t="n">
         <v>2773.2</v>
@@ -22184,7 +22204,7 @@
         <v>1907</v>
       </c>
       <c r="K428" t="n">
-        <v>57.37704918032787</v>
+        <v>80</v>
       </c>
       <c r="L428" t="n">
         <v>2775.9</v>
@@ -22235,7 +22255,7 @@
         <v>1913</v>
       </c>
       <c r="K429" t="n">
-        <v>43.28358208955223</v>
+        <v>50</v>
       </c>
       <c r="L429" t="n">
         <v>2777.7</v>
@@ -22286,7 +22306,7 @@
         <v>1922</v>
       </c>
       <c r="K430" t="n">
-        <v>60.56338028169014</v>
+        <v>60</v>
       </c>
       <c r="L430" t="n">
         <v>2780.4</v>
@@ -22337,7 +22357,7 @@
         <v>1932</v>
       </c>
       <c r="K431" t="n">
-        <v>64.55696202531645</v>
+        <v>67.27272727272727</v>
       </c>
       <c r="L431" t="n">
         <v>2784.1</v>
@@ -22388,7 +22408,7 @@
         <v>1933</v>
       </c>
       <c r="K432" t="n">
-        <v>76</v>
+        <v>67.85714285714286</v>
       </c>
       <c r="L432" t="n">
         <v>2787.9</v>
@@ -22439,7 +22459,7 @@
         <v>1934</v>
       </c>
       <c r="K433" t="n">
-        <v>73.68421052631578</v>
+        <v>74.07407407407408</v>
       </c>
       <c r="L433" t="n">
         <v>2791.6</v>
@@ -22490,7 +22510,7 @@
         <v>1943</v>
       </c>
       <c r="K434" t="n">
-        <v>76.19047619047619</v>
+        <v>74.54545454545455</v>
       </c>
       <c r="L434" t="n">
         <v>2796.5</v>
@@ -22541,7 +22561,7 @@
         <v>1952</v>
       </c>
       <c r="K435" t="n">
-        <v>59.13978494623656</v>
+        <v>39.62264150943396</v>
       </c>
       <c r="L435" t="n">
         <v>2799.7</v>
@@ -22592,7 +22612,7 @@
         <v>1960</v>
       </c>
       <c r="K436" t="n">
-        <v>59.13978494623656</v>
+        <v>46.66666666666666</v>
       </c>
       <c r="L436" t="n">
         <v>2802.6</v>
@@ -22643,7 +22663,7 @@
         <v>1964</v>
       </c>
       <c r="K437" t="n">
-        <v>48.88888888888889</v>
+        <v>29.82456140350877</v>
       </c>
       <c r="L437" t="n">
         <v>2805</v>
@@ -22694,7 +22714,7 @@
         <v>1964</v>
       </c>
       <c r="K438" t="n">
-        <v>48.88888888888889</v>
+        <v>45.09803921568628</v>
       </c>
       <c r="L438" t="n">
         <v>2806.7</v>
@@ -22745,7 +22765,7 @@
         <v>1965</v>
       </c>
       <c r="K439" t="n">
-        <v>45.45454545454545</v>
+        <v>30.23255813953488</v>
       </c>
       <c r="L439" t="n">
         <v>2808.9</v>
@@ -22796,7 +22816,7 @@
         <v>1967</v>
       </c>
       <c r="K440" t="n">
-        <v>46.66666666666666</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L440" t="n">
         <v>2810.4</v>
@@ -22847,7 +22867,7 @@
         <v>1976</v>
       </c>
       <c r="K441" t="n">
-        <v>51.51515151515152</v>
+        <v>30.23255813953488</v>
       </c>
       <c r="L441" t="n">
         <v>2811.8</v>
@@ -22898,7 +22918,7 @@
         <v>1977</v>
       </c>
       <c r="K442" t="n">
-        <v>52</v>
+        <v>34.88372093023256</v>
       </c>
       <c r="L442" t="n">
         <v>2813.2</v>
@@ -22949,7 +22969,7 @@
         <v>1987</v>
       </c>
       <c r="K443" t="n">
-        <v>38.18181818181819</v>
+        <v>-9.090909090909092</v>
       </c>
       <c r="L443" t="n">
         <v>2813.7</v>
@@ -23000,7 +23020,7 @@
         <v>1997</v>
       </c>
       <c r="K444" t="n">
-        <v>47.008547008547</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L444" t="n">
         <v>2814.3</v>

--- a/BackTest/2019-10-19 BackTest LINK.xlsx
+++ b/BackTest/2019-10-19 BackTest LINK.xlsx
@@ -3951,13 +3951,17 @@
         <v>2781.2</v>
       </c>
       <c r="H102" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I102" t="n">
         <v>0</v>
       </c>
-      <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
+      <c r="J102" t="n">
+        <v>2723</v>
+      </c>
+      <c r="K102" t="n">
+        <v>2723</v>
+      </c>
       <c r="L102" t="inlineStr"/>
       <c r="M102" t="n">
         <v>1</v>
@@ -3986,14 +3990,22 @@
         <v>2779.9</v>
       </c>
       <c r="H103" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I103" t="n">
         <v>0</v>
       </c>
-      <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
-      <c r="L103" t="inlineStr"/>
+      <c r="J103" t="n">
+        <v>2732</v>
+      </c>
+      <c r="K103" t="n">
+        <v>2723</v>
+      </c>
+      <c r="L103" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M103" t="n">
         <v>1</v>
       </c>
@@ -4021,14 +4033,22 @@
         <v>2778.9</v>
       </c>
       <c r="H104" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I104" t="n">
         <v>0</v>
       </c>
-      <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
-      <c r="L104" t="inlineStr"/>
+      <c r="J104" t="n">
+        <v>2734</v>
+      </c>
+      <c r="K104" t="n">
+        <v>2723</v>
+      </c>
+      <c r="L104" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M104" t="n">
         <v>1</v>
       </c>
@@ -4056,14 +4076,22 @@
         <v>2777.716666666667</v>
       </c>
       <c r="H105" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I105" t="n">
         <v>0</v>
       </c>
-      <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
-      <c r="L105" t="inlineStr"/>
+      <c r="J105" t="n">
+        <v>2740</v>
+      </c>
+      <c r="K105" t="n">
+        <v>2723</v>
+      </c>
+      <c r="L105" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="M105" t="n">
         <v>1</v>
       </c>
@@ -4097,8 +4125,14 @@
         <v>0</v>
       </c>
       <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
-      <c r="L106" t="inlineStr"/>
+      <c r="K106" t="n">
+        <v>2723</v>
+      </c>
+      <c r="L106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M106" t="n">
         <v>1</v>
       </c>
@@ -4132,8 +4166,14 @@
         <v>0</v>
       </c>
       <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
-      <c r="L107" t="inlineStr"/>
+      <c r="K107" t="n">
+        <v>2723</v>
+      </c>
+      <c r="L107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M107" t="n">
         <v>1</v>
       </c>
@@ -4167,8 +4207,14 @@
         <v>0</v>
       </c>
       <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
-      <c r="L108" t="inlineStr"/>
+      <c r="K108" t="n">
+        <v>2723</v>
+      </c>
+      <c r="L108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M108" t="n">
         <v>1</v>
       </c>
@@ -4202,8 +4248,14 @@
         <v>0</v>
       </c>
       <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
-      <c r="L109" t="inlineStr"/>
+      <c r="K109" t="n">
+        <v>2723</v>
+      </c>
+      <c r="L109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M109" t="n">
         <v>1</v>
       </c>
@@ -4237,8 +4289,14 @@
         <v>0</v>
       </c>
       <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
-      <c r="L110" t="inlineStr"/>
+      <c r="K110" t="n">
+        <v>2723</v>
+      </c>
+      <c r="L110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M110" t="n">
         <v>1</v>
       </c>
@@ -4272,8 +4330,14 @@
         <v>0</v>
       </c>
       <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
-      <c r="L111" t="inlineStr"/>
+      <c r="K111" t="n">
+        <v>2723</v>
+      </c>
+      <c r="L111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M111" t="n">
         <v>1</v>
       </c>
@@ -4307,8 +4371,14 @@
         <v>0</v>
       </c>
       <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
-      <c r="L112" t="inlineStr"/>
+      <c r="K112" t="n">
+        <v>2723</v>
+      </c>
+      <c r="L112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M112" t="n">
         <v>1</v>
       </c>
@@ -4342,8 +4412,14 @@
         <v>0</v>
       </c>
       <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
-      <c r="L113" t="inlineStr"/>
+      <c r="K113" t="n">
+        <v>2723</v>
+      </c>
+      <c r="L113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M113" t="n">
         <v>1</v>
       </c>
@@ -4377,8 +4453,14 @@
         <v>0</v>
       </c>
       <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
-      <c r="L114" t="inlineStr"/>
+      <c r="K114" t="n">
+        <v>2723</v>
+      </c>
+      <c r="L114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M114" t="n">
         <v>1</v>
       </c>
@@ -4412,8 +4494,14 @@
         <v>0</v>
       </c>
       <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
-      <c r="L115" t="inlineStr"/>
+      <c r="K115" t="n">
+        <v>2723</v>
+      </c>
+      <c r="L115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M115" t="n">
         <v>1</v>
       </c>
@@ -4447,8 +4535,14 @@
         <v>0</v>
       </c>
       <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
-      <c r="L116" t="inlineStr"/>
+      <c r="K116" t="n">
+        <v>2723</v>
+      </c>
+      <c r="L116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M116" t="n">
         <v>1</v>
       </c>
@@ -4482,8 +4576,14 @@
         <v>0</v>
       </c>
       <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
-      <c r="L117" t="inlineStr"/>
+      <c r="K117" t="n">
+        <v>2723</v>
+      </c>
+      <c r="L117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M117" t="n">
         <v>1</v>
       </c>
@@ -4517,8 +4617,14 @@
         <v>0</v>
       </c>
       <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
-      <c r="L118" t="inlineStr"/>
+      <c r="K118" t="n">
+        <v>2723</v>
+      </c>
+      <c r="L118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M118" t="n">
         <v>1</v>
       </c>
@@ -4552,8 +4658,14 @@
         <v>0</v>
       </c>
       <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
-      <c r="L119" t="inlineStr"/>
+      <c r="K119" t="n">
+        <v>2723</v>
+      </c>
+      <c r="L119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M119" t="n">
         <v>1</v>
       </c>
@@ -4587,8 +4699,14 @@
         <v>0</v>
       </c>
       <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
-      <c r="L120" t="inlineStr"/>
+      <c r="K120" t="n">
+        <v>2723</v>
+      </c>
+      <c r="L120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M120" t="n">
         <v>1</v>
       </c>
@@ -4622,8 +4740,14 @@
         <v>0</v>
       </c>
       <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
-      <c r="L121" t="inlineStr"/>
+      <c r="K121" t="n">
+        <v>2723</v>
+      </c>
+      <c r="L121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M121" t="n">
         <v>1</v>
       </c>
@@ -4657,8 +4781,14 @@
         <v>0</v>
       </c>
       <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
-      <c r="L122" t="inlineStr"/>
+      <c r="K122" t="n">
+        <v>2723</v>
+      </c>
+      <c r="L122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M122" t="n">
         <v>1</v>
       </c>
@@ -4692,8 +4822,14 @@
         <v>0</v>
       </c>
       <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
-      <c r="L123" t="inlineStr"/>
+      <c r="K123" t="n">
+        <v>2723</v>
+      </c>
+      <c r="L123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M123" t="n">
         <v>1</v>
       </c>
@@ -4727,8 +4863,14 @@
         <v>0</v>
       </c>
       <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
-      <c r="L124" t="inlineStr"/>
+      <c r="K124" t="n">
+        <v>2723</v>
+      </c>
+      <c r="L124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M124" t="n">
         <v>1</v>
       </c>
@@ -4762,8 +4904,14 @@
         <v>0</v>
       </c>
       <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr"/>
-      <c r="L125" t="inlineStr"/>
+      <c r="K125" t="n">
+        <v>2723</v>
+      </c>
+      <c r="L125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M125" t="n">
         <v>1</v>
       </c>
@@ -4797,8 +4945,14 @@
         <v>0</v>
       </c>
       <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
-      <c r="L126" t="inlineStr"/>
+      <c r="K126" t="n">
+        <v>2723</v>
+      </c>
+      <c r="L126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M126" t="n">
         <v>1</v>
       </c>
@@ -4832,8 +4986,14 @@
         <v>0</v>
       </c>
       <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr"/>
-      <c r="L127" t="inlineStr"/>
+      <c r="K127" t="n">
+        <v>2723</v>
+      </c>
+      <c r="L127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M127" t="n">
         <v>1</v>
       </c>
@@ -4867,8 +5027,14 @@
         <v>0</v>
       </c>
       <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr"/>
-      <c r="L128" t="inlineStr"/>
+      <c r="K128" t="n">
+        <v>2723</v>
+      </c>
+      <c r="L128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M128" t="n">
         <v>1</v>
       </c>
@@ -4902,8 +5068,14 @@
         <v>0</v>
       </c>
       <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr"/>
-      <c r="L129" t="inlineStr"/>
+      <c r="K129" t="n">
+        <v>2723</v>
+      </c>
+      <c r="L129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M129" t="n">
         <v>1</v>
       </c>
@@ -4937,8 +5109,14 @@
         <v>0</v>
       </c>
       <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr"/>
-      <c r="L130" t="inlineStr"/>
+      <c r="K130" t="n">
+        <v>2723</v>
+      </c>
+      <c r="L130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M130" t="n">
         <v>1</v>
       </c>
@@ -4972,8 +5150,14 @@
         <v>0</v>
       </c>
       <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr"/>
-      <c r="L131" t="inlineStr"/>
+      <c r="K131" t="n">
+        <v>2723</v>
+      </c>
+      <c r="L131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M131" t="n">
         <v>1</v>
       </c>
@@ -5007,8 +5191,14 @@
         <v>0</v>
       </c>
       <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr"/>
-      <c r="L132" t="inlineStr"/>
+      <c r="K132" t="n">
+        <v>2723</v>
+      </c>
+      <c r="L132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M132" t="n">
         <v>1</v>
       </c>
@@ -5036,18 +5226,20 @@
         <v>2750.366666666667</v>
       </c>
       <c r="H133" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I133" t="n">
         <v>0</v>
       </c>
-      <c r="J133" t="n">
-        <v>2731</v>
-      </c>
+      <c r="J133" t="inlineStr"/>
       <c r="K133" t="n">
-        <v>2731</v>
-      </c>
-      <c r="L133" t="inlineStr"/>
+        <v>2723</v>
+      </c>
+      <c r="L133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M133" t="n">
         <v>1</v>
       </c>
@@ -5075,20 +5267,18 @@
         <v>2749.283333333333</v>
       </c>
       <c r="H134" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I134" t="n">
         <v>0</v>
       </c>
-      <c r="J134" t="n">
-        <v>2731</v>
-      </c>
+      <c r="J134" t="inlineStr"/>
       <c r="K134" t="n">
-        <v>2731</v>
+        <v>2723</v>
       </c>
       <c r="L134" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M134" t="n">
@@ -5118,20 +5308,18 @@
         <v>2748.183333333333</v>
       </c>
       <c r="H135" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I135" t="n">
         <v>0</v>
       </c>
-      <c r="J135" t="n">
-        <v>2730</v>
-      </c>
+      <c r="J135" t="inlineStr"/>
       <c r="K135" t="n">
-        <v>2731</v>
+        <v>2723</v>
       </c>
       <c r="L135" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M135" t="n">
@@ -5161,18 +5349,20 @@
         <v>2747.266666666667</v>
       </c>
       <c r="H136" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I136" t="n">
         <v>0</v>
       </c>
-      <c r="J136" t="n">
-        <v>2730</v>
-      </c>
+      <c r="J136" t="inlineStr"/>
       <c r="K136" t="n">
-        <v>2730</v>
-      </c>
-      <c r="L136" t="inlineStr"/>
+        <v>2723</v>
+      </c>
+      <c r="L136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M136" t="n">
         <v>1</v>
       </c>
@@ -5200,20 +5390,18 @@
         <v>2746.5</v>
       </c>
       <c r="H137" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I137" t="n">
         <v>0</v>
       </c>
-      <c r="J137" t="n">
-        <v>2734</v>
-      </c>
+      <c r="J137" t="inlineStr"/>
       <c r="K137" t="n">
-        <v>2730</v>
+        <v>2723</v>
       </c>
       <c r="L137" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M137" t="n">
@@ -5243,20 +5431,18 @@
         <v>2745.55</v>
       </c>
       <c r="H138" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I138" t="n">
         <v>0</v>
       </c>
-      <c r="J138" t="n">
-        <v>2727</v>
-      </c>
+      <c r="J138" t="inlineStr"/>
       <c r="K138" t="n">
-        <v>2730</v>
+        <v>2723</v>
       </c>
       <c r="L138" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M138" t="n">
@@ -5286,16 +5472,14 @@
         <v>2744.883333333333</v>
       </c>
       <c r="H139" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I139" t="n">
         <v>0</v>
       </c>
-      <c r="J139" t="n">
-        <v>2732</v>
-      </c>
+      <c r="J139" t="inlineStr"/>
       <c r="K139" t="n">
-        <v>2730</v>
+        <v>2723</v>
       </c>
       <c r="L139" t="inlineStr">
         <is>
@@ -5329,16 +5513,14 @@
         <v>2744.35</v>
       </c>
       <c r="H140" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I140" t="n">
         <v>0</v>
       </c>
-      <c r="J140" t="n">
-        <v>2740</v>
-      </c>
+      <c r="J140" t="inlineStr"/>
       <c r="K140" t="n">
-        <v>2730</v>
+        <v>2723</v>
       </c>
       <c r="L140" t="inlineStr">
         <is>
@@ -5372,16 +5554,14 @@
         <v>2743.55</v>
       </c>
       <c r="H141" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I141" t="n">
         <v>0</v>
       </c>
-      <c r="J141" t="n">
-        <v>2733</v>
-      </c>
+      <c r="J141" t="inlineStr"/>
       <c r="K141" t="n">
-        <v>2730</v>
+        <v>2723</v>
       </c>
       <c r="L141" t="inlineStr">
         <is>
@@ -5415,16 +5595,14 @@
         <v>2742.916666666667</v>
       </c>
       <c r="H142" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I142" t="n">
         <v>0</v>
       </c>
-      <c r="J142" t="n">
-        <v>2734</v>
-      </c>
+      <c r="J142" t="inlineStr"/>
       <c r="K142" t="n">
-        <v>2730</v>
+        <v>2723</v>
       </c>
       <c r="L142" t="inlineStr">
         <is>
@@ -5458,16 +5636,14 @@
         <v>2742.433333333333</v>
       </c>
       <c r="H143" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I143" t="n">
         <v>0</v>
       </c>
-      <c r="J143" t="n">
-        <v>2734</v>
-      </c>
+      <c r="J143" t="inlineStr"/>
       <c r="K143" t="n">
-        <v>2730</v>
+        <v>2723</v>
       </c>
       <c r="L143" t="inlineStr">
         <is>
@@ -5501,16 +5677,14 @@
         <v>2742.016666666667</v>
       </c>
       <c r="H144" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I144" t="n">
         <v>0</v>
       </c>
-      <c r="J144" t="n">
-        <v>2742</v>
-      </c>
+      <c r="J144" t="inlineStr"/>
       <c r="K144" t="n">
-        <v>2730</v>
+        <v>2723</v>
       </c>
       <c r="L144" t="inlineStr">
         <is>
@@ -5544,16 +5718,14 @@
         <v>2741.783333333333</v>
       </c>
       <c r="H145" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I145" t="n">
         <v>0</v>
       </c>
-      <c r="J145" t="n">
-        <v>2744</v>
-      </c>
+      <c r="J145" t="inlineStr"/>
       <c r="K145" t="n">
-        <v>2730</v>
+        <v>2723</v>
       </c>
       <c r="L145" t="inlineStr">
         <is>
@@ -5587,16 +5759,14 @@
         <v>2741.483333333333</v>
       </c>
       <c r="H146" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I146" t="n">
         <v>0</v>
       </c>
-      <c r="J146" t="n">
-        <v>2736</v>
-      </c>
+      <c r="J146" t="inlineStr"/>
       <c r="K146" t="n">
-        <v>2730</v>
+        <v>2723</v>
       </c>
       <c r="L146" t="inlineStr">
         <is>
@@ -5630,16 +5800,14 @@
         <v>2741.25</v>
       </c>
       <c r="H147" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I147" t="n">
         <v>0</v>
       </c>
-      <c r="J147" t="n">
-        <v>2739</v>
-      </c>
+      <c r="J147" t="inlineStr"/>
       <c r="K147" t="n">
-        <v>2730</v>
+        <v>2723</v>
       </c>
       <c r="L147" t="inlineStr">
         <is>
@@ -5673,16 +5841,14 @@
         <v>2740.85</v>
       </c>
       <c r="H148" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I148" t="n">
         <v>0</v>
       </c>
-      <c r="J148" t="n">
-        <v>2733</v>
-      </c>
+      <c r="J148" t="inlineStr"/>
       <c r="K148" t="n">
-        <v>2730</v>
+        <v>2723</v>
       </c>
       <c r="L148" t="inlineStr">
         <is>
@@ -5716,16 +5882,14 @@
         <v>2740.183333333333</v>
       </c>
       <c r="H149" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I149" t="n">
         <v>0</v>
       </c>
-      <c r="J149" t="n">
-        <v>2731</v>
-      </c>
+      <c r="J149" t="inlineStr"/>
       <c r="K149" t="n">
-        <v>2730</v>
+        <v>2723</v>
       </c>
       <c r="L149" t="inlineStr">
         <is>
@@ -5759,16 +5923,14 @@
         <v>2739.683333333333</v>
       </c>
       <c r="H150" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I150" t="n">
         <v>0</v>
       </c>
-      <c r="J150" t="n">
-        <v>2740</v>
-      </c>
+      <c r="J150" t="inlineStr"/>
       <c r="K150" t="n">
-        <v>2730</v>
+        <v>2723</v>
       </c>
       <c r="L150" t="inlineStr">
         <is>
@@ -5802,16 +5964,14 @@
         <v>2739.5</v>
       </c>
       <c r="H151" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I151" t="n">
         <v>0</v>
       </c>
-      <c r="J151" t="n">
-        <v>2746</v>
-      </c>
+      <c r="J151" t="inlineStr"/>
       <c r="K151" t="n">
-        <v>2730</v>
+        <v>2723</v>
       </c>
       <c r="L151" t="inlineStr">
         <is>
@@ -5845,16 +6005,14 @@
         <v>2739.566666666667</v>
       </c>
       <c r="H152" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I152" t="n">
         <v>0</v>
       </c>
-      <c r="J152" t="n">
-        <v>2746</v>
-      </c>
+      <c r="J152" t="inlineStr"/>
       <c r="K152" t="n">
-        <v>2730</v>
+        <v>2723</v>
       </c>
       <c r="L152" t="inlineStr">
         <is>
@@ -5888,16 +6046,14 @@
         <v>2739.516666666667</v>
       </c>
       <c r="H153" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I153" t="n">
         <v>0</v>
       </c>
-      <c r="J153" t="n">
-        <v>2748</v>
-      </c>
+      <c r="J153" t="inlineStr"/>
       <c r="K153" t="n">
-        <v>2730</v>
+        <v>2723</v>
       </c>
       <c r="L153" t="inlineStr">
         <is>
@@ -5931,16 +6087,14 @@
         <v>2739.683333333333</v>
       </c>
       <c r="H154" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I154" t="n">
         <v>0</v>
       </c>
-      <c r="J154" t="n">
-        <v>2758</v>
-      </c>
+      <c r="J154" t="inlineStr"/>
       <c r="K154" t="n">
-        <v>2730</v>
+        <v>2723</v>
       </c>
       <c r="L154" t="inlineStr">
         <is>
@@ -5974,16 +6128,14 @@
         <v>2740.05</v>
       </c>
       <c r="H155" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I155" t="n">
         <v>0</v>
       </c>
-      <c r="J155" t="n">
-        <v>2759</v>
-      </c>
+      <c r="J155" t="inlineStr"/>
       <c r="K155" t="n">
-        <v>2730</v>
+        <v>2723</v>
       </c>
       <c r="L155" t="inlineStr">
         <is>
@@ -6024,7 +6176,7 @@
       </c>
       <c r="J156" t="inlineStr"/>
       <c r="K156" t="n">
-        <v>2730</v>
+        <v>2723</v>
       </c>
       <c r="L156" t="inlineStr">
         <is>
@@ -6065,7 +6217,7 @@
       </c>
       <c r="J157" t="inlineStr"/>
       <c r="K157" t="n">
-        <v>2730</v>
+        <v>2723</v>
       </c>
       <c r="L157" t="inlineStr">
         <is>
@@ -6106,7 +6258,7 @@
       </c>
       <c r="J158" t="inlineStr"/>
       <c r="K158" t="n">
-        <v>2730</v>
+        <v>2723</v>
       </c>
       <c r="L158" t="inlineStr">
         <is>
@@ -6147,7 +6299,7 @@
       </c>
       <c r="J159" t="inlineStr"/>
       <c r="K159" t="n">
-        <v>2730</v>
+        <v>2723</v>
       </c>
       <c r="L159" t="inlineStr">
         <is>
@@ -6188,7 +6340,7 @@
       </c>
       <c r="J160" t="inlineStr"/>
       <c r="K160" t="n">
-        <v>2730</v>
+        <v>2723</v>
       </c>
       <c r="L160" t="inlineStr">
         <is>
@@ -6229,7 +6381,7 @@
       </c>
       <c r="J161" t="inlineStr"/>
       <c r="K161" t="n">
-        <v>2730</v>
+        <v>2723</v>
       </c>
       <c r="L161" t="inlineStr">
         <is>
@@ -6270,7 +6422,7 @@
       </c>
       <c r="J162" t="inlineStr"/>
       <c r="K162" t="n">
-        <v>2730</v>
+        <v>2723</v>
       </c>
       <c r="L162" t="inlineStr">
         <is>
@@ -6311,7 +6463,7 @@
       </c>
       <c r="J163" t="inlineStr"/>
       <c r="K163" t="n">
-        <v>2730</v>
+        <v>2723</v>
       </c>
       <c r="L163" t="inlineStr">
         <is>
@@ -6352,7 +6504,7 @@
       </c>
       <c r="J164" t="inlineStr"/>
       <c r="K164" t="n">
-        <v>2730</v>
+        <v>2723</v>
       </c>
       <c r="L164" t="inlineStr">
         <is>
@@ -6393,7 +6545,7 @@
       </c>
       <c r="J165" t="inlineStr"/>
       <c r="K165" t="n">
-        <v>2730</v>
+        <v>2723</v>
       </c>
       <c r="L165" t="inlineStr">
         <is>
@@ -6434,7 +6586,7 @@
       </c>
       <c r="J166" t="inlineStr"/>
       <c r="K166" t="n">
-        <v>2730</v>
+        <v>2723</v>
       </c>
       <c r="L166" t="inlineStr">
         <is>
@@ -6475,7 +6627,7 @@
       </c>
       <c r="J167" t="inlineStr"/>
       <c r="K167" t="n">
-        <v>2730</v>
+        <v>2723</v>
       </c>
       <c r="L167" t="inlineStr">
         <is>
@@ -6516,7 +6668,7 @@
       </c>
       <c r="J168" t="inlineStr"/>
       <c r="K168" t="n">
-        <v>2730</v>
+        <v>2723</v>
       </c>
       <c r="L168" t="inlineStr">
         <is>
@@ -6553,19 +6705,19 @@
         <v>0</v>
       </c>
       <c r="I169" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J169" t="inlineStr"/>
       <c r="K169" t="n">
-        <v>2730</v>
+        <v>2723</v>
       </c>
       <c r="L169" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
       <c r="M169" t="n">
-        <v>1</v>
+        <v>1.017034520749174</v>
       </c>
     </row>
     <row r="170">
@@ -6594,17 +6746,11 @@
         <v>0</v>
       </c>
       <c r="I170" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J170" t="inlineStr"/>
-      <c r="K170" t="n">
-        <v>2730</v>
-      </c>
-      <c r="L170" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K170" t="inlineStr"/>
+      <c r="L170" t="inlineStr"/>
       <c r="M170" t="n">
         <v>1</v>
       </c>
@@ -6635,17 +6781,11 @@
         <v>0</v>
       </c>
       <c r="I171" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J171" t="inlineStr"/>
-      <c r="K171" t="n">
-        <v>2730</v>
-      </c>
-      <c r="L171" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K171" t="inlineStr"/>
+      <c r="L171" t="inlineStr"/>
       <c r="M171" t="n">
         <v>1</v>
       </c>
@@ -6676,17 +6816,11 @@
         <v>0</v>
       </c>
       <c r="I172" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J172" t="inlineStr"/>
-      <c r="K172" t="n">
-        <v>2730</v>
-      </c>
-      <c r="L172" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K172" t="inlineStr"/>
+      <c r="L172" t="inlineStr"/>
       <c r="M172" t="n">
         <v>1</v>
       </c>
@@ -6720,14 +6854,8 @@
         <v>0</v>
       </c>
       <c r="J173" t="inlineStr"/>
-      <c r="K173" t="n">
-        <v>2730</v>
-      </c>
-      <c r="L173" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K173" t="inlineStr"/>
+      <c r="L173" t="inlineStr"/>
       <c r="M173" t="n">
         <v>1</v>
       </c>
@@ -6761,14 +6889,8 @@
         <v>0</v>
       </c>
       <c r="J174" t="inlineStr"/>
-      <c r="K174" t="n">
-        <v>2730</v>
-      </c>
-      <c r="L174" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K174" t="inlineStr"/>
+      <c r="L174" t="inlineStr"/>
       <c r="M174" t="n">
         <v>1</v>
       </c>
@@ -6802,14 +6924,8 @@
         <v>0</v>
       </c>
       <c r="J175" t="inlineStr"/>
-      <c r="K175" t="n">
-        <v>2730</v>
-      </c>
-      <c r="L175" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K175" t="inlineStr"/>
+      <c r="L175" t="inlineStr"/>
       <c r="M175" t="n">
         <v>1</v>
       </c>
@@ -6843,14 +6959,8 @@
         <v>0</v>
       </c>
       <c r="J176" t="inlineStr"/>
-      <c r="K176" t="n">
-        <v>2730</v>
-      </c>
-      <c r="L176" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K176" t="inlineStr"/>
+      <c r="L176" t="inlineStr"/>
       <c r="M176" t="n">
         <v>1</v>
       </c>
@@ -6884,14 +6994,8 @@
         <v>0</v>
       </c>
       <c r="J177" t="inlineStr"/>
-      <c r="K177" t="n">
-        <v>2730</v>
-      </c>
-      <c r="L177" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K177" t="inlineStr"/>
+      <c r="L177" t="inlineStr"/>
       <c r="M177" t="n">
         <v>1</v>
       </c>
@@ -6925,14 +7029,8 @@
         <v>0</v>
       </c>
       <c r="J178" t="inlineStr"/>
-      <c r="K178" t="n">
-        <v>2730</v>
-      </c>
-      <c r="L178" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K178" t="inlineStr"/>
+      <c r="L178" t="inlineStr"/>
       <c r="M178" t="n">
         <v>1</v>
       </c>
@@ -6966,14 +7064,8 @@
         <v>0</v>
       </c>
       <c r="J179" t="inlineStr"/>
-      <c r="K179" t="n">
-        <v>2730</v>
-      </c>
-      <c r="L179" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K179" t="inlineStr"/>
+      <c r="L179" t="inlineStr"/>
       <c r="M179" t="n">
         <v>1</v>
       </c>
@@ -7007,14 +7099,8 @@
         <v>0</v>
       </c>
       <c r="J180" t="inlineStr"/>
-      <c r="K180" t="n">
-        <v>2730</v>
-      </c>
-      <c r="L180" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K180" t="inlineStr"/>
+      <c r="L180" t="inlineStr"/>
       <c r="M180" t="n">
         <v>1</v>
       </c>
@@ -7048,14 +7134,8 @@
         <v>0</v>
       </c>
       <c r="J181" t="inlineStr"/>
-      <c r="K181" t="n">
-        <v>2730</v>
-      </c>
-      <c r="L181" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K181" t="inlineStr"/>
+      <c r="L181" t="inlineStr"/>
       <c r="M181" t="n">
         <v>1</v>
       </c>
@@ -7089,14 +7169,8 @@
         <v>0</v>
       </c>
       <c r="J182" t="inlineStr"/>
-      <c r="K182" t="n">
-        <v>2730</v>
-      </c>
-      <c r="L182" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K182" t="inlineStr"/>
+      <c r="L182" t="inlineStr"/>
       <c r="M182" t="n">
         <v>1</v>
       </c>
@@ -7130,14 +7204,8 @@
         <v>0</v>
       </c>
       <c r="J183" t="inlineStr"/>
-      <c r="K183" t="n">
-        <v>2730</v>
-      </c>
-      <c r="L183" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K183" t="inlineStr"/>
+      <c r="L183" t="inlineStr"/>
       <c r="M183" t="n">
         <v>1</v>
       </c>
@@ -7171,14 +7239,8 @@
         <v>0</v>
       </c>
       <c r="J184" t="inlineStr"/>
-      <c r="K184" t="n">
-        <v>2730</v>
-      </c>
-      <c r="L184" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K184" t="inlineStr"/>
+      <c r="L184" t="inlineStr"/>
       <c r="M184" t="n">
         <v>1</v>
       </c>
@@ -7212,14 +7274,8 @@
         <v>0</v>
       </c>
       <c r="J185" t="inlineStr"/>
-      <c r="K185" t="n">
-        <v>2730</v>
-      </c>
-      <c r="L185" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K185" t="inlineStr"/>
+      <c r="L185" t="inlineStr"/>
       <c r="M185" t="n">
         <v>1</v>
       </c>
@@ -7253,14 +7309,8 @@
         <v>0</v>
       </c>
       <c r="J186" t="inlineStr"/>
-      <c r="K186" t="n">
-        <v>2730</v>
-      </c>
-      <c r="L186" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K186" t="inlineStr"/>
+      <c r="L186" t="inlineStr"/>
       <c r="M186" t="n">
         <v>1</v>
       </c>
@@ -7294,14 +7344,8 @@
         <v>0</v>
       </c>
       <c r="J187" t="inlineStr"/>
-      <c r="K187" t="n">
-        <v>2730</v>
-      </c>
-      <c r="L187" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K187" t="inlineStr"/>
+      <c r="L187" t="inlineStr"/>
       <c r="M187" t="n">
         <v>1</v>
       </c>
@@ -7335,14 +7379,8 @@
         <v>0</v>
       </c>
       <c r="J188" t="inlineStr"/>
-      <c r="K188" t="n">
-        <v>2730</v>
-      </c>
-      <c r="L188" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K188" t="inlineStr"/>
+      <c r="L188" t="inlineStr"/>
       <c r="M188" t="n">
         <v>1</v>
       </c>
@@ -7376,14 +7414,8 @@
         <v>0</v>
       </c>
       <c r="J189" t="inlineStr"/>
-      <c r="K189" t="n">
-        <v>2730</v>
-      </c>
-      <c r="L189" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K189" t="inlineStr"/>
+      <c r="L189" t="inlineStr"/>
       <c r="M189" t="n">
         <v>1</v>
       </c>
@@ -7417,14 +7449,8 @@
         <v>0</v>
       </c>
       <c r="J190" t="inlineStr"/>
-      <c r="K190" t="n">
-        <v>2730</v>
-      </c>
-      <c r="L190" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K190" t="inlineStr"/>
+      <c r="L190" t="inlineStr"/>
       <c r="M190" t="n">
         <v>1</v>
       </c>
@@ -7458,14 +7484,8 @@
         <v>0</v>
       </c>
       <c r="J191" t="inlineStr"/>
-      <c r="K191" t="n">
-        <v>2730</v>
-      </c>
-      <c r="L191" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K191" t="inlineStr"/>
+      <c r="L191" t="inlineStr"/>
       <c r="M191" t="n">
         <v>1</v>
       </c>
@@ -7499,14 +7519,8 @@
         <v>0</v>
       </c>
       <c r="J192" t="inlineStr"/>
-      <c r="K192" t="n">
-        <v>2730</v>
-      </c>
-      <c r="L192" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K192" t="inlineStr"/>
+      <c r="L192" t="inlineStr"/>
       <c r="M192" t="n">
         <v>1</v>
       </c>
@@ -7540,14 +7554,8 @@
         <v>0</v>
       </c>
       <c r="J193" t="inlineStr"/>
-      <c r="K193" t="n">
-        <v>2730</v>
-      </c>
-      <c r="L193" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K193" t="inlineStr"/>
+      <c r="L193" t="inlineStr"/>
       <c r="M193" t="n">
         <v>1</v>
       </c>
@@ -7581,14 +7589,8 @@
         <v>0</v>
       </c>
       <c r="J194" t="inlineStr"/>
-      <c r="K194" t="n">
-        <v>2730</v>
-      </c>
-      <c r="L194" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K194" t="inlineStr"/>
+      <c r="L194" t="inlineStr"/>
       <c r="M194" t="n">
         <v>1</v>
       </c>
@@ -7622,14 +7624,8 @@
         <v>0</v>
       </c>
       <c r="J195" t="inlineStr"/>
-      <c r="K195" t="n">
-        <v>2730</v>
-      </c>
-      <c r="L195" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K195" t="inlineStr"/>
+      <c r="L195" t="inlineStr"/>
       <c r="M195" t="n">
         <v>1</v>
       </c>
@@ -7663,14 +7659,8 @@
         <v>0</v>
       </c>
       <c r="J196" t="inlineStr"/>
-      <c r="K196" t="n">
-        <v>2730</v>
-      </c>
-      <c r="L196" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K196" t="inlineStr"/>
+      <c r="L196" t="inlineStr"/>
       <c r="M196" t="n">
         <v>1</v>
       </c>
@@ -7704,14 +7694,8 @@
         <v>0</v>
       </c>
       <c r="J197" t="inlineStr"/>
-      <c r="K197" t="n">
-        <v>2730</v>
-      </c>
-      <c r="L197" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K197" t="inlineStr"/>
+      <c r="L197" t="inlineStr"/>
       <c r="M197" t="n">
         <v>1</v>
       </c>
@@ -7745,14 +7729,8 @@
         <v>0</v>
       </c>
       <c r="J198" t="inlineStr"/>
-      <c r="K198" t="n">
-        <v>2730</v>
-      </c>
-      <c r="L198" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K198" t="inlineStr"/>
+      <c r="L198" t="inlineStr"/>
       <c r="M198" t="n">
         <v>1</v>
       </c>
@@ -7786,14 +7764,8 @@
         <v>0</v>
       </c>
       <c r="J199" t="inlineStr"/>
-      <c r="K199" t="n">
-        <v>2730</v>
-      </c>
-      <c r="L199" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K199" t="inlineStr"/>
+      <c r="L199" t="inlineStr"/>
       <c r="M199" t="n">
         <v>1</v>
       </c>
@@ -7827,14 +7799,8 @@
         <v>0</v>
       </c>
       <c r="J200" t="inlineStr"/>
-      <c r="K200" t="n">
-        <v>2730</v>
-      </c>
-      <c r="L200" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K200" t="inlineStr"/>
+      <c r="L200" t="inlineStr"/>
       <c r="M200" t="n">
         <v>1</v>
       </c>
@@ -7868,14 +7834,8 @@
         <v>0</v>
       </c>
       <c r="J201" t="inlineStr"/>
-      <c r="K201" t="n">
-        <v>2730</v>
-      </c>
-      <c r="L201" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K201" t="inlineStr"/>
+      <c r="L201" t="inlineStr"/>
       <c r="M201" t="n">
         <v>1</v>
       </c>
@@ -7909,14 +7869,8 @@
         <v>0</v>
       </c>
       <c r="J202" t="inlineStr"/>
-      <c r="K202" t="n">
-        <v>2730</v>
-      </c>
-      <c r="L202" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K202" t="inlineStr"/>
+      <c r="L202" t="inlineStr"/>
       <c r="M202" t="n">
         <v>1</v>
       </c>
@@ -7950,14 +7904,8 @@
         <v>0</v>
       </c>
       <c r="J203" t="inlineStr"/>
-      <c r="K203" t="n">
-        <v>2730</v>
-      </c>
-      <c r="L203" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K203" t="inlineStr"/>
+      <c r="L203" t="inlineStr"/>
       <c r="M203" t="n">
         <v>1</v>
       </c>
@@ -7991,14 +7939,8 @@
         <v>0</v>
       </c>
       <c r="J204" t="inlineStr"/>
-      <c r="K204" t="n">
-        <v>2730</v>
-      </c>
-      <c r="L204" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K204" t="inlineStr"/>
+      <c r="L204" t="inlineStr"/>
       <c r="M204" t="n">
         <v>1</v>
       </c>
@@ -8032,14 +7974,8 @@
         <v>0</v>
       </c>
       <c r="J205" t="inlineStr"/>
-      <c r="K205" t="n">
-        <v>2730</v>
-      </c>
-      <c r="L205" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K205" t="inlineStr"/>
+      <c r="L205" t="inlineStr"/>
       <c r="M205" t="n">
         <v>1</v>
       </c>
@@ -8073,14 +8009,8 @@
         <v>0</v>
       </c>
       <c r="J206" t="inlineStr"/>
-      <c r="K206" t="n">
-        <v>2730</v>
-      </c>
-      <c r="L206" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K206" t="inlineStr"/>
+      <c r="L206" t="inlineStr"/>
       <c r="M206" t="n">
         <v>1</v>
       </c>
@@ -8114,14 +8044,8 @@
         <v>0</v>
       </c>
       <c r="J207" t="inlineStr"/>
-      <c r="K207" t="n">
-        <v>2730</v>
-      </c>
-      <c r="L207" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K207" t="inlineStr"/>
+      <c r="L207" t="inlineStr"/>
       <c r="M207" t="n">
         <v>1</v>
       </c>
@@ -8155,14 +8079,8 @@
         <v>0</v>
       </c>
       <c r="J208" t="inlineStr"/>
-      <c r="K208" t="n">
-        <v>2730</v>
-      </c>
-      <c r="L208" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K208" t="inlineStr"/>
+      <c r="L208" t="inlineStr"/>
       <c r="M208" t="n">
         <v>1</v>
       </c>
@@ -8196,14 +8114,8 @@
         <v>0</v>
       </c>
       <c r="J209" t="inlineStr"/>
-      <c r="K209" t="n">
-        <v>2730</v>
-      </c>
-      <c r="L209" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K209" t="inlineStr"/>
+      <c r="L209" t="inlineStr"/>
       <c r="M209" t="n">
         <v>1</v>
       </c>
@@ -8237,14 +8149,8 @@
         <v>0</v>
       </c>
       <c r="J210" t="inlineStr"/>
-      <c r="K210" t="n">
-        <v>2730</v>
-      </c>
-      <c r="L210" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K210" t="inlineStr"/>
+      <c r="L210" t="inlineStr"/>
       <c r="M210" t="n">
         <v>1</v>
       </c>
@@ -8278,14 +8184,8 @@
         <v>0</v>
       </c>
       <c r="J211" t="inlineStr"/>
-      <c r="K211" t="n">
-        <v>2730</v>
-      </c>
-      <c r="L211" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K211" t="inlineStr"/>
+      <c r="L211" t="inlineStr"/>
       <c r="M211" t="n">
         <v>1</v>
       </c>
@@ -8319,14 +8219,8 @@
         <v>0</v>
       </c>
       <c r="J212" t="inlineStr"/>
-      <c r="K212" t="n">
-        <v>2730</v>
-      </c>
-      <c r="L212" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K212" t="inlineStr"/>
+      <c r="L212" t="inlineStr"/>
       <c r="M212" t="n">
         <v>1</v>
       </c>
@@ -8360,14 +8254,8 @@
         <v>0</v>
       </c>
       <c r="J213" t="inlineStr"/>
-      <c r="K213" t="n">
-        <v>2730</v>
-      </c>
-      <c r="L213" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K213" t="inlineStr"/>
+      <c r="L213" t="inlineStr"/>
       <c r="M213" t="n">
         <v>1</v>
       </c>
@@ -8401,14 +8289,8 @@
         <v>0</v>
       </c>
       <c r="J214" t="inlineStr"/>
-      <c r="K214" t="n">
-        <v>2730</v>
-      </c>
-      <c r="L214" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K214" t="inlineStr"/>
+      <c r="L214" t="inlineStr"/>
       <c r="M214" t="n">
         <v>1</v>
       </c>
@@ -8442,14 +8324,8 @@
         <v>0</v>
       </c>
       <c r="J215" t="inlineStr"/>
-      <c r="K215" t="n">
-        <v>2730</v>
-      </c>
-      <c r="L215" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K215" t="inlineStr"/>
+      <c r="L215" t="inlineStr"/>
       <c r="M215" t="n">
         <v>1</v>
       </c>
@@ -8483,14 +8359,8 @@
         <v>0</v>
       </c>
       <c r="J216" t="inlineStr"/>
-      <c r="K216" t="n">
-        <v>2730</v>
-      </c>
-      <c r="L216" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K216" t="inlineStr"/>
+      <c r="L216" t="inlineStr"/>
       <c r="M216" t="n">
         <v>1</v>
       </c>
@@ -8524,14 +8394,8 @@
         <v>0</v>
       </c>
       <c r="J217" t="inlineStr"/>
-      <c r="K217" t="n">
-        <v>2730</v>
-      </c>
-      <c r="L217" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K217" t="inlineStr"/>
+      <c r="L217" t="inlineStr"/>
       <c r="M217" t="n">
         <v>1</v>
       </c>
@@ -8565,14 +8429,8 @@
         <v>0</v>
       </c>
       <c r="J218" t="inlineStr"/>
-      <c r="K218" t="n">
-        <v>2730</v>
-      </c>
-      <c r="L218" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K218" t="inlineStr"/>
+      <c r="L218" t="inlineStr"/>
       <c r="M218" t="n">
         <v>1</v>
       </c>
@@ -8606,14 +8464,8 @@
         <v>0</v>
       </c>
       <c r="J219" t="inlineStr"/>
-      <c r="K219" t="n">
-        <v>2730</v>
-      </c>
-      <c r="L219" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K219" t="inlineStr"/>
+      <c r="L219" t="inlineStr"/>
       <c r="M219" t="n">
         <v>1</v>
       </c>
@@ -8647,14 +8499,8 @@
         <v>0</v>
       </c>
       <c r="J220" t="inlineStr"/>
-      <c r="K220" t="n">
-        <v>2730</v>
-      </c>
-      <c r="L220" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K220" t="inlineStr"/>
+      <c r="L220" t="inlineStr"/>
       <c r="M220" t="n">
         <v>1</v>
       </c>
@@ -8688,14 +8534,8 @@
         <v>0</v>
       </c>
       <c r="J221" t="inlineStr"/>
-      <c r="K221" t="n">
-        <v>2730</v>
-      </c>
-      <c r="L221" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K221" t="inlineStr"/>
+      <c r="L221" t="inlineStr"/>
       <c r="M221" t="n">
         <v>1</v>
       </c>
@@ -8729,14 +8569,8 @@
         <v>0</v>
       </c>
       <c r="J222" t="inlineStr"/>
-      <c r="K222" t="n">
-        <v>2730</v>
-      </c>
-      <c r="L222" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K222" t="inlineStr"/>
+      <c r="L222" t="inlineStr"/>
       <c r="M222" t="n">
         <v>1</v>
       </c>
@@ -8770,14 +8604,8 @@
         <v>0</v>
       </c>
       <c r="J223" t="inlineStr"/>
-      <c r="K223" t="n">
-        <v>2730</v>
-      </c>
-      <c r="L223" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K223" t="inlineStr"/>
+      <c r="L223" t="inlineStr"/>
       <c r="M223" t="n">
         <v>1</v>
       </c>
@@ -8811,14 +8639,8 @@
         <v>0</v>
       </c>
       <c r="J224" t="inlineStr"/>
-      <c r="K224" t="n">
-        <v>2730</v>
-      </c>
-      <c r="L224" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K224" t="inlineStr"/>
+      <c r="L224" t="inlineStr"/>
       <c r="M224" t="n">
         <v>1</v>
       </c>
@@ -8852,14 +8674,8 @@
         <v>0</v>
       </c>
       <c r="J225" t="inlineStr"/>
-      <c r="K225" t="n">
-        <v>2730</v>
-      </c>
-      <c r="L225" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K225" t="inlineStr"/>
+      <c r="L225" t="inlineStr"/>
       <c r="M225" t="n">
         <v>1</v>
       </c>
@@ -8893,14 +8709,8 @@
         <v>0</v>
       </c>
       <c r="J226" t="inlineStr"/>
-      <c r="K226" t="n">
-        <v>2730</v>
-      </c>
-      <c r="L226" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K226" t="inlineStr"/>
+      <c r="L226" t="inlineStr"/>
       <c r="M226" t="n">
         <v>1</v>
       </c>
@@ -8934,14 +8744,8 @@
         <v>0</v>
       </c>
       <c r="J227" t="inlineStr"/>
-      <c r="K227" t="n">
-        <v>2730</v>
-      </c>
-      <c r="L227" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K227" t="inlineStr"/>
+      <c r="L227" t="inlineStr"/>
       <c r="M227" t="n">
         <v>1</v>
       </c>
@@ -8975,14 +8779,8 @@
         <v>0</v>
       </c>
       <c r="J228" t="inlineStr"/>
-      <c r="K228" t="n">
-        <v>2730</v>
-      </c>
-      <c r="L228" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K228" t="inlineStr"/>
+      <c r="L228" t="inlineStr"/>
       <c r="M228" t="n">
         <v>1</v>
       </c>
@@ -9016,14 +8814,8 @@
         <v>0</v>
       </c>
       <c r="J229" t="inlineStr"/>
-      <c r="K229" t="n">
-        <v>2730</v>
-      </c>
-      <c r="L229" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K229" t="inlineStr"/>
+      <c r="L229" t="inlineStr"/>
       <c r="M229" t="n">
         <v>1</v>
       </c>
@@ -9057,14 +8849,8 @@
         <v>0</v>
       </c>
       <c r="J230" t="inlineStr"/>
-      <c r="K230" t="n">
-        <v>2730</v>
-      </c>
-      <c r="L230" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K230" t="inlineStr"/>
+      <c r="L230" t="inlineStr"/>
       <c r="M230" t="n">
         <v>1</v>
       </c>
@@ -9098,14 +8884,8 @@
         <v>0</v>
       </c>
       <c r="J231" t="inlineStr"/>
-      <c r="K231" t="n">
-        <v>2730</v>
-      </c>
-      <c r="L231" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K231" t="inlineStr"/>
+      <c r="L231" t="inlineStr"/>
       <c r="M231" t="n">
         <v>1</v>
       </c>
@@ -9139,14 +8919,8 @@
         <v>0</v>
       </c>
       <c r="J232" t="inlineStr"/>
-      <c r="K232" t="n">
-        <v>2730</v>
-      </c>
-      <c r="L232" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K232" t="inlineStr"/>
+      <c r="L232" t="inlineStr"/>
       <c r="M232" t="n">
         <v>1</v>
       </c>
@@ -9180,14 +8954,8 @@
         <v>0</v>
       </c>
       <c r="J233" t="inlineStr"/>
-      <c r="K233" t="n">
-        <v>2730</v>
-      </c>
-      <c r="L233" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K233" t="inlineStr"/>
+      <c r="L233" t="inlineStr"/>
       <c r="M233" t="n">
         <v>1</v>
       </c>
@@ -9221,14 +8989,8 @@
         <v>0</v>
       </c>
       <c r="J234" t="inlineStr"/>
-      <c r="K234" t="n">
-        <v>2730</v>
-      </c>
-      <c r="L234" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K234" t="inlineStr"/>
+      <c r="L234" t="inlineStr"/>
       <c r="M234" t="n">
         <v>1</v>
       </c>
@@ -9262,14 +9024,8 @@
         <v>0</v>
       </c>
       <c r="J235" t="inlineStr"/>
-      <c r="K235" t="n">
-        <v>2730</v>
-      </c>
-      <c r="L235" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K235" t="inlineStr"/>
+      <c r="L235" t="inlineStr"/>
       <c r="M235" t="n">
         <v>1</v>
       </c>
@@ -9303,14 +9059,8 @@
         <v>0</v>
       </c>
       <c r="J236" t="inlineStr"/>
-      <c r="K236" t="n">
-        <v>2730</v>
-      </c>
-      <c r="L236" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K236" t="inlineStr"/>
+      <c r="L236" t="inlineStr"/>
       <c r="M236" t="n">
         <v>1</v>
       </c>
@@ -9344,14 +9094,8 @@
         <v>0</v>
       </c>
       <c r="J237" t="inlineStr"/>
-      <c r="K237" t="n">
-        <v>2730</v>
-      </c>
-      <c r="L237" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K237" t="inlineStr"/>
+      <c r="L237" t="inlineStr"/>
       <c r="M237" t="n">
         <v>1</v>
       </c>
@@ -9385,14 +9129,8 @@
         <v>0</v>
       </c>
       <c r="J238" t="inlineStr"/>
-      <c r="K238" t="n">
-        <v>2730</v>
-      </c>
-      <c r="L238" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K238" t="inlineStr"/>
+      <c r="L238" t="inlineStr"/>
       <c r="M238" t="n">
         <v>1</v>
       </c>
@@ -9426,14 +9164,8 @@
         <v>0</v>
       </c>
       <c r="J239" t="inlineStr"/>
-      <c r="K239" t="n">
-        <v>2730</v>
-      </c>
-      <c r="L239" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K239" t="inlineStr"/>
+      <c r="L239" t="inlineStr"/>
       <c r="M239" t="n">
         <v>1</v>
       </c>
@@ -9467,14 +9199,8 @@
         <v>0</v>
       </c>
       <c r="J240" t="inlineStr"/>
-      <c r="K240" t="n">
-        <v>2730</v>
-      </c>
-      <c r="L240" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K240" t="inlineStr"/>
+      <c r="L240" t="inlineStr"/>
       <c r="M240" t="n">
         <v>1</v>
       </c>
@@ -9508,14 +9234,8 @@
         <v>0</v>
       </c>
       <c r="J241" t="inlineStr"/>
-      <c r="K241" t="n">
-        <v>2730</v>
-      </c>
-      <c r="L241" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K241" t="inlineStr"/>
+      <c r="L241" t="inlineStr"/>
       <c r="M241" t="n">
         <v>1</v>
       </c>
@@ -9549,14 +9269,8 @@
         <v>0</v>
       </c>
       <c r="J242" t="inlineStr"/>
-      <c r="K242" t="n">
-        <v>2730</v>
-      </c>
-      <c r="L242" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K242" t="inlineStr"/>
+      <c r="L242" t="inlineStr"/>
       <c r="M242" t="n">
         <v>1</v>
       </c>
@@ -9590,14 +9304,8 @@
         <v>0</v>
       </c>
       <c r="J243" t="inlineStr"/>
-      <c r="K243" t="n">
-        <v>2730</v>
-      </c>
-      <c r="L243" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K243" t="inlineStr"/>
+      <c r="L243" t="inlineStr"/>
       <c r="M243" t="n">
         <v>1</v>
       </c>
@@ -9631,14 +9339,8 @@
         <v>0</v>
       </c>
       <c r="J244" t="inlineStr"/>
-      <c r="K244" t="n">
-        <v>2730</v>
-      </c>
-      <c r="L244" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K244" t="inlineStr"/>
+      <c r="L244" t="inlineStr"/>
       <c r="M244" t="n">
         <v>1</v>
       </c>
@@ -9672,14 +9374,8 @@
         <v>0</v>
       </c>
       <c r="J245" t="inlineStr"/>
-      <c r="K245" t="n">
-        <v>2730</v>
-      </c>
-      <c r="L245" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K245" t="inlineStr"/>
+      <c r="L245" t="inlineStr"/>
       <c r="M245" t="n">
         <v>1</v>
       </c>
@@ -9713,14 +9409,8 @@
         <v>0</v>
       </c>
       <c r="J246" t="inlineStr"/>
-      <c r="K246" t="n">
-        <v>2730</v>
-      </c>
-      <c r="L246" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K246" t="inlineStr"/>
+      <c r="L246" t="inlineStr"/>
       <c r="M246" t="n">
         <v>1</v>
       </c>
@@ -9754,14 +9444,8 @@
         <v>0</v>
       </c>
       <c r="J247" t="inlineStr"/>
-      <c r="K247" t="n">
-        <v>2730</v>
-      </c>
-      <c r="L247" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K247" t="inlineStr"/>
+      <c r="L247" t="inlineStr"/>
       <c r="M247" t="n">
         <v>1</v>
       </c>
@@ -9795,14 +9479,8 @@
         <v>0</v>
       </c>
       <c r="J248" t="inlineStr"/>
-      <c r="K248" t="n">
-        <v>2730</v>
-      </c>
-      <c r="L248" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K248" t="inlineStr"/>
+      <c r="L248" t="inlineStr"/>
       <c r="M248" t="n">
         <v>1</v>
       </c>
@@ -9836,14 +9514,8 @@
         <v>0</v>
       </c>
       <c r="J249" t="inlineStr"/>
-      <c r="K249" t="n">
-        <v>2730</v>
-      </c>
-      <c r="L249" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K249" t="inlineStr"/>
+      <c r="L249" t="inlineStr"/>
       <c r="M249" t="n">
         <v>1</v>
       </c>
@@ -9877,14 +9549,8 @@
         <v>0</v>
       </c>
       <c r="J250" t="inlineStr"/>
-      <c r="K250" t="n">
-        <v>2730</v>
-      </c>
-      <c r="L250" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K250" t="inlineStr"/>
+      <c r="L250" t="inlineStr"/>
       <c r="M250" t="n">
         <v>1</v>
       </c>
@@ -9918,14 +9584,8 @@
         <v>0</v>
       </c>
       <c r="J251" t="inlineStr"/>
-      <c r="K251" t="n">
-        <v>2730</v>
-      </c>
-      <c r="L251" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K251" t="inlineStr"/>
+      <c r="L251" t="inlineStr"/>
       <c r="M251" t="n">
         <v>1</v>
       </c>
@@ -9959,14 +9619,8 @@
         <v>0</v>
       </c>
       <c r="J252" t="inlineStr"/>
-      <c r="K252" t="n">
-        <v>2730</v>
-      </c>
-      <c r="L252" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K252" t="inlineStr"/>
+      <c r="L252" t="inlineStr"/>
       <c r="M252" t="n">
         <v>1</v>
       </c>
@@ -10000,14 +9654,8 @@
         <v>0</v>
       </c>
       <c r="J253" t="inlineStr"/>
-      <c r="K253" t="n">
-        <v>2730</v>
-      </c>
-      <c r="L253" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K253" t="inlineStr"/>
+      <c r="L253" t="inlineStr"/>
       <c r="M253" t="n">
         <v>1</v>
       </c>
@@ -10041,14 +9689,8 @@
         <v>0</v>
       </c>
       <c r="J254" t="inlineStr"/>
-      <c r="K254" t="n">
-        <v>2730</v>
-      </c>
-      <c r="L254" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K254" t="inlineStr"/>
+      <c r="L254" t="inlineStr"/>
       <c r="M254" t="n">
         <v>1</v>
       </c>
@@ -10082,14 +9724,8 @@
         <v>0</v>
       </c>
       <c r="J255" t="inlineStr"/>
-      <c r="K255" t="n">
-        <v>2730</v>
-      </c>
-      <c r="L255" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K255" t="inlineStr"/>
+      <c r="L255" t="inlineStr"/>
       <c r="M255" t="n">
         <v>1</v>
       </c>
@@ -10123,14 +9759,8 @@
         <v>0</v>
       </c>
       <c r="J256" t="inlineStr"/>
-      <c r="K256" t="n">
-        <v>2730</v>
-      </c>
-      <c r="L256" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K256" t="inlineStr"/>
+      <c r="L256" t="inlineStr"/>
       <c r="M256" t="n">
         <v>1</v>
       </c>
@@ -10164,14 +9794,8 @@
         <v>0</v>
       </c>
       <c r="J257" t="inlineStr"/>
-      <c r="K257" t="n">
-        <v>2730</v>
-      </c>
-      <c r="L257" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K257" t="inlineStr"/>
+      <c r="L257" t="inlineStr"/>
       <c r="M257" t="n">
         <v>1</v>
       </c>
@@ -10205,14 +9829,8 @@
         <v>0</v>
       </c>
       <c r="J258" t="inlineStr"/>
-      <c r="K258" t="n">
-        <v>2730</v>
-      </c>
-      <c r="L258" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K258" t="inlineStr"/>
+      <c r="L258" t="inlineStr"/>
       <c r="M258" t="n">
         <v>1</v>
       </c>
@@ -10240,20 +9858,18 @@
         <v>2761.2</v>
       </c>
       <c r="H259" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I259" t="n">
         <v>0</v>
       </c>
-      <c r="J259" t="inlineStr"/>
+      <c r="J259" t="n">
+        <v>2738</v>
+      </c>
       <c r="K259" t="n">
-        <v>2730</v>
-      </c>
-      <c r="L259" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>2738</v>
+      </c>
+      <c r="L259" t="inlineStr"/>
       <c r="M259" t="n">
         <v>1</v>
       </c>
@@ -10287,14 +9903,14 @@
         <v>0</v>
       </c>
       <c r="J260" t="n">
-        <v>2748</v>
+        <v>2750</v>
       </c>
       <c r="K260" t="n">
-        <v>2730</v>
+        <v>2738</v>
       </c>
       <c r="L260" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="M260" t="n">
@@ -10324,18 +9940,20 @@
         <v>2760.85</v>
       </c>
       <c r="H261" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I261" t="n">
         <v>0</v>
       </c>
-      <c r="J261" t="inlineStr"/>
+      <c r="J261" t="n">
+        <v>2748</v>
+      </c>
       <c r="K261" t="n">
-        <v>2730</v>
+        <v>2738</v>
       </c>
       <c r="L261" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="M261" t="n">
@@ -10365,20 +9983,18 @@
         <v>2760.666666666667</v>
       </c>
       <c r="H262" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I262" t="n">
         <v>0</v>
       </c>
-      <c r="J262" t="inlineStr"/>
+      <c r="J262" t="n">
+        <v>2748</v>
+      </c>
       <c r="K262" t="n">
-        <v>2730</v>
-      </c>
-      <c r="L262" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>2748</v>
+      </c>
+      <c r="L262" t="inlineStr"/>
       <c r="M262" t="n">
         <v>1</v>
       </c>
@@ -10406,18 +10022,20 @@
         <v>2760.433333333333</v>
       </c>
       <c r="H263" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I263" t="n">
         <v>0</v>
       </c>
-      <c r="J263" t="inlineStr"/>
+      <c r="J263" t="n">
+        <v>2748</v>
+      </c>
       <c r="K263" t="n">
-        <v>2730</v>
+        <v>2748</v>
       </c>
       <c r="L263" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="M263" t="n">
@@ -10454,11 +10072,11 @@
       </c>
       <c r="J264" t="inlineStr"/>
       <c r="K264" t="n">
-        <v>2730</v>
+        <v>2748</v>
       </c>
       <c r="L264" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="M264" t="n">
@@ -10494,14 +10112,8 @@
         <v>0</v>
       </c>
       <c r="J265" t="inlineStr"/>
-      <c r="K265" t="n">
-        <v>2730</v>
-      </c>
-      <c r="L265" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K265" t="inlineStr"/>
+      <c r="L265" t="inlineStr"/>
       <c r="M265" t="n">
         <v>1</v>
       </c>
@@ -10535,14 +10147,8 @@
         <v>0</v>
       </c>
       <c r="J266" t="inlineStr"/>
-      <c r="K266" t="n">
-        <v>2730</v>
-      </c>
-      <c r="L266" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K266" t="inlineStr"/>
+      <c r="L266" t="inlineStr"/>
       <c r="M266" t="n">
         <v>1</v>
       </c>
@@ -10576,14 +10182,8 @@
         <v>0</v>
       </c>
       <c r="J267" t="inlineStr"/>
-      <c r="K267" t="n">
-        <v>2730</v>
-      </c>
-      <c r="L267" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K267" t="inlineStr"/>
+      <c r="L267" t="inlineStr"/>
       <c r="M267" t="n">
         <v>1</v>
       </c>
@@ -10617,14 +10217,8 @@
         <v>0</v>
       </c>
       <c r="J268" t="inlineStr"/>
-      <c r="K268" t="n">
-        <v>2730</v>
-      </c>
-      <c r="L268" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K268" t="inlineStr"/>
+      <c r="L268" t="inlineStr"/>
       <c r="M268" t="n">
         <v>1</v>
       </c>
@@ -10658,14 +10252,8 @@
         <v>0</v>
       </c>
       <c r="J269" t="inlineStr"/>
-      <c r="K269" t="n">
-        <v>2730</v>
-      </c>
-      <c r="L269" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K269" t="inlineStr"/>
+      <c r="L269" t="inlineStr"/>
       <c r="M269" t="n">
         <v>1</v>
       </c>
@@ -10699,14 +10287,8 @@
         <v>0</v>
       </c>
       <c r="J270" t="inlineStr"/>
-      <c r="K270" t="n">
-        <v>2730</v>
-      </c>
-      <c r="L270" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K270" t="inlineStr"/>
+      <c r="L270" t="inlineStr"/>
       <c r="M270" t="n">
         <v>1</v>
       </c>
@@ -10740,14 +10322,8 @@
         <v>0</v>
       </c>
       <c r="J271" t="inlineStr"/>
-      <c r="K271" t="n">
-        <v>2730</v>
-      </c>
-      <c r="L271" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K271" t="inlineStr"/>
+      <c r="L271" t="inlineStr"/>
       <c r="M271" t="n">
         <v>1</v>
       </c>
@@ -10781,14 +10357,8 @@
         <v>0</v>
       </c>
       <c r="J272" t="inlineStr"/>
-      <c r="K272" t="n">
-        <v>2730</v>
-      </c>
-      <c r="L272" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K272" t="inlineStr"/>
+      <c r="L272" t="inlineStr"/>
       <c r="M272" t="n">
         <v>1</v>
       </c>
@@ -10822,14 +10392,8 @@
         <v>0</v>
       </c>
       <c r="J273" t="inlineStr"/>
-      <c r="K273" t="n">
-        <v>2730</v>
-      </c>
-      <c r="L273" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K273" t="inlineStr"/>
+      <c r="L273" t="inlineStr"/>
       <c r="M273" t="n">
         <v>1</v>
       </c>
@@ -10863,14 +10427,8 @@
         <v>0</v>
       </c>
       <c r="J274" t="inlineStr"/>
-      <c r="K274" t="n">
-        <v>2730</v>
-      </c>
-      <c r="L274" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K274" t="inlineStr"/>
+      <c r="L274" t="inlineStr"/>
       <c r="M274" t="n">
         <v>1</v>
       </c>
@@ -10904,14 +10462,8 @@
         <v>0</v>
       </c>
       <c r="J275" t="inlineStr"/>
-      <c r="K275" t="n">
-        <v>2730</v>
-      </c>
-      <c r="L275" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K275" t="inlineStr"/>
+      <c r="L275" t="inlineStr"/>
       <c r="M275" t="n">
         <v>1</v>
       </c>
@@ -10945,14 +10497,8 @@
         <v>0</v>
       </c>
       <c r="J276" t="inlineStr"/>
-      <c r="K276" t="n">
-        <v>2730</v>
-      </c>
-      <c r="L276" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K276" t="inlineStr"/>
+      <c r="L276" t="inlineStr"/>
       <c r="M276" t="n">
         <v>1</v>
       </c>
@@ -10986,14 +10532,8 @@
         <v>0</v>
       </c>
       <c r="J277" t="inlineStr"/>
-      <c r="K277" t="n">
-        <v>2730</v>
-      </c>
-      <c r="L277" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K277" t="inlineStr"/>
+      <c r="L277" t="inlineStr"/>
       <c r="M277" t="n">
         <v>1</v>
       </c>
@@ -11027,14 +10567,8 @@
         <v>0</v>
       </c>
       <c r="J278" t="inlineStr"/>
-      <c r="K278" t="n">
-        <v>2730</v>
-      </c>
-      <c r="L278" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K278" t="inlineStr"/>
+      <c r="L278" t="inlineStr"/>
       <c r="M278" t="n">
         <v>1</v>
       </c>
@@ -11068,14 +10602,8 @@
         <v>0</v>
       </c>
       <c r="J279" t="inlineStr"/>
-      <c r="K279" t="n">
-        <v>2730</v>
-      </c>
-      <c r="L279" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K279" t="inlineStr"/>
+      <c r="L279" t="inlineStr"/>
       <c r="M279" t="n">
         <v>1</v>
       </c>
@@ -11109,14 +10637,8 @@
         <v>0</v>
       </c>
       <c r="J280" t="inlineStr"/>
-      <c r="K280" t="n">
-        <v>2730</v>
-      </c>
-      <c r="L280" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K280" t="inlineStr"/>
+      <c r="L280" t="inlineStr"/>
       <c r="M280" t="n">
         <v>1</v>
       </c>
@@ -11150,14 +10672,8 @@
         <v>0</v>
       </c>
       <c r="J281" t="inlineStr"/>
-      <c r="K281" t="n">
-        <v>2730</v>
-      </c>
-      <c r="L281" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K281" t="inlineStr"/>
+      <c r="L281" t="inlineStr"/>
       <c r="M281" t="n">
         <v>1</v>
       </c>
@@ -11191,14 +10707,8 @@
         <v>0</v>
       </c>
       <c r="J282" t="inlineStr"/>
-      <c r="K282" t="n">
-        <v>2730</v>
-      </c>
-      <c r="L282" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K282" t="inlineStr"/>
+      <c r="L282" t="inlineStr"/>
       <c r="M282" t="n">
         <v>1</v>
       </c>
@@ -11232,14 +10742,8 @@
         <v>0</v>
       </c>
       <c r="J283" t="inlineStr"/>
-      <c r="K283" t="n">
-        <v>2730</v>
-      </c>
-      <c r="L283" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K283" t="inlineStr"/>
+      <c r="L283" t="inlineStr"/>
       <c r="M283" t="n">
         <v>1</v>
       </c>
@@ -11273,14 +10777,8 @@
         <v>0</v>
       </c>
       <c r="J284" t="inlineStr"/>
-      <c r="K284" t="n">
-        <v>2730</v>
-      </c>
-      <c r="L284" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K284" t="inlineStr"/>
+      <c r="L284" t="inlineStr"/>
       <c r="M284" t="n">
         <v>1</v>
       </c>
@@ -11314,14 +10812,8 @@
         <v>0</v>
       </c>
       <c r="J285" t="inlineStr"/>
-      <c r="K285" t="n">
-        <v>2730</v>
-      </c>
-      <c r="L285" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K285" t="inlineStr"/>
+      <c r="L285" t="inlineStr"/>
       <c r="M285" t="n">
         <v>1</v>
       </c>
@@ -11355,14 +10847,8 @@
         <v>0</v>
       </c>
       <c r="J286" t="inlineStr"/>
-      <c r="K286" t="n">
-        <v>2730</v>
-      </c>
-      <c r="L286" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K286" t="inlineStr"/>
+      <c r="L286" t="inlineStr"/>
       <c r="M286" t="n">
         <v>1</v>
       </c>
@@ -11396,14 +10882,8 @@
         <v>0</v>
       </c>
       <c r="J287" t="inlineStr"/>
-      <c r="K287" t="n">
-        <v>2730</v>
-      </c>
-      <c r="L287" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K287" t="inlineStr"/>
+      <c r="L287" t="inlineStr"/>
       <c r="M287" t="n">
         <v>1</v>
       </c>
@@ -11437,14 +10917,8 @@
         <v>0</v>
       </c>
       <c r="J288" t="inlineStr"/>
-      <c r="K288" t="n">
-        <v>2730</v>
-      </c>
-      <c r="L288" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K288" t="inlineStr"/>
+      <c r="L288" t="inlineStr"/>
       <c r="M288" t="n">
         <v>1</v>
       </c>
@@ -11478,14 +10952,8 @@
         <v>0</v>
       </c>
       <c r="J289" t="inlineStr"/>
-      <c r="K289" t="n">
-        <v>2730</v>
-      </c>
-      <c r="L289" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K289" t="inlineStr"/>
+      <c r="L289" t="inlineStr"/>
       <c r="M289" t="n">
         <v>1</v>
       </c>
@@ -11519,14 +10987,8 @@
         <v>0</v>
       </c>
       <c r="J290" t="inlineStr"/>
-      <c r="K290" t="n">
-        <v>2730</v>
-      </c>
-      <c r="L290" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K290" t="inlineStr"/>
+      <c r="L290" t="inlineStr"/>
       <c r="M290" t="n">
         <v>1</v>
       </c>
@@ -11560,14 +11022,8 @@
         <v>0</v>
       </c>
       <c r="J291" t="inlineStr"/>
-      <c r="K291" t="n">
-        <v>2730</v>
-      </c>
-      <c r="L291" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K291" t="inlineStr"/>
+      <c r="L291" t="inlineStr"/>
       <c r="M291" t="n">
         <v>1</v>
       </c>
@@ -11601,14 +11057,8 @@
         <v>0</v>
       </c>
       <c r="J292" t="inlineStr"/>
-      <c r="K292" t="n">
-        <v>2730</v>
-      </c>
-      <c r="L292" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K292" t="inlineStr"/>
+      <c r="L292" t="inlineStr"/>
       <c r="M292" t="n">
         <v>1</v>
       </c>
@@ -11642,14 +11092,8 @@
         <v>0</v>
       </c>
       <c r="J293" t="inlineStr"/>
-      <c r="K293" t="n">
-        <v>2730</v>
-      </c>
-      <c r="L293" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K293" t="inlineStr"/>
+      <c r="L293" t="inlineStr"/>
       <c r="M293" t="n">
         <v>1</v>
       </c>
@@ -11683,14 +11127,8 @@
         <v>0</v>
       </c>
       <c r="J294" t="inlineStr"/>
-      <c r="K294" t="n">
-        <v>2730</v>
-      </c>
-      <c r="L294" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K294" t="inlineStr"/>
+      <c r="L294" t="inlineStr"/>
       <c r="M294" t="n">
         <v>1</v>
       </c>
@@ -11724,14 +11162,8 @@
         <v>0</v>
       </c>
       <c r="J295" t="inlineStr"/>
-      <c r="K295" t="n">
-        <v>2730</v>
-      </c>
-      <c r="L295" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K295" t="inlineStr"/>
+      <c r="L295" t="inlineStr"/>
       <c r="M295" t="n">
         <v>1</v>
       </c>
@@ -11765,14 +11197,8 @@
         <v>0</v>
       </c>
       <c r="J296" t="inlineStr"/>
-      <c r="K296" t="n">
-        <v>2730</v>
-      </c>
-      <c r="L296" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K296" t="inlineStr"/>
+      <c r="L296" t="inlineStr"/>
       <c r="M296" t="n">
         <v>1</v>
       </c>
@@ -11806,14 +11232,8 @@
         <v>0</v>
       </c>
       <c r="J297" t="inlineStr"/>
-      <c r="K297" t="n">
-        <v>2730</v>
-      </c>
-      <c r="L297" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K297" t="inlineStr"/>
+      <c r="L297" t="inlineStr"/>
       <c r="M297" t="n">
         <v>1</v>
       </c>
@@ -11847,14 +11267,8 @@
         <v>0</v>
       </c>
       <c r="J298" t="inlineStr"/>
-      <c r="K298" t="n">
-        <v>2730</v>
-      </c>
-      <c r="L298" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K298" t="inlineStr"/>
+      <c r="L298" t="inlineStr"/>
       <c r="M298" t="n">
         <v>1</v>
       </c>
@@ -11888,14 +11302,8 @@
         <v>0</v>
       </c>
       <c r="J299" t="inlineStr"/>
-      <c r="K299" t="n">
-        <v>2730</v>
-      </c>
-      <c r="L299" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K299" t="inlineStr"/>
+      <c r="L299" t="inlineStr"/>
       <c r="M299" t="n">
         <v>1</v>
       </c>
@@ -11929,14 +11337,8 @@
         <v>0</v>
       </c>
       <c r="J300" t="inlineStr"/>
-      <c r="K300" t="n">
-        <v>2730</v>
-      </c>
-      <c r="L300" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K300" t="inlineStr"/>
+      <c r="L300" t="inlineStr"/>
       <c r="M300" t="n">
         <v>1</v>
       </c>
@@ -11970,14 +11372,8 @@
         <v>0</v>
       </c>
       <c r="J301" t="inlineStr"/>
-      <c r="K301" t="n">
-        <v>2730</v>
-      </c>
-      <c r="L301" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K301" t="inlineStr"/>
+      <c r="L301" t="inlineStr"/>
       <c r="M301" t="n">
         <v>1</v>
       </c>
@@ -12011,14 +11407,8 @@
         <v>0</v>
       </c>
       <c r="J302" t="inlineStr"/>
-      <c r="K302" t="n">
-        <v>2730</v>
-      </c>
-      <c r="L302" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K302" t="inlineStr"/>
+      <c r="L302" t="inlineStr"/>
       <c r="M302" t="n">
         <v>1</v>
       </c>
@@ -12052,14 +11442,8 @@
         <v>0</v>
       </c>
       <c r="J303" t="inlineStr"/>
-      <c r="K303" t="n">
-        <v>2730</v>
-      </c>
-      <c r="L303" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K303" t="inlineStr"/>
+      <c r="L303" t="inlineStr"/>
       <c r="M303" t="n">
         <v>1</v>
       </c>
@@ -12093,14 +11477,8 @@
         <v>0</v>
       </c>
       <c r="J304" t="inlineStr"/>
-      <c r="K304" t="n">
-        <v>2730</v>
-      </c>
-      <c r="L304" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K304" t="inlineStr"/>
+      <c r="L304" t="inlineStr"/>
       <c r="M304" t="n">
         <v>1</v>
       </c>
@@ -12134,14 +11512,8 @@
         <v>0</v>
       </c>
       <c r="J305" t="inlineStr"/>
-      <c r="K305" t="n">
-        <v>2730</v>
-      </c>
-      <c r="L305" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K305" t="inlineStr"/>
+      <c r="L305" t="inlineStr"/>
       <c r="M305" t="n">
         <v>1</v>
       </c>
@@ -12172,19 +11544,13 @@
         <v>0</v>
       </c>
       <c r="I306" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J306" t="inlineStr"/>
-      <c r="K306" t="n">
-        <v>2730</v>
-      </c>
-      <c r="L306" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
+      <c r="K306" t="inlineStr"/>
+      <c r="L306" t="inlineStr"/>
       <c r="M306" t="n">
-        <v>1.021739926739927</v>
+        <v>1</v>
       </c>
     </row>
     <row r="307">
@@ -12213,7 +11579,7 @@
         <v>0</v>
       </c>
       <c r="I307" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J307" t="inlineStr"/>
       <c r="K307" t="inlineStr"/>
@@ -12248,7 +11614,7 @@
         <v>0</v>
       </c>
       <c r="I308" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J308" t="inlineStr"/>
       <c r="K308" t="inlineStr"/>
@@ -12283,7 +11649,7 @@
         <v>0</v>
       </c>
       <c r="I309" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J309" t="inlineStr"/>
       <c r="K309" t="inlineStr"/>
@@ -12318,7 +11684,7 @@
         <v>0</v>
       </c>
       <c r="I310" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J310" t="inlineStr"/>
       <c r="K310" t="inlineStr"/>
@@ -12353,7 +11719,7 @@
         <v>0</v>
       </c>
       <c r="I311" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J311" t="inlineStr"/>
       <c r="K311" t="inlineStr"/>
@@ -12388,7 +11754,7 @@
         <v>0</v>
       </c>
       <c r="I312" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J312" t="inlineStr"/>
       <c r="K312" t="inlineStr"/>
@@ -12423,7 +11789,7 @@
         <v>0</v>
       </c>
       <c r="I313" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J313" t="inlineStr"/>
       <c r="K313" t="inlineStr"/>
@@ -12458,7 +11824,7 @@
         <v>0</v>
       </c>
       <c r="I314" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J314" t="inlineStr"/>
       <c r="K314" t="inlineStr"/>
@@ -12493,7 +11859,7 @@
         <v>0</v>
       </c>
       <c r="I315" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J315" t="inlineStr"/>
       <c r="K315" t="inlineStr"/>

--- a/BackTest/2019-10-19 BackTest LINK.xlsx
+++ b/BackTest/2019-10-19 BackTest LINK.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>-5262.751247073258</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>-5341.864247073258</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
@@ -517,7 +517,7 @@
         <v>-5341.764247073258</v>
       </c>
       <c r="H4" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
@@ -550,7 +550,7 @@
         <v>-4966.764247073258</v>
       </c>
       <c r="H5" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
@@ -583,7 +583,7 @@
         <v>-4977.550647073258</v>
       </c>
       <c r="H6" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
@@ -616,7 +616,7 @@
         <v>-4879.520647073258</v>
       </c>
       <c r="H7" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
@@ -649,7 +649,7 @@
         <v>-4923.920647073258</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
@@ -682,7 +682,7 @@
         <v>-4732.926747073258</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
@@ -715,7 +715,7 @@
         <v>-4732.926747073258</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
@@ -748,7 +748,7 @@
         <v>-3926.404447073257</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
@@ -1177,7 +1177,7 @@
         <v>-5174.47024707326</v>
       </c>
       <c r="H24" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
@@ -1210,7 +1210,7 @@
         <v>-5174.47024707326</v>
       </c>
       <c r="H25" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
@@ -1243,7 +1243,7 @@
         <v>-5074.47024707326</v>
       </c>
       <c r="H26" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
@@ -1276,7 +1276,7 @@
         <v>-5074.47024707326</v>
       </c>
       <c r="H27" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
@@ -1309,7 +1309,7 @@
         <v>-5074.47024707326</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
@@ -1342,7 +1342,7 @@
         <v>-5074.47024707326</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
@@ -1375,7 +1375,7 @@
         <v>-5074.47024707326</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
@@ -1408,7 +1408,7 @@
         <v>-5074.47024707326</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
@@ -1441,7 +1441,7 @@
         <v>-5074.47024707326</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
@@ -1474,7 +1474,7 @@
         <v>-5074.47024707326</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
@@ -1507,7 +1507,7 @@
         <v>-5074.47024707326</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
@@ -1540,7 +1540,7 @@
         <v>-5104.47024707326</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
@@ -1573,7 +1573,7 @@
         <v>-5104.47024707326</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
@@ -1606,7 +1606,7 @@
         <v>-5104.47024707326</v>
       </c>
       <c r="H37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
@@ -1672,7 +1672,7 @@
         <v>-5139.47024707326</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
@@ -1738,7 +1738,7 @@
         <v>-3204.24024707326</v>
       </c>
       <c r="H41" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
@@ -1771,7 +1771,7 @@
         <v>-3508.24024707326</v>
       </c>
       <c r="H42" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
@@ -1870,7 +1870,7 @@
         <v>-3659.24024707326</v>
       </c>
       <c r="H45" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
@@ -2002,7 +2002,7 @@
         <v>-6177.91924707326</v>
       </c>
       <c r="H49" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
@@ -2299,7 +2299,7 @@
         <v>-24807.01894707326</v>
       </c>
       <c r="H58" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
@@ -2332,7 +2332,7 @@
         <v>-24807.01894707326</v>
       </c>
       <c r="H59" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
@@ -2365,7 +2365,7 @@
         <v>-24807.01894707326</v>
       </c>
       <c r="H60" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
@@ -2398,7 +2398,7 @@
         <v>-23002.81784707326</v>
       </c>
       <c r="H61" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
@@ -2431,7 +2431,7 @@
         <v>-26740.99334707326</v>
       </c>
       <c r="H62" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
@@ -2464,7 +2464,7 @@
         <v>-26730.99334707326</v>
       </c>
       <c r="H63" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
@@ -2596,7 +2596,7 @@
         <v>-29059.12544707326</v>
       </c>
       <c r="H67" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
@@ -2629,7 +2629,7 @@
         <v>-29054.95604707326</v>
       </c>
       <c r="H68" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
@@ -3355,7 +3355,7 @@
         <v>-41806.62704707326</v>
       </c>
       <c r="H90" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
@@ -3487,7 +3487,7 @@
         <v>-41926.60724707327</v>
       </c>
       <c r="H94" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
@@ -3520,7 +3520,7 @@
         <v>-42231.69114707327</v>
       </c>
       <c r="H95" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
@@ -3553,7 +3553,7 @@
         <v>-42222.92314707327</v>
       </c>
       <c r="H96" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
@@ -3586,7 +3586,7 @@
         <v>-42223.33544707327</v>
       </c>
       <c r="H97" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
@@ -3619,7 +3619,7 @@
         <v>-42313.61794707327</v>
       </c>
       <c r="H98" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
@@ -3685,7 +3685,7 @@
         <v>-42167.51114707327</v>
       </c>
       <c r="H100" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
@@ -3718,7 +3718,7 @@
         <v>-42153.08184707327</v>
       </c>
       <c r="H101" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
@@ -3751,7 +3751,7 @@
         <v>-42153.08184707327</v>
       </c>
       <c r="H102" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
@@ -3784,7 +3784,7 @@
         <v>-42153.45284707327</v>
       </c>
       <c r="H103" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
@@ -3817,7 +3817,7 @@
         <v>-42041.15284707327</v>
       </c>
       <c r="H104" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
@@ -3850,7 +3850,7 @@
         <v>-41643.20234707327</v>
       </c>
       <c r="H105" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
@@ -3883,7 +3883,7 @@
         <v>-41643.20234707327</v>
       </c>
       <c r="H106" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
@@ -3916,7 +3916,7 @@
         <v>-41643.20234707327</v>
       </c>
       <c r="H107" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
@@ -3949,7 +3949,7 @@
         <v>-41447.24394707326</v>
       </c>
       <c r="H108" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
@@ -3982,7 +3982,7 @@
         <v>-41141.94904707326</v>
       </c>
       <c r="H109" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
@@ -4015,7 +4015,7 @@
         <v>-40937.36694707326</v>
       </c>
       <c r="H110" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
@@ -4048,7 +4048,7 @@
         <v>-41119.87184707326</v>
       </c>
       <c r="H111" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
@@ -4081,7 +4081,7 @@
         <v>-41428.70634707326</v>
       </c>
       <c r="H112" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
@@ -4114,7 +4114,7 @@
         <v>-41437.75004707326</v>
       </c>
       <c r="H113" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
@@ -4147,7 +4147,7 @@
         <v>-42461.21534707327</v>
       </c>
       <c r="H114" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
@@ -4180,7 +4180,7 @@
         <v>-42522.44524707326</v>
       </c>
       <c r="H115" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
@@ -4213,7 +4213,7 @@
         <v>-46369.90094707326</v>
       </c>
       <c r="H116" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
@@ -5896,17 +5896,11 @@
         <v>-64666.04440690726</v>
       </c>
       <c r="H167" t="n">
-        <v>2</v>
-      </c>
-      <c r="I167" t="n">
-        <v>2740</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
-      <c r="K167" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="K167" t="inlineStr"/>
       <c r="L167" t="n">
         <v>1</v>
       </c>
@@ -5939,11 +5933,7 @@
       </c>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
-      <c r="K168" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K168" t="inlineStr"/>
       <c r="L168" t="n">
         <v>1</v>
       </c>
@@ -5976,11 +5966,7 @@
       </c>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
-      <c r="K169" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K169" t="inlineStr"/>
       <c r="L169" t="n">
         <v>1</v>
       </c>
@@ -6013,11 +5999,7 @@
       </c>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
-      <c r="K170" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K170" t="inlineStr"/>
       <c r="L170" t="n">
         <v>1</v>
       </c>
@@ -6050,11 +6032,7 @@
       </c>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
-      <c r="K171" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K171" t="inlineStr"/>
       <c r="L171" t="n">
         <v>1</v>
       </c>
@@ -6087,11 +6065,7 @@
       </c>
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
-      <c r="K172" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K172" t="inlineStr"/>
       <c r="L172" t="n">
         <v>1</v>
       </c>
@@ -6124,11 +6098,7 @@
       </c>
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
-      <c r="K173" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K173" t="inlineStr"/>
       <c r="L173" t="n">
         <v>1</v>
       </c>
@@ -6161,11 +6131,7 @@
       </c>
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
-      <c r="K174" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K174" t="inlineStr"/>
       <c r="L174" t="n">
         <v>1</v>
       </c>
@@ -6198,11 +6164,7 @@
       </c>
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
-      <c r="K175" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K175" t="inlineStr"/>
       <c r="L175" t="n">
         <v>1</v>
       </c>
@@ -6235,11 +6197,7 @@
       </c>
       <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
-      <c r="K176" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K176" t="inlineStr"/>
       <c r="L176" t="n">
         <v>1</v>
       </c>
@@ -6272,11 +6230,7 @@
       </c>
       <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
-      <c r="K177" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K177" t="inlineStr"/>
       <c r="L177" t="n">
         <v>1</v>
       </c>
@@ -6309,11 +6263,7 @@
       </c>
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
-      <c r="K178" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K178" t="inlineStr"/>
       <c r="L178" t="n">
         <v>1</v>
       </c>
@@ -6346,11 +6296,7 @@
       </c>
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
-      <c r="K179" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K179" t="inlineStr"/>
       <c r="L179" t="n">
         <v>1</v>
       </c>
@@ -6383,11 +6329,7 @@
       </c>
       <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
-      <c r="K180" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K180" t="inlineStr"/>
       <c r="L180" t="n">
         <v>1</v>
       </c>
@@ -6420,11 +6362,7 @@
       </c>
       <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
-      <c r="K181" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K181" t="inlineStr"/>
       <c r="L181" t="n">
         <v>1</v>
       </c>
@@ -6457,11 +6395,7 @@
       </c>
       <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
-      <c r="K182" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K182" t="inlineStr"/>
       <c r="L182" t="n">
         <v>1</v>
       </c>
@@ -6494,11 +6428,7 @@
       </c>
       <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
-      <c r="K183" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K183" t="inlineStr"/>
       <c r="L183" t="n">
         <v>1</v>
       </c>
@@ -6531,11 +6461,7 @@
       </c>
       <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
-      <c r="K184" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K184" t="inlineStr"/>
       <c r="L184" t="n">
         <v>1</v>
       </c>
@@ -6568,11 +6494,7 @@
       </c>
       <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
-      <c r="K185" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K185" t="inlineStr"/>
       <c r="L185" t="n">
         <v>1</v>
       </c>
@@ -6605,11 +6527,7 @@
       </c>
       <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
-      <c r="K186" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K186" t="inlineStr"/>
       <c r="L186" t="n">
         <v>1</v>
       </c>
@@ -6642,11 +6560,7 @@
       </c>
       <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
-      <c r="K187" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K187" t="inlineStr"/>
       <c r="L187" t="n">
         <v>1</v>
       </c>
@@ -6679,11 +6593,7 @@
       </c>
       <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
-      <c r="K188" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K188" t="inlineStr"/>
       <c r="L188" t="n">
         <v>1</v>
       </c>
@@ -6716,11 +6626,7 @@
       </c>
       <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
-      <c r="K189" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K189" t="inlineStr"/>
       <c r="L189" t="n">
         <v>1</v>
       </c>
@@ -6753,11 +6659,7 @@
       </c>
       <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
-      <c r="K190" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K190" t="inlineStr"/>
       <c r="L190" t="n">
         <v>1</v>
       </c>
@@ -6786,17 +6688,11 @@
         <v>-68334.36380693922</v>
       </c>
       <c r="H191" t="n">
-        <v>2</v>
-      </c>
-      <c r="I191" t="n">
-        <v>2730</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
-      <c r="K191" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K191" t="inlineStr"/>
       <c r="L191" t="n">
         <v>1</v>
       </c>
@@ -6829,11 +6725,7 @@
       </c>
       <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
-      <c r="K192" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K192" t="inlineStr"/>
       <c r="L192" t="n">
         <v>1</v>
       </c>
@@ -6862,17 +6754,11 @@
         <v>-68334.36380693922</v>
       </c>
       <c r="H193" t="n">
-        <v>2</v>
-      </c>
-      <c r="I193" t="n">
-        <v>2731</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr"/>
-      <c r="K193" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K193" t="inlineStr"/>
       <c r="L193" t="n">
         <v>1</v>
       </c>
@@ -6905,11 +6791,7 @@
       </c>
       <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr"/>
-      <c r="K194" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K194" t="inlineStr"/>
       <c r="L194" t="n">
         <v>1</v>
       </c>
@@ -6938,17 +6820,11 @@
         <v>-68377.38360693921</v>
       </c>
       <c r="H195" t="n">
-        <v>2</v>
-      </c>
-      <c r="I195" t="n">
-        <v>2730</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
-      <c r="K195" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K195" t="inlineStr"/>
       <c r="L195" t="n">
         <v>1</v>
       </c>
@@ -6977,17 +6853,11 @@
         <v>-68373.58110693921</v>
       </c>
       <c r="H196" t="n">
-        <v>2</v>
-      </c>
-      <c r="I196" t="n">
-        <v>2730</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr"/>
-      <c r="K196" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K196" t="inlineStr"/>
       <c r="L196" t="n">
         <v>1</v>
       </c>
@@ -7016,17 +6886,11 @@
         <v>-72660.5007069392</v>
       </c>
       <c r="H197" t="n">
-        <v>2</v>
-      </c>
-      <c r="I197" t="n">
-        <v>2734</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr"/>
-      <c r="K197" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K197" t="inlineStr"/>
       <c r="L197" t="n">
         <v>1</v>
       </c>
@@ -7055,17 +6919,11 @@
         <v>-72583.8943069392</v>
       </c>
       <c r="H198" t="n">
-        <v>2</v>
-      </c>
-      <c r="I198" t="n">
-        <v>2723</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr"/>
-      <c r="K198" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K198" t="inlineStr"/>
       <c r="L198" t="n">
         <v>1</v>
       </c>
@@ -7094,17 +6952,15 @@
         <v>-72583.79430693919</v>
       </c>
       <c r="H199" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I199" t="n">
         <v>2732</v>
       </c>
-      <c r="J199" t="inlineStr"/>
-      <c r="K199" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J199" t="n">
+        <v>2732</v>
+      </c>
+      <c r="K199" t="inlineStr"/>
       <c r="L199" t="n">
         <v>1</v>
       </c>
@@ -7133,13 +6989,17 @@
         <v>-72584.76770693919</v>
       </c>
       <c r="H200" t="n">
-        <v>0</v>
-      </c>
-      <c r="I200" t="inlineStr"/>
-      <c r="J200" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I200" t="n">
+        <v>2740</v>
+      </c>
+      <c r="J200" t="n">
+        <v>2732</v>
+      </c>
       <c r="K200" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L200" t="n">
@@ -7170,15 +7030,15 @@
         <v>-72451.8131069392</v>
       </c>
       <c r="H201" t="n">
-        <v>2</v>
-      </c>
-      <c r="I201" t="n">
-        <v>2733</v>
-      </c>
-      <c r="J201" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I201" t="inlineStr"/>
+      <c r="J201" t="n">
+        <v>2732</v>
+      </c>
       <c r="K201" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L201" t="n">
@@ -7209,17 +7069,11 @@
         <v>-72450.1156069392</v>
       </c>
       <c r="H202" t="n">
-        <v>2</v>
-      </c>
-      <c r="I202" t="n">
-        <v>2734</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I202" t="inlineStr"/>
       <c r="J202" t="inlineStr"/>
-      <c r="K202" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K202" t="inlineStr"/>
       <c r="L202" t="n">
         <v>1</v>
       </c>
@@ -7248,7 +7102,7 @@
         <v>-72321.80140693921</v>
       </c>
       <c r="H203" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I203" t="n">
         <v>2742</v>
@@ -7256,7 +7110,7 @@
       <c r="J203" t="inlineStr"/>
       <c r="K203" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 체결</t>
         </is>
       </c>
       <c r="L203" t="n">
@@ -7287,7 +7141,7 @@
         <v>-72780.6055069392</v>
       </c>
       <c r="H204" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I204" t="n">
         <v>2744</v>
@@ -7326,7 +7180,7 @@
         <v>-73103.77870693921</v>
       </c>
       <c r="H205" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I205" t="n">
         <v>2736</v>
@@ -7365,7 +7219,7 @@
         <v>-72970.77870693921</v>
       </c>
       <c r="H206" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I206" t="n">
         <v>2735</v>
@@ -7404,7 +7258,7 @@
         <v>-73461.5792069392</v>
       </c>
       <c r="H207" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I207" t="n">
         <v>2739</v>
@@ -7443,7 +7297,7 @@
         <v>-73462.3292069392</v>
       </c>
       <c r="H208" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I208" t="n">
         <v>2733</v>
@@ -7482,7 +7336,7 @@
         <v>-72951.0939069392</v>
       </c>
       <c r="H209" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I209" t="n">
         <v>2731</v>
@@ -7521,7 +7375,7 @@
         <v>-72975.0939069392</v>
       </c>
       <c r="H210" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I210" t="n">
         <v>2741</v>
@@ -7560,7 +7414,7 @@
         <v>-72354.3675069392</v>
       </c>
       <c r="H211" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I211" t="n">
         <v>2738</v>
@@ -7599,11 +7453,9 @@
         <v>-72354.77570693921</v>
       </c>
       <c r="H212" t="n">
-        <v>2</v>
-      </c>
-      <c r="I212" t="n">
-        <v>2754</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I212" t="inlineStr"/>
       <c r="J212" t="inlineStr"/>
       <c r="K212" t="inlineStr">
         <is>
@@ -7638,11 +7490,9 @@
         <v>-71849.77570693921</v>
       </c>
       <c r="H213" t="n">
-        <v>2</v>
-      </c>
-      <c r="I213" t="n">
-        <v>2748</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I213" t="inlineStr"/>
       <c r="J213" t="inlineStr"/>
       <c r="K213" t="inlineStr">
         <is>
@@ -9083,9 +8933,11 @@
         <v>-72633.39818994931</v>
       </c>
       <c r="H252" t="n">
-        <v>0</v>
-      </c>
-      <c r="I252" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I252" t="n">
+        <v>2754</v>
+      </c>
       <c r="J252" t="inlineStr"/>
       <c r="K252" t="inlineStr">
         <is>
@@ -11377,11 +11229,9 @@
         <v>-74410.76450070199</v>
       </c>
       <c r="H314" t="n">
-        <v>2</v>
-      </c>
-      <c r="I314" t="n">
-        <v>2736</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I314" t="inlineStr"/>
       <c r="J314" t="inlineStr"/>
       <c r="K314" t="inlineStr">
         <is>
@@ -12785,7 +12635,7 @@
         <v>-79511.56290070199</v>
       </c>
       <c r="H352" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I352" t="inlineStr"/>
       <c r="J352" t="inlineStr"/>
@@ -12822,7 +12672,7 @@
         <v>-79417.28080070199</v>
       </c>
       <c r="H353" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I353" t="inlineStr"/>
       <c r="J353" t="inlineStr"/>
@@ -12859,7 +12709,7 @@
         <v>-79485.48080070199</v>
       </c>
       <c r="H354" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I354" t="inlineStr"/>
       <c r="J354" t="inlineStr"/>
@@ -12896,7 +12746,7 @@
         <v>-79165.46220070199</v>
       </c>
       <c r="H355" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I355" t="inlineStr"/>
       <c r="J355" t="inlineStr"/>
@@ -13155,7 +13005,7 @@
         <v>-76556.42170070199</v>
       </c>
       <c r="H362" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I362" t="inlineStr"/>
       <c r="J362" t="inlineStr"/>
@@ -13229,7 +13079,7 @@
         <v>-69833.91820070198</v>
       </c>
       <c r="H364" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I364" t="inlineStr"/>
       <c r="J364" t="inlineStr"/>
@@ -13266,7 +13116,7 @@
         <v>-68562.67880070198</v>
       </c>
       <c r="H365" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I365" t="inlineStr"/>
       <c r="J365" t="inlineStr"/>
@@ -13303,7 +13153,7 @@
         <v>-66885.67880070198</v>
       </c>
       <c r="H366" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I366" t="inlineStr"/>
       <c r="J366" t="inlineStr"/>
@@ -13340,7 +13190,7 @@
         <v>-66885.67880070198</v>
       </c>
       <c r="H367" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I367" t="inlineStr"/>
       <c r="J367" t="inlineStr"/>
@@ -13377,7 +13227,7 @@
         <v>-67259.87400070198</v>
       </c>
       <c r="H368" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I368" t="inlineStr"/>
       <c r="J368" t="inlineStr"/>
@@ -13414,7 +13264,7 @@
         <v>-67629.73150070198</v>
       </c>
       <c r="H369" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I369" t="inlineStr"/>
       <c r="J369" t="inlineStr"/>
@@ -13451,7 +13301,7 @@
         <v>-68126.45390070198</v>
       </c>
       <c r="H370" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I370" t="inlineStr"/>
       <c r="J370" t="inlineStr"/>
@@ -13488,7 +13338,7 @@
         <v>-65626.45390070198</v>
       </c>
       <c r="H371" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I371" t="inlineStr"/>
       <c r="J371" t="inlineStr"/>
@@ -13525,7 +13375,7 @@
         <v>-65633.55032927341</v>
       </c>
       <c r="H372" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I372" t="inlineStr"/>
       <c r="J372" t="inlineStr"/>
@@ -13562,7 +13412,7 @@
         <v>-65865.3118292734</v>
       </c>
       <c r="H373" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I373" t="inlineStr"/>
       <c r="J373" t="inlineStr"/>
@@ -13599,7 +13449,7 @@
         <v>-66055.5890292734</v>
       </c>
       <c r="H374" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I374" t="inlineStr"/>
       <c r="J374" t="inlineStr"/>
@@ -13636,7 +13486,7 @@
         <v>-66270.6639292734</v>
       </c>
       <c r="H375" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I375" t="inlineStr"/>
       <c r="J375" t="inlineStr"/>
@@ -13673,7 +13523,7 @@
         <v>-66270.6639292734</v>
       </c>
       <c r="H376" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I376" t="inlineStr"/>
       <c r="J376" t="inlineStr"/>
@@ -13710,7 +13560,7 @@
         <v>-107748.8195163331</v>
       </c>
       <c r="H377" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I377" t="inlineStr"/>
       <c r="J377" t="inlineStr"/>
@@ -13747,7 +13597,7 @@
         <v>-114385.1841163331</v>
       </c>
       <c r="H378" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I378" t="inlineStr"/>
       <c r="J378" t="inlineStr"/>
@@ -14043,9 +13893,11 @@
         <v>-113125.9496163331</v>
       </c>
       <c r="H386" t="n">
-        <v>0</v>
-      </c>
-      <c r="I386" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I386" t="n">
+        <v>2781</v>
+      </c>
       <c r="J386" t="inlineStr"/>
       <c r="K386" t="inlineStr">
         <is>
@@ -14117,9 +13969,11 @@
         <v>-113237.6702163331</v>
       </c>
       <c r="H388" t="n">
-        <v>0</v>
-      </c>
-      <c r="I388" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I388" t="n">
+        <v>2776</v>
+      </c>
       <c r="J388" t="inlineStr"/>
       <c r="K388" t="inlineStr">
         <is>
@@ -14154,7 +14008,7 @@
         <v>-113237.6702163331</v>
       </c>
       <c r="H389" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I389" t="n">
         <v>2778</v>
@@ -14193,9 +14047,11 @@
         <v>-113321.3377163331</v>
       </c>
       <c r="H390" t="n">
-        <v>0</v>
-      </c>
-      <c r="I390" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I390" t="n">
+        <v>2778</v>
+      </c>
       <c r="J390" t="inlineStr"/>
       <c r="K390" t="inlineStr">
         <is>
@@ -14230,9 +14086,11 @@
         <v>-113322.3377163331</v>
       </c>
       <c r="H391" t="n">
-        <v>0</v>
-      </c>
-      <c r="I391" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I391" t="n">
+        <v>2777</v>
+      </c>
       <c r="J391" t="inlineStr"/>
       <c r="K391" t="inlineStr">
         <is>
@@ -16080,9 +15938,11 @@
         <v>-104517.1500163332</v>
       </c>
       <c r="H441" t="n">
-        <v>0</v>
-      </c>
-      <c r="I441" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I441" t="n">
+        <v>2778</v>
+      </c>
       <c r="J441" t="inlineStr"/>
       <c r="K441" t="inlineStr">
         <is>
@@ -16117,9 +15977,11 @@
         <v>-104589.1500163332</v>
       </c>
       <c r="H442" t="n">
-        <v>0</v>
-      </c>
-      <c r="I442" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I442" t="n">
+        <v>2788</v>
+      </c>
       <c r="J442" t="inlineStr"/>
       <c r="K442" t="inlineStr">
         <is>
@@ -16154,9 +16016,11 @@
         <v>-104661.1500163332</v>
       </c>
       <c r="H443" t="n">
-        <v>0</v>
-      </c>
-      <c r="I443" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I443" t="n">
+        <v>2785</v>
+      </c>
       <c r="J443" t="inlineStr"/>
       <c r="K443" t="inlineStr">
         <is>
@@ -16191,9 +16055,11 @@
         <v>-105392.5377163332</v>
       </c>
       <c r="H444" t="n">
-        <v>0</v>
-      </c>
-      <c r="I444" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I444" t="n">
+        <v>2784</v>
+      </c>
       <c r="J444" t="inlineStr"/>
       <c r="K444" t="inlineStr">
         <is>
@@ -16228,9 +16094,11 @@
         <v>-105365.3429163332</v>
       </c>
       <c r="H445" t="n">
-        <v>0</v>
-      </c>
-      <c r="I445" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I445" t="n">
+        <v>2782</v>
+      </c>
       <c r="J445" t="inlineStr"/>
       <c r="K445" t="inlineStr">
         <is>
@@ -16265,9 +16133,11 @@
         <v>-105365.1320163332</v>
       </c>
       <c r="H446" t="n">
-        <v>0</v>
-      </c>
-      <c r="I446" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I446" t="n">
+        <v>2785</v>
+      </c>
       <c r="J446" t="inlineStr"/>
       <c r="K446" t="inlineStr">
         <is>
@@ -16635,9 +16505,11 @@
         <v>-107225.0488163332</v>
       </c>
       <c r="H456" t="n">
-        <v>0</v>
-      </c>
-      <c r="I456" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I456" t="n">
+        <v>2780</v>
+      </c>
       <c r="J456" t="inlineStr"/>
       <c r="K456" t="inlineStr">
         <is>
@@ -16672,9 +16544,11 @@
         <v>-108253.4676163332</v>
       </c>
       <c r="H457" t="n">
-        <v>0</v>
-      </c>
-      <c r="I457" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I457" t="n">
+        <v>2773</v>
+      </c>
       <c r="J457" t="inlineStr"/>
       <c r="K457" t="inlineStr">
         <is>
@@ -16709,9 +16583,11 @@
         <v>-109568.7490163332</v>
       </c>
       <c r="H458" t="n">
-        <v>0</v>
-      </c>
-      <c r="I458" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I458" t="n">
+        <v>2760</v>
+      </c>
       <c r="J458" t="inlineStr"/>
       <c r="K458" t="inlineStr">
         <is>
@@ -16746,9 +16622,11 @@
         <v>-109253.1490163332</v>
       </c>
       <c r="H459" t="n">
-        <v>0</v>
-      </c>
-      <c r="I459" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I459" t="n">
+        <v>2751</v>
+      </c>
       <c r="J459" t="inlineStr"/>
       <c r="K459" t="inlineStr">
         <is>
@@ -16783,9 +16661,11 @@
         <v>-108756.9394163332</v>
       </c>
       <c r="H460" t="n">
-        <v>0</v>
-      </c>
-      <c r="I460" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I460" t="n">
+        <v>2758</v>
+      </c>
       <c r="J460" t="inlineStr"/>
       <c r="K460" t="inlineStr">
         <is>
@@ -16820,9 +16700,11 @@
         <v>-110338.5315163332</v>
       </c>
       <c r="H461" t="n">
-        <v>0</v>
-      </c>
-      <c r="I461" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I461" t="n">
+        <v>2759</v>
+      </c>
       <c r="J461" t="inlineStr"/>
       <c r="K461" t="inlineStr">
         <is>
@@ -16857,9 +16739,11 @@
         <v>-109389.9040163332</v>
       </c>
       <c r="H462" t="n">
-        <v>0</v>
-      </c>
-      <c r="I462" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I462" t="n">
+        <v>2750</v>
+      </c>
       <c r="J462" t="inlineStr"/>
       <c r="K462" t="inlineStr">
         <is>
@@ -16894,9 +16778,11 @@
         <v>-108156.7095163332</v>
       </c>
       <c r="H463" t="n">
-        <v>0</v>
-      </c>
-      <c r="I463" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I463" t="n">
+        <v>2762</v>
+      </c>
       <c r="J463" t="inlineStr"/>
       <c r="K463" t="inlineStr">
         <is>
@@ -16931,9 +16817,11 @@
         <v>-108377.3445163332</v>
       </c>
       <c r="H464" t="n">
-        <v>0</v>
-      </c>
-      <c r="I464" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I464" t="n">
+        <v>2766</v>
+      </c>
       <c r="J464" t="inlineStr"/>
       <c r="K464" t="inlineStr">
         <is>
@@ -16968,9 +16856,11 @@
         <v>-109451.1361163332</v>
       </c>
       <c r="H465" t="n">
-        <v>0</v>
-      </c>
-      <c r="I465" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I465" t="n">
+        <v>2760</v>
+      </c>
       <c r="J465" t="inlineStr"/>
       <c r="K465" t="inlineStr">
         <is>
@@ -17005,9 +16895,11 @@
         <v>-109451.1361163332</v>
       </c>
       <c r="H466" t="n">
-        <v>0</v>
-      </c>
-      <c r="I466" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I466" t="n">
+        <v>2759</v>
+      </c>
       <c r="J466" t="inlineStr"/>
       <c r="K466" t="inlineStr">
         <is>
@@ -17042,9 +16934,11 @@
         <v>-109451.1361163332</v>
       </c>
       <c r="H467" t="n">
-        <v>0</v>
-      </c>
-      <c r="I467" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I467" t="n">
+        <v>2759</v>
+      </c>
       <c r="J467" t="inlineStr"/>
       <c r="K467" t="inlineStr">
         <is>
@@ -17079,9 +16973,11 @@
         <v>-109451.1361163332</v>
       </c>
       <c r="H468" t="n">
-        <v>0</v>
-      </c>
-      <c r="I468" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I468" t="n">
+        <v>2759</v>
+      </c>
       <c r="J468" t="inlineStr"/>
       <c r="K468" t="inlineStr">
         <is>
@@ -17116,9 +17012,11 @@
         <v>-109645.8430163332</v>
       </c>
       <c r="H469" t="n">
-        <v>0</v>
-      </c>
-      <c r="I469" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I469" t="n">
+        <v>2759</v>
+      </c>
       <c r="J469" t="inlineStr"/>
       <c r="K469" t="inlineStr">
         <is>
@@ -17153,9 +17051,11 @@
         <v>-109630.1539163332</v>
       </c>
       <c r="H470" t="n">
-        <v>0</v>
-      </c>
-      <c r="I470" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I470" t="n">
+        <v>2754</v>
+      </c>
       <c r="J470" t="inlineStr"/>
       <c r="K470" t="inlineStr">
         <is>
@@ -17190,9 +17090,11 @@
         <v>-110314.9930163332</v>
       </c>
       <c r="H471" t="n">
-        <v>0</v>
-      </c>
-      <c r="I471" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I471" t="n">
+        <v>2756</v>
+      </c>
       <c r="J471" t="inlineStr"/>
       <c r="K471" t="inlineStr">
         <is>
@@ -17227,9 +17129,11 @@
         <v>-110314.9930163332</v>
       </c>
       <c r="H472" t="n">
-        <v>0</v>
-      </c>
-      <c r="I472" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I472" t="n">
+        <v>2751</v>
+      </c>
       <c r="J472" t="inlineStr"/>
       <c r="K472" t="inlineStr">
         <is>
@@ -17264,9 +17168,11 @@
         <v>-110062.1032163332</v>
       </c>
       <c r="H473" t="n">
-        <v>0</v>
-      </c>
-      <c r="I473" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I473" t="n">
+        <v>2751</v>
+      </c>
       <c r="J473" t="inlineStr"/>
       <c r="K473" t="inlineStr">
         <is>
@@ -17301,9 +17207,11 @@
         <v>-110062.1032163332</v>
       </c>
       <c r="H474" t="n">
-        <v>0</v>
-      </c>
-      <c r="I474" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I474" t="n">
+        <v>2752</v>
+      </c>
       <c r="J474" t="inlineStr"/>
       <c r="K474" t="inlineStr">
         <is>
@@ -17338,9 +17246,11 @@
         <v>-109934.8948163332</v>
       </c>
       <c r="H475" t="n">
-        <v>0</v>
-      </c>
-      <c r="I475" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I475" t="n">
+        <v>2752</v>
+      </c>
       <c r="J475" t="inlineStr"/>
       <c r="K475" t="inlineStr">
         <is>
@@ -17375,9 +17285,11 @@
         <v>-109214.8615163332</v>
       </c>
       <c r="H476" t="n">
-        <v>0</v>
-      </c>
-      <c r="I476" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I476" t="n">
+        <v>2760</v>
+      </c>
       <c r="J476" t="inlineStr"/>
       <c r="K476" t="inlineStr">
         <is>
@@ -17412,9 +17324,11 @@
         <v>-109214.8615163332</v>
       </c>
       <c r="H477" t="n">
-        <v>0</v>
-      </c>
-      <c r="I477" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I477" t="n">
+        <v>2767</v>
+      </c>
       <c r="J477" t="inlineStr"/>
       <c r="K477" t="inlineStr">
         <is>
@@ -17982,6 +17896,6 @@
       <c r="M492" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-19 BackTest LINK.xlsx
+++ b/BackTest/2019-10-19 BackTest LINK.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>-5262.751247073258</v>
       </c>
       <c r="H2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>-5341.864247073258</v>
       </c>
       <c r="H3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
@@ -517,7 +517,7 @@
         <v>-5341.764247073258</v>
       </c>
       <c r="H4" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
@@ -550,7 +550,7 @@
         <v>-4966.764247073258</v>
       </c>
       <c r="H5" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
@@ -583,7 +583,7 @@
         <v>-4977.550647073258</v>
       </c>
       <c r="H6" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
@@ -616,7 +616,7 @@
         <v>-4879.520647073258</v>
       </c>
       <c r="H7" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
@@ -649,7 +649,7 @@
         <v>-4923.920647073258</v>
       </c>
       <c r="H8" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
@@ -682,7 +682,7 @@
         <v>-4732.926747073258</v>
       </c>
       <c r="H9" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
@@ -715,7 +715,7 @@
         <v>-4732.926747073258</v>
       </c>
       <c r="H10" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
@@ -748,7 +748,7 @@
         <v>-3926.404447073257</v>
       </c>
       <c r="H11" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
@@ -1309,7 +1309,7 @@
         <v>-5074.47024707326</v>
       </c>
       <c r="H28" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
@@ -1342,7 +1342,7 @@
         <v>-5074.47024707326</v>
       </c>
       <c r="H29" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
@@ -1375,7 +1375,7 @@
         <v>-5074.47024707326</v>
       </c>
       <c r="H30" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
@@ -1408,7 +1408,7 @@
         <v>-5074.47024707326</v>
       </c>
       <c r="H31" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
@@ -1441,7 +1441,7 @@
         <v>-5074.47024707326</v>
       </c>
       <c r="H32" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
@@ -1474,7 +1474,7 @@
         <v>-5074.47024707326</v>
       </c>
       <c r="H33" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
@@ -1507,7 +1507,7 @@
         <v>-5074.47024707326</v>
       </c>
       <c r="H34" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
@@ -1540,7 +1540,7 @@
         <v>-5104.47024707326</v>
       </c>
       <c r="H35" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
@@ -1573,7 +1573,7 @@
         <v>-5104.47024707326</v>
       </c>
       <c r="H36" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
@@ -1672,7 +1672,7 @@
         <v>-5139.47024707326</v>
       </c>
       <c r="H39" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
@@ -2299,7 +2299,7 @@
         <v>-24807.01894707326</v>
       </c>
       <c r="H58" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
@@ -2332,7 +2332,7 @@
         <v>-24807.01894707326</v>
       </c>
       <c r="H59" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
@@ -2365,7 +2365,7 @@
         <v>-24807.01894707326</v>
       </c>
       <c r="H60" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
@@ -2398,7 +2398,7 @@
         <v>-23002.81784707326</v>
       </c>
       <c r="H61" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
@@ -2431,7 +2431,7 @@
         <v>-26740.99334707326</v>
       </c>
       <c r="H62" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
@@ -2464,7 +2464,7 @@
         <v>-26730.99334707326</v>
       </c>
       <c r="H63" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
@@ -2596,7 +2596,7 @@
         <v>-29059.12544707326</v>
       </c>
       <c r="H67" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
@@ -2629,7 +2629,7 @@
         <v>-29054.95604707326</v>
       </c>
       <c r="H68" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
@@ -3883,7 +3883,7 @@
         <v>-41643.20234707327</v>
       </c>
       <c r="H106" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
@@ -3949,7 +3949,7 @@
         <v>-41447.24394707326</v>
       </c>
       <c r="H108" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
@@ -3982,7 +3982,7 @@
         <v>-41141.94904707326</v>
       </c>
       <c r="H109" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
@@ -4015,7 +4015,7 @@
         <v>-40937.36694707326</v>
       </c>
       <c r="H110" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
@@ -4081,7 +4081,7 @@
         <v>-41428.70634707326</v>
       </c>
       <c r="H112" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
@@ -4180,7 +4180,7 @@
         <v>-42522.44524707326</v>
       </c>
       <c r="H115" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
@@ -4213,7 +4213,7 @@
         <v>-46369.90094707326</v>
       </c>
       <c r="H116" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
@@ -4246,7 +4246,7 @@
         <v>-46369.90094707326</v>
       </c>
       <c r="H117" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
@@ -4279,7 +4279,7 @@
         <v>-46369.90094707326</v>
       </c>
       <c r="H118" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
@@ -4312,7 +4312,7 @@
         <v>-46369.56794707326</v>
       </c>
       <c r="H119" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
@@ -4345,7 +4345,7 @@
         <v>-47148.07474707327</v>
       </c>
       <c r="H120" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
@@ -4378,7 +4378,7 @@
         <v>-47131.78824707327</v>
       </c>
       <c r="H121" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
@@ -4411,7 +4411,7 @@
         <v>-47131.78824707327</v>
       </c>
       <c r="H122" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
@@ -4444,7 +4444,7 @@
         <v>-47753.22544707327</v>
       </c>
       <c r="H123" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
@@ -4807,7 +4807,7 @@
         <v>-48730.89634707326</v>
       </c>
       <c r="H134" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
@@ -4840,7 +4840,7 @@
         <v>-48965.91954707327</v>
       </c>
       <c r="H135" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
@@ -6952,14 +6952,10 @@
         <v>-72583.79430693919</v>
       </c>
       <c r="H199" t="n">
-        <v>1</v>
-      </c>
-      <c r="I199" t="n">
-        <v>2732</v>
-      </c>
-      <c r="J199" t="n">
-        <v>2732</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I199" t="inlineStr"/>
+      <c r="J199" t="inlineStr"/>
       <c r="K199" t="inlineStr"/>
       <c r="L199" t="n">
         <v>1</v>
@@ -6989,19 +6985,11 @@
         <v>-72584.76770693919</v>
       </c>
       <c r="H200" t="n">
-        <v>1</v>
-      </c>
-      <c r="I200" t="n">
-        <v>2740</v>
-      </c>
-      <c r="J200" t="n">
-        <v>2732</v>
-      </c>
-      <c r="K200" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I200" t="inlineStr"/>
+      <c r="J200" t="inlineStr"/>
+      <c r="K200" t="inlineStr"/>
       <c r="L200" t="n">
         <v>1</v>
       </c>
@@ -7033,14 +7021,8 @@
         <v>0</v>
       </c>
       <c r="I201" t="inlineStr"/>
-      <c r="J201" t="n">
-        <v>2732</v>
-      </c>
-      <c r="K201" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J201" t="inlineStr"/>
+      <c r="K201" t="inlineStr"/>
       <c r="L201" t="n">
         <v>1</v>
       </c>
@@ -7102,17 +7084,11 @@
         <v>-72321.80140693921</v>
       </c>
       <c r="H203" t="n">
-        <v>1</v>
-      </c>
-      <c r="I203" t="n">
-        <v>2742</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I203" t="inlineStr"/>
       <c r="J203" t="inlineStr"/>
-      <c r="K203" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="K203" t="inlineStr"/>
       <c r="L203" t="n">
         <v>1</v>
       </c>
@@ -7141,17 +7117,11 @@
         <v>-72780.6055069392</v>
       </c>
       <c r="H204" t="n">
-        <v>1</v>
-      </c>
-      <c r="I204" t="n">
-        <v>2744</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I204" t="inlineStr"/>
       <c r="J204" t="inlineStr"/>
-      <c r="K204" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K204" t="inlineStr"/>
       <c r="L204" t="n">
         <v>1</v>
       </c>
@@ -7180,17 +7150,11 @@
         <v>-73103.77870693921</v>
       </c>
       <c r="H205" t="n">
-        <v>1</v>
-      </c>
-      <c r="I205" t="n">
-        <v>2736</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I205" t="inlineStr"/>
       <c r="J205" t="inlineStr"/>
-      <c r="K205" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K205" t="inlineStr"/>
       <c r="L205" t="n">
         <v>1</v>
       </c>
@@ -7219,17 +7183,11 @@
         <v>-72970.77870693921</v>
       </c>
       <c r="H206" t="n">
-        <v>1</v>
-      </c>
-      <c r="I206" t="n">
-        <v>2735</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I206" t="inlineStr"/>
       <c r="J206" t="inlineStr"/>
-      <c r="K206" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K206" t="inlineStr"/>
       <c r="L206" t="n">
         <v>1</v>
       </c>
@@ -7258,17 +7216,11 @@
         <v>-73461.5792069392</v>
       </c>
       <c r="H207" t="n">
-        <v>1</v>
-      </c>
-      <c r="I207" t="n">
-        <v>2739</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I207" t="inlineStr"/>
       <c r="J207" t="inlineStr"/>
-      <c r="K207" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K207" t="inlineStr"/>
       <c r="L207" t="n">
         <v>1</v>
       </c>
@@ -7297,17 +7249,11 @@
         <v>-73462.3292069392</v>
       </c>
       <c r="H208" t="n">
-        <v>1</v>
-      </c>
-      <c r="I208" t="n">
-        <v>2733</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I208" t="inlineStr"/>
       <c r="J208" t="inlineStr"/>
-      <c r="K208" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K208" t="inlineStr"/>
       <c r="L208" t="n">
         <v>1</v>
       </c>
@@ -7336,17 +7282,11 @@
         <v>-72951.0939069392</v>
       </c>
       <c r="H209" t="n">
-        <v>1</v>
-      </c>
-      <c r="I209" t="n">
-        <v>2731</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I209" t="inlineStr"/>
       <c r="J209" t="inlineStr"/>
-      <c r="K209" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K209" t="inlineStr"/>
       <c r="L209" t="n">
         <v>1</v>
       </c>
@@ -7375,17 +7315,11 @@
         <v>-72975.0939069392</v>
       </c>
       <c r="H210" t="n">
-        <v>1</v>
-      </c>
-      <c r="I210" t="n">
-        <v>2741</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I210" t="inlineStr"/>
       <c r="J210" t="inlineStr"/>
-      <c r="K210" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K210" t="inlineStr"/>
       <c r="L210" t="n">
         <v>1</v>
       </c>
@@ -7414,17 +7348,11 @@
         <v>-72354.3675069392</v>
       </c>
       <c r="H211" t="n">
-        <v>1</v>
-      </c>
-      <c r="I211" t="n">
-        <v>2738</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I211" t="inlineStr"/>
       <c r="J211" t="inlineStr"/>
-      <c r="K211" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K211" t="inlineStr"/>
       <c r="L211" t="n">
         <v>1</v>
       </c>
@@ -7457,11 +7385,7 @@
       </c>
       <c r="I212" t="inlineStr"/>
       <c r="J212" t="inlineStr"/>
-      <c r="K212" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K212" t="inlineStr"/>
       <c r="L212" t="n">
         <v>1</v>
       </c>
@@ -7494,11 +7418,7 @@
       </c>
       <c r="I213" t="inlineStr"/>
       <c r="J213" t="inlineStr"/>
-      <c r="K213" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K213" t="inlineStr"/>
       <c r="L213" t="n">
         <v>1</v>
       </c>
@@ -7531,11 +7451,7 @@
       </c>
       <c r="I214" t="inlineStr"/>
       <c r="J214" t="inlineStr"/>
-      <c r="K214" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K214" t="inlineStr"/>
       <c r="L214" t="n">
         <v>1</v>
       </c>
@@ -7568,11 +7484,7 @@
       </c>
       <c r="I215" t="inlineStr"/>
       <c r="J215" t="inlineStr"/>
-      <c r="K215" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K215" t="inlineStr"/>
       <c r="L215" t="n">
         <v>1</v>
       </c>
@@ -7605,11 +7517,7 @@
       </c>
       <c r="I216" t="inlineStr"/>
       <c r="J216" t="inlineStr"/>
-      <c r="K216" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K216" t="inlineStr"/>
       <c r="L216" t="n">
         <v>1</v>
       </c>
@@ -7642,11 +7550,7 @@
       </c>
       <c r="I217" t="inlineStr"/>
       <c r="J217" t="inlineStr"/>
-      <c r="K217" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K217" t="inlineStr"/>
       <c r="L217" t="n">
         <v>1</v>
       </c>
@@ -7679,11 +7583,7 @@
       </c>
       <c r="I218" t="inlineStr"/>
       <c r="J218" t="inlineStr"/>
-      <c r="K218" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K218" t="inlineStr"/>
       <c r="L218" t="n">
         <v>1</v>
       </c>
@@ -7716,11 +7616,7 @@
       </c>
       <c r="I219" t="inlineStr"/>
       <c r="J219" t="inlineStr"/>
-      <c r="K219" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K219" t="inlineStr"/>
       <c r="L219" t="n">
         <v>1</v>
       </c>
@@ -7753,11 +7649,7 @@
       </c>
       <c r="I220" t="inlineStr"/>
       <c r="J220" t="inlineStr"/>
-      <c r="K220" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K220" t="inlineStr"/>
       <c r="L220" t="n">
         <v>1</v>
       </c>
@@ -7790,11 +7682,7 @@
       </c>
       <c r="I221" t="inlineStr"/>
       <c r="J221" t="inlineStr"/>
-      <c r="K221" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K221" t="inlineStr"/>
       <c r="L221" t="n">
         <v>1</v>
       </c>
@@ -7827,11 +7715,7 @@
       </c>
       <c r="I222" t="inlineStr"/>
       <c r="J222" t="inlineStr"/>
-      <c r="K222" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K222" t="inlineStr"/>
       <c r="L222" t="n">
         <v>1</v>
       </c>
@@ -7864,11 +7748,7 @@
       </c>
       <c r="I223" t="inlineStr"/>
       <c r="J223" t="inlineStr"/>
-      <c r="K223" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K223" t="inlineStr"/>
       <c r="L223" t="n">
         <v>1</v>
       </c>
@@ -7901,11 +7781,7 @@
       </c>
       <c r="I224" t="inlineStr"/>
       <c r="J224" t="inlineStr"/>
-      <c r="K224" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K224" t="inlineStr"/>
       <c r="L224" t="n">
         <v>1</v>
       </c>
@@ -7938,11 +7814,7 @@
       </c>
       <c r="I225" t="inlineStr"/>
       <c r="J225" t="inlineStr"/>
-      <c r="K225" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K225" t="inlineStr"/>
       <c r="L225" t="n">
         <v>1</v>
       </c>
@@ -7975,11 +7847,7 @@
       </c>
       <c r="I226" t="inlineStr"/>
       <c r="J226" t="inlineStr"/>
-      <c r="K226" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K226" t="inlineStr"/>
       <c r="L226" t="n">
         <v>1</v>
       </c>
@@ -8012,11 +7880,7 @@
       </c>
       <c r="I227" t="inlineStr"/>
       <c r="J227" t="inlineStr"/>
-      <c r="K227" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K227" t="inlineStr"/>
       <c r="L227" t="n">
         <v>1</v>
       </c>
@@ -8049,11 +7913,7 @@
       </c>
       <c r="I228" t="inlineStr"/>
       <c r="J228" t="inlineStr"/>
-      <c r="K228" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K228" t="inlineStr"/>
       <c r="L228" t="n">
         <v>1</v>
       </c>
@@ -8086,11 +7946,7 @@
       </c>
       <c r="I229" t="inlineStr"/>
       <c r="J229" t="inlineStr"/>
-      <c r="K229" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K229" t="inlineStr"/>
       <c r="L229" t="n">
         <v>1</v>
       </c>
@@ -8123,11 +7979,7 @@
       </c>
       <c r="I230" t="inlineStr"/>
       <c r="J230" t="inlineStr"/>
-      <c r="K230" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K230" t="inlineStr"/>
       <c r="L230" t="n">
         <v>1</v>
       </c>
@@ -8160,11 +8012,7 @@
       </c>
       <c r="I231" t="inlineStr"/>
       <c r="J231" t="inlineStr"/>
-      <c r="K231" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K231" t="inlineStr"/>
       <c r="L231" t="n">
         <v>1</v>
       </c>
@@ -8197,11 +8045,7 @@
       </c>
       <c r="I232" t="inlineStr"/>
       <c r="J232" t="inlineStr"/>
-      <c r="K232" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K232" t="inlineStr"/>
       <c r="L232" t="n">
         <v>1</v>
       </c>
@@ -8234,11 +8078,7 @@
       </c>
       <c r="I233" t="inlineStr"/>
       <c r="J233" t="inlineStr"/>
-      <c r="K233" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K233" t="inlineStr"/>
       <c r="L233" t="n">
         <v>1</v>
       </c>
@@ -8271,11 +8111,7 @@
       </c>
       <c r="I234" t="inlineStr"/>
       <c r="J234" t="inlineStr"/>
-      <c r="K234" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K234" t="inlineStr"/>
       <c r="L234" t="n">
         <v>1</v>
       </c>
@@ -8308,11 +8144,7 @@
       </c>
       <c r="I235" t="inlineStr"/>
       <c r="J235" t="inlineStr"/>
-      <c r="K235" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K235" t="inlineStr"/>
       <c r="L235" t="n">
         <v>1</v>
       </c>
@@ -8345,11 +8177,7 @@
       </c>
       <c r="I236" t="inlineStr"/>
       <c r="J236" t="inlineStr"/>
-      <c r="K236" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K236" t="inlineStr"/>
       <c r="L236" t="n">
         <v>1</v>
       </c>
@@ -8378,15 +8206,11 @@
         <v>-73657.72590693925</v>
       </c>
       <c r="H237" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I237" t="inlineStr"/>
       <c r="J237" t="inlineStr"/>
-      <c r="K237" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K237" t="inlineStr"/>
       <c r="L237" t="n">
         <v>1</v>
       </c>
@@ -8415,15 +8239,11 @@
         <v>-73769.43160693925</v>
       </c>
       <c r="H238" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I238" t="inlineStr"/>
       <c r="J238" t="inlineStr"/>
-      <c r="K238" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K238" t="inlineStr"/>
       <c r="L238" t="n">
         <v>1</v>
       </c>
@@ -8456,11 +8276,7 @@
       </c>
       <c r="I239" t="inlineStr"/>
       <c r="J239" t="inlineStr"/>
-      <c r="K239" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K239" t="inlineStr"/>
       <c r="L239" t="n">
         <v>1</v>
       </c>
@@ -8493,11 +8309,7 @@
       </c>
       <c r="I240" t="inlineStr"/>
       <c r="J240" t="inlineStr"/>
-      <c r="K240" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K240" t="inlineStr"/>
       <c r="L240" t="n">
         <v>1</v>
       </c>
@@ -8530,11 +8342,7 @@
       </c>
       <c r="I241" t="inlineStr"/>
       <c r="J241" t="inlineStr"/>
-      <c r="K241" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K241" t="inlineStr"/>
       <c r="L241" t="n">
         <v>1</v>
       </c>
@@ -8563,15 +8371,11 @@
         <v>-71703.1538899493</v>
       </c>
       <c r="H242" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I242" t="inlineStr"/>
       <c r="J242" t="inlineStr"/>
-      <c r="K242" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K242" t="inlineStr"/>
       <c r="L242" t="n">
         <v>1</v>
       </c>
@@ -8600,15 +8404,11 @@
         <v>-71962.44508994931</v>
       </c>
       <c r="H243" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I243" t="inlineStr"/>
       <c r="J243" t="inlineStr"/>
-      <c r="K243" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K243" t="inlineStr"/>
       <c r="L243" t="n">
         <v>1</v>
       </c>
@@ -8637,15 +8437,11 @@
         <v>-72019.4449899493</v>
       </c>
       <c r="H244" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I244" t="inlineStr"/>
       <c r="J244" t="inlineStr"/>
-      <c r="K244" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K244" t="inlineStr"/>
       <c r="L244" t="n">
         <v>1</v>
       </c>
@@ -8674,15 +8470,11 @@
         <v>-72019.4449899493</v>
       </c>
       <c r="H245" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I245" t="inlineStr"/>
       <c r="J245" t="inlineStr"/>
-      <c r="K245" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K245" t="inlineStr"/>
       <c r="L245" t="n">
         <v>1</v>
       </c>
@@ -8711,15 +8503,11 @@
         <v>-72278.0879899493</v>
       </c>
       <c r="H246" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I246" t="inlineStr"/>
       <c r="J246" t="inlineStr"/>
-      <c r="K246" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K246" t="inlineStr"/>
       <c r="L246" t="n">
         <v>1</v>
       </c>
@@ -8748,15 +8536,11 @@
         <v>-72278.0879899493</v>
       </c>
       <c r="H247" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I247" t="inlineStr"/>
       <c r="J247" t="inlineStr"/>
-      <c r="K247" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K247" t="inlineStr"/>
       <c r="L247" t="n">
         <v>1</v>
       </c>
@@ -8785,15 +8569,11 @@
         <v>-72278.0879899493</v>
       </c>
       <c r="H248" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I248" t="inlineStr"/>
       <c r="J248" t="inlineStr"/>
-      <c r="K248" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K248" t="inlineStr"/>
       <c r="L248" t="n">
         <v>1</v>
       </c>
@@ -8822,15 +8602,11 @@
         <v>-72487.8879899493</v>
       </c>
       <c r="H249" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I249" t="inlineStr"/>
       <c r="J249" t="inlineStr"/>
-      <c r="K249" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K249" t="inlineStr"/>
       <c r="L249" t="n">
         <v>1</v>
       </c>
@@ -8859,15 +8635,11 @@
         <v>-72840.02438994931</v>
       </c>
       <c r="H250" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I250" t="inlineStr"/>
       <c r="J250" t="inlineStr"/>
-      <c r="K250" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K250" t="inlineStr"/>
       <c r="L250" t="n">
         <v>1</v>
       </c>
@@ -8896,15 +8668,11 @@
         <v>-72840.02438994931</v>
       </c>
       <c r="H251" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I251" t="inlineStr"/>
       <c r="J251" t="inlineStr"/>
-      <c r="K251" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K251" t="inlineStr"/>
       <c r="L251" t="n">
         <v>1</v>
       </c>
@@ -8933,17 +8701,11 @@
         <v>-72633.39818994931</v>
       </c>
       <c r="H252" t="n">
-        <v>1</v>
-      </c>
-      <c r="I252" t="n">
-        <v>2754</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I252" t="inlineStr"/>
       <c r="J252" t="inlineStr"/>
-      <c r="K252" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K252" t="inlineStr"/>
       <c r="L252" t="n">
         <v>1</v>
       </c>
@@ -8972,15 +8734,11 @@
         <v>-72632.63188994931</v>
       </c>
       <c r="H253" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I253" t="inlineStr"/>
       <c r="J253" t="inlineStr"/>
-      <c r="K253" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K253" t="inlineStr"/>
       <c r="L253" t="n">
         <v>1</v>
       </c>
@@ -9009,15 +8767,11 @@
         <v>-72993.6669899493</v>
       </c>
       <c r="H254" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I254" t="inlineStr"/>
       <c r="J254" t="inlineStr"/>
-      <c r="K254" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K254" t="inlineStr"/>
       <c r="L254" t="n">
         <v>1</v>
       </c>
@@ -9046,15 +8800,11 @@
         <v>-72993.6669899493</v>
       </c>
       <c r="H255" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I255" t="inlineStr"/>
       <c r="J255" t="inlineStr"/>
-      <c r="K255" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K255" t="inlineStr"/>
       <c r="L255" t="n">
         <v>1</v>
       </c>
@@ -9087,11 +8837,7 @@
       </c>
       <c r="I256" t="inlineStr"/>
       <c r="J256" t="inlineStr"/>
-      <c r="K256" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K256" t="inlineStr"/>
       <c r="L256" t="n">
         <v>1</v>
       </c>
@@ -9124,11 +8870,7 @@
       </c>
       <c r="I257" t="inlineStr"/>
       <c r="J257" t="inlineStr"/>
-      <c r="K257" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K257" t="inlineStr"/>
       <c r="L257" t="n">
         <v>1</v>
       </c>
@@ -9161,11 +8903,7 @@
       </c>
       <c r="I258" t="inlineStr"/>
       <c r="J258" t="inlineStr"/>
-      <c r="K258" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K258" t="inlineStr"/>
       <c r="L258" t="n">
         <v>1</v>
       </c>
@@ -9198,11 +8936,7 @@
       </c>
       <c r="I259" t="inlineStr"/>
       <c r="J259" t="inlineStr"/>
-      <c r="K259" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K259" t="inlineStr"/>
       <c r="L259" t="n">
         <v>1</v>
       </c>
@@ -9235,11 +8969,7 @@
       </c>
       <c r="I260" t="inlineStr"/>
       <c r="J260" t="inlineStr"/>
-      <c r="K260" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K260" t="inlineStr"/>
       <c r="L260" t="n">
         <v>1</v>
       </c>
@@ -9272,11 +9002,7 @@
       </c>
       <c r="I261" t="inlineStr"/>
       <c r="J261" t="inlineStr"/>
-      <c r="K261" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K261" t="inlineStr"/>
       <c r="L261" t="n">
         <v>1</v>
       </c>
@@ -9309,11 +9035,7 @@
       </c>
       <c r="I262" t="inlineStr"/>
       <c r="J262" t="inlineStr"/>
-      <c r="K262" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K262" t="inlineStr"/>
       <c r="L262" t="n">
         <v>1</v>
       </c>
@@ -9346,11 +9068,7 @@
       </c>
       <c r="I263" t="inlineStr"/>
       <c r="J263" t="inlineStr"/>
-      <c r="K263" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K263" t="inlineStr"/>
       <c r="L263" t="n">
         <v>1</v>
       </c>
@@ -9383,11 +9101,7 @@
       </c>
       <c r="I264" t="inlineStr"/>
       <c r="J264" t="inlineStr"/>
-      <c r="K264" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K264" t="inlineStr"/>
       <c r="L264" t="n">
         <v>1</v>
       </c>
@@ -9416,15 +9130,11 @@
         <v>-74220.8587899493</v>
       </c>
       <c r="H265" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I265" t="inlineStr"/>
       <c r="J265" t="inlineStr"/>
-      <c r="K265" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K265" t="inlineStr"/>
       <c r="L265" t="n">
         <v>1</v>
       </c>
@@ -9457,11 +9167,7 @@
       </c>
       <c r="I266" t="inlineStr"/>
       <c r="J266" t="inlineStr"/>
-      <c r="K266" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K266" t="inlineStr"/>
       <c r="L266" t="n">
         <v>1</v>
       </c>
@@ -9494,11 +9200,7 @@
       </c>
       <c r="I267" t="inlineStr"/>
       <c r="J267" t="inlineStr"/>
-      <c r="K267" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K267" t="inlineStr"/>
       <c r="L267" t="n">
         <v>1</v>
       </c>
@@ -9527,15 +9229,11 @@
         <v>-74136.3986899493</v>
       </c>
       <c r="H268" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I268" t="inlineStr"/>
       <c r="J268" t="inlineStr"/>
-      <c r="K268" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K268" t="inlineStr"/>
       <c r="L268" t="n">
         <v>1</v>
       </c>
@@ -9568,11 +9266,7 @@
       </c>
       <c r="I269" t="inlineStr"/>
       <c r="J269" t="inlineStr"/>
-      <c r="K269" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K269" t="inlineStr"/>
       <c r="L269" t="n">
         <v>1</v>
       </c>
@@ -9605,11 +9299,7 @@
       </c>
       <c r="I270" t="inlineStr"/>
       <c r="J270" t="inlineStr"/>
-      <c r="K270" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K270" t="inlineStr"/>
       <c r="L270" t="n">
         <v>1</v>
       </c>
@@ -9642,11 +9332,7 @@
       </c>
       <c r="I271" t="inlineStr"/>
       <c r="J271" t="inlineStr"/>
-      <c r="K271" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K271" t="inlineStr"/>
       <c r="L271" t="n">
         <v>1</v>
       </c>
@@ -9679,11 +9365,7 @@
       </c>
       <c r="I272" t="inlineStr"/>
       <c r="J272" t="inlineStr"/>
-      <c r="K272" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K272" t="inlineStr"/>
       <c r="L272" t="n">
         <v>1</v>
       </c>
@@ -9716,11 +9398,7 @@
       </c>
       <c r="I273" t="inlineStr"/>
       <c r="J273" t="inlineStr"/>
-      <c r="K273" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K273" t="inlineStr"/>
       <c r="L273" t="n">
         <v>1</v>
       </c>
@@ -9753,11 +9431,7 @@
       </c>
       <c r="I274" t="inlineStr"/>
       <c r="J274" t="inlineStr"/>
-      <c r="K274" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K274" t="inlineStr"/>
       <c r="L274" t="n">
         <v>1</v>
       </c>
@@ -9790,11 +9464,7 @@
       </c>
       <c r="I275" t="inlineStr"/>
       <c r="J275" t="inlineStr"/>
-      <c r="K275" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K275" t="inlineStr"/>
       <c r="L275" t="n">
         <v>1</v>
       </c>
@@ -9827,11 +9497,7 @@
       </c>
       <c r="I276" t="inlineStr"/>
       <c r="J276" t="inlineStr"/>
-      <c r="K276" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K276" t="inlineStr"/>
       <c r="L276" t="n">
         <v>1</v>
       </c>
@@ -9864,11 +9530,7 @@
       </c>
       <c r="I277" t="inlineStr"/>
       <c r="J277" t="inlineStr"/>
-      <c r="K277" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K277" t="inlineStr"/>
       <c r="L277" t="n">
         <v>1</v>
       </c>
@@ -9901,11 +9563,7 @@
       </c>
       <c r="I278" t="inlineStr"/>
       <c r="J278" t="inlineStr"/>
-      <c r="K278" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K278" t="inlineStr"/>
       <c r="L278" t="n">
         <v>1</v>
       </c>
@@ -9938,11 +9596,7 @@
       </c>
       <c r="I279" t="inlineStr"/>
       <c r="J279" t="inlineStr"/>
-      <c r="K279" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K279" t="inlineStr"/>
       <c r="L279" t="n">
         <v>1</v>
       </c>
@@ -9975,11 +9629,7 @@
       </c>
       <c r="I280" t="inlineStr"/>
       <c r="J280" t="inlineStr"/>
-      <c r="K280" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K280" t="inlineStr"/>
       <c r="L280" t="n">
         <v>1</v>
       </c>
@@ -10012,11 +9662,7 @@
       </c>
       <c r="I281" t="inlineStr"/>
       <c r="J281" t="inlineStr"/>
-      <c r="K281" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K281" t="inlineStr"/>
       <c r="L281" t="n">
         <v>1</v>
       </c>
@@ -10049,11 +9695,7 @@
       </c>
       <c r="I282" t="inlineStr"/>
       <c r="J282" t="inlineStr"/>
-      <c r="K282" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K282" t="inlineStr"/>
       <c r="L282" t="n">
         <v>1</v>
       </c>
@@ -10086,11 +9728,7 @@
       </c>
       <c r="I283" t="inlineStr"/>
       <c r="J283" t="inlineStr"/>
-      <c r="K283" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K283" t="inlineStr"/>
       <c r="L283" t="n">
         <v>1</v>
       </c>
@@ -10123,11 +9761,7 @@
       </c>
       <c r="I284" t="inlineStr"/>
       <c r="J284" t="inlineStr"/>
-      <c r="K284" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K284" t="inlineStr"/>
       <c r="L284" t="n">
         <v>1</v>
       </c>
@@ -10160,11 +9794,7 @@
       </c>
       <c r="I285" t="inlineStr"/>
       <c r="J285" t="inlineStr"/>
-      <c r="K285" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K285" t="inlineStr"/>
       <c r="L285" t="n">
         <v>1</v>
       </c>
@@ -10197,11 +9827,7 @@
       </c>
       <c r="I286" t="inlineStr"/>
       <c r="J286" t="inlineStr"/>
-      <c r="K286" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K286" t="inlineStr"/>
       <c r="L286" t="n">
         <v>1</v>
       </c>
@@ -10234,11 +9860,7 @@
       </c>
       <c r="I287" t="inlineStr"/>
       <c r="J287" t="inlineStr"/>
-      <c r="K287" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K287" t="inlineStr"/>
       <c r="L287" t="n">
         <v>1</v>
       </c>
@@ -10271,11 +9893,7 @@
       </c>
       <c r="I288" t="inlineStr"/>
       <c r="J288" t="inlineStr"/>
-      <c r="K288" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K288" t="inlineStr"/>
       <c r="L288" t="n">
         <v>1</v>
       </c>
@@ -10308,11 +9926,7 @@
       </c>
       <c r="I289" t="inlineStr"/>
       <c r="J289" t="inlineStr"/>
-      <c r="K289" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K289" t="inlineStr"/>
       <c r="L289" t="n">
         <v>1</v>
       </c>
@@ -10345,11 +9959,7 @@
       </c>
       <c r="I290" t="inlineStr"/>
       <c r="J290" t="inlineStr"/>
-      <c r="K290" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K290" t="inlineStr"/>
       <c r="L290" t="n">
         <v>1</v>
       </c>
@@ -10382,11 +9992,7 @@
       </c>
       <c r="I291" t="inlineStr"/>
       <c r="J291" t="inlineStr"/>
-      <c r="K291" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K291" t="inlineStr"/>
       <c r="L291" t="n">
         <v>1</v>
       </c>
@@ -10419,11 +10025,7 @@
       </c>
       <c r="I292" t="inlineStr"/>
       <c r="J292" t="inlineStr"/>
-      <c r="K292" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K292" t="inlineStr"/>
       <c r="L292" t="n">
         <v>1</v>
       </c>
@@ -10456,11 +10058,7 @@
       </c>
       <c r="I293" t="inlineStr"/>
       <c r="J293" t="inlineStr"/>
-      <c r="K293" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K293" t="inlineStr"/>
       <c r="L293" t="n">
         <v>1</v>
       </c>
@@ -10493,11 +10091,7 @@
       </c>
       <c r="I294" t="inlineStr"/>
       <c r="J294" t="inlineStr"/>
-      <c r="K294" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K294" t="inlineStr"/>
       <c r="L294" t="n">
         <v>1</v>
       </c>
@@ -10530,11 +10124,7 @@
       </c>
       <c r="I295" t="inlineStr"/>
       <c r="J295" t="inlineStr"/>
-      <c r="K295" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K295" t="inlineStr"/>
       <c r="L295" t="n">
         <v>1</v>
       </c>
@@ -10567,11 +10157,7 @@
       </c>
       <c r="I296" t="inlineStr"/>
       <c r="J296" t="inlineStr"/>
-      <c r="K296" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K296" t="inlineStr"/>
       <c r="L296" t="n">
         <v>1</v>
       </c>
@@ -10604,11 +10190,7 @@
       </c>
       <c r="I297" t="inlineStr"/>
       <c r="J297" t="inlineStr"/>
-      <c r="K297" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K297" t="inlineStr"/>
       <c r="L297" t="n">
         <v>1</v>
       </c>
@@ -10641,11 +10223,7 @@
       </c>
       <c r="I298" t="inlineStr"/>
       <c r="J298" t="inlineStr"/>
-      <c r="K298" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K298" t="inlineStr"/>
       <c r="L298" t="n">
         <v>1</v>
       </c>
@@ -10678,11 +10256,7 @@
       </c>
       <c r="I299" t="inlineStr"/>
       <c r="J299" t="inlineStr"/>
-      <c r="K299" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K299" t="inlineStr"/>
       <c r="L299" t="n">
         <v>1</v>
       </c>
@@ -10715,11 +10289,7 @@
       </c>
       <c r="I300" t="inlineStr"/>
       <c r="J300" t="inlineStr"/>
-      <c r="K300" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K300" t="inlineStr"/>
       <c r="L300" t="n">
         <v>1</v>
       </c>
@@ -10752,11 +10322,7 @@
       </c>
       <c r="I301" t="inlineStr"/>
       <c r="J301" t="inlineStr"/>
-      <c r="K301" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K301" t="inlineStr"/>
       <c r="L301" t="n">
         <v>1</v>
       </c>
@@ -10789,11 +10355,7 @@
       </c>
       <c r="I302" t="inlineStr"/>
       <c r="J302" t="inlineStr"/>
-      <c r="K302" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K302" t="inlineStr"/>
       <c r="L302" t="n">
         <v>1</v>
       </c>
@@ -10826,11 +10388,7 @@
       </c>
       <c r="I303" t="inlineStr"/>
       <c r="J303" t="inlineStr"/>
-      <c r="K303" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K303" t="inlineStr"/>
       <c r="L303" t="n">
         <v>1</v>
       </c>
@@ -10863,11 +10421,7 @@
       </c>
       <c r="I304" t="inlineStr"/>
       <c r="J304" t="inlineStr"/>
-      <c r="K304" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K304" t="inlineStr"/>
       <c r="L304" t="n">
         <v>1</v>
       </c>
@@ -10900,11 +10454,7 @@
       </c>
       <c r="I305" t="inlineStr"/>
       <c r="J305" t="inlineStr"/>
-      <c r="K305" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K305" t="inlineStr"/>
       <c r="L305" t="n">
         <v>1</v>
       </c>
@@ -10937,11 +10487,7 @@
       </c>
       <c r="I306" t="inlineStr"/>
       <c r="J306" t="inlineStr"/>
-      <c r="K306" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K306" t="inlineStr"/>
       <c r="L306" t="n">
         <v>1</v>
       </c>
@@ -10974,11 +10520,7 @@
       </c>
       <c r="I307" t="inlineStr"/>
       <c r="J307" t="inlineStr"/>
-      <c r="K307" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K307" t="inlineStr"/>
       <c r="L307" t="n">
         <v>1</v>
       </c>
@@ -11011,11 +10553,7 @@
       </c>
       <c r="I308" t="inlineStr"/>
       <c r="J308" t="inlineStr"/>
-      <c r="K308" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K308" t="inlineStr"/>
       <c r="L308" t="n">
         <v>1</v>
       </c>
@@ -11048,11 +10586,7 @@
       </c>
       <c r="I309" t="inlineStr"/>
       <c r="J309" t="inlineStr"/>
-      <c r="K309" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K309" t="inlineStr"/>
       <c r="L309" t="n">
         <v>1</v>
       </c>
@@ -11085,11 +10619,7 @@
       </c>
       <c r="I310" t="inlineStr"/>
       <c r="J310" t="inlineStr"/>
-      <c r="K310" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K310" t="inlineStr"/>
       <c r="L310" t="n">
         <v>1</v>
       </c>
@@ -11122,11 +10652,7 @@
       </c>
       <c r="I311" t="inlineStr"/>
       <c r="J311" t="inlineStr"/>
-      <c r="K311" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K311" t="inlineStr"/>
       <c r="L311" t="n">
         <v>1</v>
       </c>
@@ -11159,11 +10685,7 @@
       </c>
       <c r="I312" t="inlineStr"/>
       <c r="J312" t="inlineStr"/>
-      <c r="K312" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K312" t="inlineStr"/>
       <c r="L312" t="n">
         <v>1</v>
       </c>
@@ -11196,11 +10718,7 @@
       </c>
       <c r="I313" t="inlineStr"/>
       <c r="J313" t="inlineStr"/>
-      <c r="K313" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K313" t="inlineStr"/>
       <c r="L313" t="n">
         <v>1</v>
       </c>
@@ -11233,11 +10751,7 @@
       </c>
       <c r="I314" t="inlineStr"/>
       <c r="J314" t="inlineStr"/>
-      <c r="K314" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K314" t="inlineStr"/>
       <c r="L314" t="n">
         <v>1</v>
       </c>
@@ -11270,11 +10784,7 @@
       </c>
       <c r="I315" t="inlineStr"/>
       <c r="J315" t="inlineStr"/>
-      <c r="K315" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K315" t="inlineStr"/>
       <c r="L315" t="n">
         <v>1</v>
       </c>
@@ -11307,11 +10817,7 @@
       </c>
       <c r="I316" t="inlineStr"/>
       <c r="J316" t="inlineStr"/>
-      <c r="K316" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K316" t="inlineStr"/>
       <c r="L316" t="n">
         <v>1</v>
       </c>
@@ -11344,11 +10850,7 @@
       </c>
       <c r="I317" t="inlineStr"/>
       <c r="J317" t="inlineStr"/>
-      <c r="K317" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K317" t="inlineStr"/>
       <c r="L317" t="n">
         <v>1</v>
       </c>
@@ -11381,11 +10883,7 @@
       </c>
       <c r="I318" t="inlineStr"/>
       <c r="J318" t="inlineStr"/>
-      <c r="K318" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K318" t="inlineStr"/>
       <c r="L318" t="n">
         <v>1</v>
       </c>
@@ -11418,11 +10916,7 @@
       </c>
       <c r="I319" t="inlineStr"/>
       <c r="J319" t="inlineStr"/>
-      <c r="K319" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K319" t="inlineStr"/>
       <c r="L319" t="n">
         <v>1</v>
       </c>
@@ -11455,11 +10949,7 @@
       </c>
       <c r="I320" t="inlineStr"/>
       <c r="J320" t="inlineStr"/>
-      <c r="K320" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K320" t="inlineStr"/>
       <c r="L320" t="n">
         <v>1</v>
       </c>
@@ -11492,11 +10982,7 @@
       </c>
       <c r="I321" t="inlineStr"/>
       <c r="J321" t="inlineStr"/>
-      <c r="K321" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K321" t="inlineStr"/>
       <c r="L321" t="n">
         <v>1</v>
       </c>
@@ -11529,11 +11015,7 @@
       </c>
       <c r="I322" t="inlineStr"/>
       <c r="J322" t="inlineStr"/>
-      <c r="K322" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K322" t="inlineStr"/>
       <c r="L322" t="n">
         <v>1</v>
       </c>
@@ -11566,11 +11048,7 @@
       </c>
       <c r="I323" t="inlineStr"/>
       <c r="J323" t="inlineStr"/>
-      <c r="K323" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K323" t="inlineStr"/>
       <c r="L323" t="n">
         <v>1</v>
       </c>
@@ -11603,11 +11081,7 @@
       </c>
       <c r="I324" t="inlineStr"/>
       <c r="J324" t="inlineStr"/>
-      <c r="K324" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K324" t="inlineStr"/>
       <c r="L324" t="n">
         <v>1</v>
       </c>
@@ -11640,11 +11114,7 @@
       </c>
       <c r="I325" t="inlineStr"/>
       <c r="J325" t="inlineStr"/>
-      <c r="K325" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K325" t="inlineStr"/>
       <c r="L325" t="n">
         <v>1</v>
       </c>
@@ -11677,11 +11147,7 @@
       </c>
       <c r="I326" t="inlineStr"/>
       <c r="J326" t="inlineStr"/>
-      <c r="K326" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K326" t="inlineStr"/>
       <c r="L326" t="n">
         <v>1</v>
       </c>
@@ -11714,11 +11180,7 @@
       </c>
       <c r="I327" t="inlineStr"/>
       <c r="J327" t="inlineStr"/>
-      <c r="K327" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K327" t="inlineStr"/>
       <c r="L327" t="n">
         <v>1</v>
       </c>
@@ -11751,11 +11213,7 @@
       </c>
       <c r="I328" t="inlineStr"/>
       <c r="J328" t="inlineStr"/>
-      <c r="K328" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K328" t="inlineStr"/>
       <c r="L328" t="n">
         <v>1</v>
       </c>
@@ -11788,11 +11246,7 @@
       </c>
       <c r="I329" t="inlineStr"/>
       <c r="J329" t="inlineStr"/>
-      <c r="K329" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K329" t="inlineStr"/>
       <c r="L329" t="n">
         <v>1</v>
       </c>
@@ -11825,11 +11279,7 @@
       </c>
       <c r="I330" t="inlineStr"/>
       <c r="J330" t="inlineStr"/>
-      <c r="K330" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K330" t="inlineStr"/>
       <c r="L330" t="n">
         <v>1</v>
       </c>
@@ -11862,11 +11312,7 @@
       </c>
       <c r="I331" t="inlineStr"/>
       <c r="J331" t="inlineStr"/>
-      <c r="K331" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K331" t="inlineStr"/>
       <c r="L331" t="n">
         <v>1</v>
       </c>
@@ -11899,11 +11345,7 @@
       </c>
       <c r="I332" t="inlineStr"/>
       <c r="J332" t="inlineStr"/>
-      <c r="K332" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K332" t="inlineStr"/>
       <c r="L332" t="n">
         <v>1</v>
       </c>
@@ -11936,11 +11378,7 @@
       </c>
       <c r="I333" t="inlineStr"/>
       <c r="J333" t="inlineStr"/>
-      <c r="K333" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K333" t="inlineStr"/>
       <c r="L333" t="n">
         <v>1</v>
       </c>
@@ -11973,11 +11411,7 @@
       </c>
       <c r="I334" t="inlineStr"/>
       <c r="J334" t="inlineStr"/>
-      <c r="K334" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K334" t="inlineStr"/>
       <c r="L334" t="n">
         <v>1</v>
       </c>
@@ -12010,11 +11444,7 @@
       </c>
       <c r="I335" t="inlineStr"/>
       <c r="J335" t="inlineStr"/>
-      <c r="K335" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K335" t="inlineStr"/>
       <c r="L335" t="n">
         <v>1</v>
       </c>
@@ -12047,11 +11477,7 @@
       </c>
       <c r="I336" t="inlineStr"/>
       <c r="J336" t="inlineStr"/>
-      <c r="K336" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K336" t="inlineStr"/>
       <c r="L336" t="n">
         <v>1</v>
       </c>
@@ -12084,11 +11510,7 @@
       </c>
       <c r="I337" t="inlineStr"/>
       <c r="J337" t="inlineStr"/>
-      <c r="K337" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K337" t="inlineStr"/>
       <c r="L337" t="n">
         <v>1</v>
       </c>
@@ -12121,11 +11543,7 @@
       </c>
       <c r="I338" t="inlineStr"/>
       <c r="J338" t="inlineStr"/>
-      <c r="K338" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K338" t="inlineStr"/>
       <c r="L338" t="n">
         <v>1</v>
       </c>
@@ -12158,11 +11576,7 @@
       </c>
       <c r="I339" t="inlineStr"/>
       <c r="J339" t="inlineStr"/>
-      <c r="K339" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K339" t="inlineStr"/>
       <c r="L339" t="n">
         <v>1</v>
       </c>
@@ -12195,11 +11609,7 @@
       </c>
       <c r="I340" t="inlineStr"/>
       <c r="J340" t="inlineStr"/>
-      <c r="K340" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K340" t="inlineStr"/>
       <c r="L340" t="n">
         <v>1</v>
       </c>
@@ -12232,11 +11642,7 @@
       </c>
       <c r="I341" t="inlineStr"/>
       <c r="J341" t="inlineStr"/>
-      <c r="K341" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K341" t="inlineStr"/>
       <c r="L341" t="n">
         <v>1</v>
       </c>
@@ -12269,11 +11675,7 @@
       </c>
       <c r="I342" t="inlineStr"/>
       <c r="J342" t="inlineStr"/>
-      <c r="K342" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K342" t="inlineStr"/>
       <c r="L342" t="n">
         <v>1</v>
       </c>
@@ -12306,11 +11708,7 @@
       </c>
       <c r="I343" t="inlineStr"/>
       <c r="J343" t="inlineStr"/>
-      <c r="K343" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K343" t="inlineStr"/>
       <c r="L343" t="n">
         <v>1</v>
       </c>
@@ -12343,11 +11741,7 @@
       </c>
       <c r="I344" t="inlineStr"/>
       <c r="J344" t="inlineStr"/>
-      <c r="K344" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K344" t="inlineStr"/>
       <c r="L344" t="n">
         <v>1</v>
       </c>
@@ -12380,11 +11774,7 @@
       </c>
       <c r="I345" t="inlineStr"/>
       <c r="J345" t="inlineStr"/>
-      <c r="K345" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K345" t="inlineStr"/>
       <c r="L345" t="n">
         <v>1</v>
       </c>
@@ -12417,11 +11807,7 @@
       </c>
       <c r="I346" t="inlineStr"/>
       <c r="J346" t="inlineStr"/>
-      <c r="K346" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K346" t="inlineStr"/>
       <c r="L346" t="n">
         <v>1</v>
       </c>
@@ -12454,11 +11840,7 @@
       </c>
       <c r="I347" t="inlineStr"/>
       <c r="J347" t="inlineStr"/>
-      <c r="K347" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K347" t="inlineStr"/>
       <c r="L347" t="n">
         <v>1</v>
       </c>
@@ -12491,11 +11873,7 @@
       </c>
       <c r="I348" t="inlineStr"/>
       <c r="J348" t="inlineStr"/>
-      <c r="K348" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K348" t="inlineStr"/>
       <c r="L348" t="n">
         <v>1</v>
       </c>
@@ -12528,11 +11906,7 @@
       </c>
       <c r="I349" t="inlineStr"/>
       <c r="J349" t="inlineStr"/>
-      <c r="K349" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K349" t="inlineStr"/>
       <c r="L349" t="n">
         <v>1</v>
       </c>
@@ -12565,11 +11939,7 @@
       </c>
       <c r="I350" t="inlineStr"/>
       <c r="J350" t="inlineStr"/>
-      <c r="K350" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K350" t="inlineStr"/>
       <c r="L350" t="n">
         <v>1</v>
       </c>
@@ -12602,11 +11972,7 @@
       </c>
       <c r="I351" t="inlineStr"/>
       <c r="J351" t="inlineStr"/>
-      <c r="K351" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K351" t="inlineStr"/>
       <c r="L351" t="n">
         <v>1</v>
       </c>
@@ -12639,11 +12005,7 @@
       </c>
       <c r="I352" t="inlineStr"/>
       <c r="J352" t="inlineStr"/>
-      <c r="K352" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K352" t="inlineStr"/>
       <c r="L352" t="n">
         <v>1</v>
       </c>
@@ -12676,11 +12038,7 @@
       </c>
       <c r="I353" t="inlineStr"/>
       <c r="J353" t="inlineStr"/>
-      <c r="K353" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K353" t="inlineStr"/>
       <c r="L353" t="n">
         <v>1</v>
       </c>
@@ -12713,11 +12071,7 @@
       </c>
       <c r="I354" t="inlineStr"/>
       <c r="J354" t="inlineStr"/>
-      <c r="K354" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K354" t="inlineStr"/>
       <c r="L354" t="n">
         <v>1</v>
       </c>
@@ -12750,11 +12104,7 @@
       </c>
       <c r="I355" t="inlineStr"/>
       <c r="J355" t="inlineStr"/>
-      <c r="K355" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K355" t="inlineStr"/>
       <c r="L355" t="n">
         <v>1</v>
       </c>
@@ -12783,15 +12133,11 @@
         <v>-78824.93730070199</v>
       </c>
       <c r="H356" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I356" t="inlineStr"/>
       <c r="J356" t="inlineStr"/>
-      <c r="K356" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K356" t="inlineStr"/>
       <c r="L356" t="n">
         <v>1</v>
       </c>
@@ -12820,15 +12166,11 @@
         <v>-79028.046200702</v>
       </c>
       <c r="H357" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I357" t="inlineStr"/>
       <c r="J357" t="inlineStr"/>
-      <c r="K357" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K357" t="inlineStr"/>
       <c r="L357" t="n">
         <v>1</v>
       </c>
@@ -12857,15 +12199,11 @@
         <v>-79028.046200702</v>
       </c>
       <c r="H358" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I358" t="inlineStr"/>
       <c r="J358" t="inlineStr"/>
-      <c r="K358" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K358" t="inlineStr"/>
       <c r="L358" t="n">
         <v>1</v>
       </c>
@@ -12894,15 +12232,11 @@
         <v>-79028.046200702</v>
       </c>
       <c r="H359" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I359" t="inlineStr"/>
       <c r="J359" t="inlineStr"/>
-      <c r="K359" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K359" t="inlineStr"/>
       <c r="L359" t="n">
         <v>1</v>
       </c>
@@ -12931,15 +12265,11 @@
         <v>-76303.23520070199</v>
       </c>
       <c r="H360" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I360" t="inlineStr"/>
       <c r="J360" t="inlineStr"/>
-      <c r="K360" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K360" t="inlineStr"/>
       <c r="L360" t="n">
         <v>1</v>
       </c>
@@ -12968,15 +12298,11 @@
         <v>-76673.39940070199</v>
       </c>
       <c r="H361" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I361" t="inlineStr"/>
       <c r="J361" t="inlineStr"/>
-      <c r="K361" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K361" t="inlineStr"/>
       <c r="L361" t="n">
         <v>1</v>
       </c>
@@ -13005,15 +12331,11 @@
         <v>-76556.42170070199</v>
       </c>
       <c r="H362" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I362" t="inlineStr"/>
       <c r="J362" t="inlineStr"/>
-      <c r="K362" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K362" t="inlineStr"/>
       <c r="L362" t="n">
         <v>1</v>
       </c>
@@ -13042,15 +12364,11 @@
         <v>-68546.30740070199</v>
       </c>
       <c r="H363" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I363" t="inlineStr"/>
       <c r="J363" t="inlineStr"/>
-      <c r="K363" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K363" t="inlineStr"/>
       <c r="L363" t="n">
         <v>1</v>
       </c>
@@ -13079,15 +12397,11 @@
         <v>-69833.91820070198</v>
       </c>
       <c r="H364" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I364" t="inlineStr"/>
       <c r="J364" t="inlineStr"/>
-      <c r="K364" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K364" t="inlineStr"/>
       <c r="L364" t="n">
         <v>1</v>
       </c>
@@ -13116,15 +12430,11 @@
         <v>-68562.67880070198</v>
       </c>
       <c r="H365" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I365" t="inlineStr"/>
       <c r="J365" t="inlineStr"/>
-      <c r="K365" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K365" t="inlineStr"/>
       <c r="L365" t="n">
         <v>1</v>
       </c>
@@ -13153,15 +12463,11 @@
         <v>-66885.67880070198</v>
       </c>
       <c r="H366" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I366" t="inlineStr"/>
       <c r="J366" t="inlineStr"/>
-      <c r="K366" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K366" t="inlineStr"/>
       <c r="L366" t="n">
         <v>1</v>
       </c>
@@ -13190,15 +12496,11 @@
         <v>-66885.67880070198</v>
       </c>
       <c r="H367" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I367" t="inlineStr"/>
       <c r="J367" t="inlineStr"/>
-      <c r="K367" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K367" t="inlineStr"/>
       <c r="L367" t="n">
         <v>1</v>
       </c>
@@ -13227,15 +12529,11 @@
         <v>-67259.87400070198</v>
       </c>
       <c r="H368" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I368" t="inlineStr"/>
       <c r="J368" t="inlineStr"/>
-      <c r="K368" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K368" t="inlineStr"/>
       <c r="L368" t="n">
         <v>1</v>
       </c>
@@ -13264,15 +12562,11 @@
         <v>-67629.73150070198</v>
       </c>
       <c r="H369" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I369" t="inlineStr"/>
       <c r="J369" t="inlineStr"/>
-      <c r="K369" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K369" t="inlineStr"/>
       <c r="L369" t="n">
         <v>1</v>
       </c>
@@ -13301,15 +12595,11 @@
         <v>-68126.45390070198</v>
       </c>
       <c r="H370" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I370" t="inlineStr"/>
       <c r="J370" t="inlineStr"/>
-      <c r="K370" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K370" t="inlineStr"/>
       <c r="L370" t="n">
         <v>1</v>
       </c>
@@ -13338,15 +12628,11 @@
         <v>-65626.45390070198</v>
       </c>
       <c r="H371" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I371" t="inlineStr"/>
       <c r="J371" t="inlineStr"/>
-      <c r="K371" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K371" t="inlineStr"/>
       <c r="L371" t="n">
         <v>1</v>
       </c>
@@ -13375,15 +12661,11 @@
         <v>-65633.55032927341</v>
       </c>
       <c r="H372" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I372" t="inlineStr"/>
       <c r="J372" t="inlineStr"/>
-      <c r="K372" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K372" t="inlineStr"/>
       <c r="L372" t="n">
         <v>1</v>
       </c>
@@ -13412,15 +12694,11 @@
         <v>-65865.3118292734</v>
       </c>
       <c r="H373" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I373" t="inlineStr"/>
       <c r="J373" t="inlineStr"/>
-      <c r="K373" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K373" t="inlineStr"/>
       <c r="L373" t="n">
         <v>1</v>
       </c>
@@ -13449,15 +12727,11 @@
         <v>-66055.5890292734</v>
       </c>
       <c r="H374" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I374" t="inlineStr"/>
       <c r="J374" t="inlineStr"/>
-      <c r="K374" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K374" t="inlineStr"/>
       <c r="L374" t="n">
         <v>1</v>
       </c>
@@ -13486,15 +12760,11 @@
         <v>-66270.6639292734</v>
       </c>
       <c r="H375" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I375" t="inlineStr"/>
       <c r="J375" t="inlineStr"/>
-      <c r="K375" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K375" t="inlineStr"/>
       <c r="L375" t="n">
         <v>1</v>
       </c>
@@ -13527,11 +12797,7 @@
       </c>
       <c r="I376" t="inlineStr"/>
       <c r="J376" t="inlineStr"/>
-      <c r="K376" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K376" t="inlineStr"/>
       <c r="L376" t="n">
         <v>1</v>
       </c>
@@ -13564,11 +12830,7 @@
       </c>
       <c r="I377" t="inlineStr"/>
       <c r="J377" t="inlineStr"/>
-      <c r="K377" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K377" t="inlineStr"/>
       <c r="L377" t="n">
         <v>1</v>
       </c>
@@ -13597,15 +12859,11 @@
         <v>-114385.1841163331</v>
       </c>
       <c r="H378" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I378" t="inlineStr"/>
       <c r="J378" t="inlineStr"/>
-      <c r="K378" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K378" t="inlineStr"/>
       <c r="L378" t="n">
         <v>1</v>
       </c>
@@ -13638,11 +12896,7 @@
       </c>
       <c r="I379" t="inlineStr"/>
       <c r="J379" t="inlineStr"/>
-      <c r="K379" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K379" t="inlineStr"/>
       <c r="L379" t="n">
         <v>1</v>
       </c>
@@ -13675,11 +12929,7 @@
       </c>
       <c r="I380" t="inlineStr"/>
       <c r="J380" t="inlineStr"/>
-      <c r="K380" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K380" t="inlineStr"/>
       <c r="L380" t="n">
         <v>1</v>
       </c>
@@ -13712,11 +12962,7 @@
       </c>
       <c r="I381" t="inlineStr"/>
       <c r="J381" t="inlineStr"/>
-      <c r="K381" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K381" t="inlineStr"/>
       <c r="L381" t="n">
         <v>1</v>
       </c>
@@ -13749,11 +12995,7 @@
       </c>
       <c r="I382" t="inlineStr"/>
       <c r="J382" t="inlineStr"/>
-      <c r="K382" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K382" t="inlineStr"/>
       <c r="L382" t="n">
         <v>1</v>
       </c>
@@ -13786,11 +13028,7 @@
       </c>
       <c r="I383" t="inlineStr"/>
       <c r="J383" t="inlineStr"/>
-      <c r="K383" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K383" t="inlineStr"/>
       <c r="L383" t="n">
         <v>1</v>
       </c>
@@ -13819,15 +13057,11 @@
         <v>-107730.1735163331</v>
       </c>
       <c r="H384" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I384" t="inlineStr"/>
       <c r="J384" t="inlineStr"/>
-      <c r="K384" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K384" t="inlineStr"/>
       <c r="L384" t="n">
         <v>1</v>
       </c>
@@ -13856,15 +13090,11 @@
         <v>-113137.3176163331</v>
       </c>
       <c r="H385" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I385" t="inlineStr"/>
       <c r="J385" t="inlineStr"/>
-      <c r="K385" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K385" t="inlineStr"/>
       <c r="L385" t="n">
         <v>1</v>
       </c>
@@ -13893,17 +13123,11 @@
         <v>-113125.9496163331</v>
       </c>
       <c r="H386" t="n">
-        <v>1</v>
-      </c>
-      <c r="I386" t="n">
-        <v>2781</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I386" t="inlineStr"/>
       <c r="J386" t="inlineStr"/>
-      <c r="K386" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K386" t="inlineStr"/>
       <c r="L386" t="n">
         <v>1</v>
       </c>
@@ -13932,15 +13156,11 @@
         <v>-113613.6408163331</v>
       </c>
       <c r="H387" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I387" t="inlineStr"/>
       <c r="J387" t="inlineStr"/>
-      <c r="K387" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K387" t="inlineStr"/>
       <c r="L387" t="n">
         <v>1</v>
       </c>
@@ -13969,17 +13189,11 @@
         <v>-113237.6702163331</v>
       </c>
       <c r="H388" t="n">
-        <v>1</v>
-      </c>
-      <c r="I388" t="n">
-        <v>2776</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I388" t="inlineStr"/>
       <c r="J388" t="inlineStr"/>
-      <c r="K388" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K388" t="inlineStr"/>
       <c r="L388" t="n">
         <v>1</v>
       </c>
@@ -14008,17 +13222,11 @@
         <v>-113237.6702163331</v>
       </c>
       <c r="H389" t="n">
-        <v>1</v>
-      </c>
-      <c r="I389" t="n">
-        <v>2778</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I389" t="inlineStr"/>
       <c r="J389" t="inlineStr"/>
-      <c r="K389" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K389" t="inlineStr"/>
       <c r="L389" t="n">
         <v>1</v>
       </c>
@@ -14047,17 +13255,11 @@
         <v>-113321.3377163331</v>
       </c>
       <c r="H390" t="n">
-        <v>1</v>
-      </c>
-      <c r="I390" t="n">
-        <v>2778</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I390" t="inlineStr"/>
       <c r="J390" t="inlineStr"/>
-      <c r="K390" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K390" t="inlineStr"/>
       <c r="L390" t="n">
         <v>1</v>
       </c>
@@ -14086,17 +13288,11 @@
         <v>-113322.3377163331</v>
       </c>
       <c r="H391" t="n">
-        <v>1</v>
-      </c>
-      <c r="I391" t="n">
-        <v>2777</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I391" t="inlineStr"/>
       <c r="J391" t="inlineStr"/>
-      <c r="K391" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K391" t="inlineStr"/>
       <c r="L391" t="n">
         <v>1</v>
       </c>
@@ -14125,15 +13321,11 @@
         <v>-113280.5377163331</v>
       </c>
       <c r="H392" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I392" t="inlineStr"/>
       <c r="J392" t="inlineStr"/>
-      <c r="K392" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K392" t="inlineStr"/>
       <c r="L392" t="n">
         <v>1</v>
       </c>
@@ -14162,15 +13354,11 @@
         <v>-113280.5377163331</v>
       </c>
       <c r="H393" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I393" t="inlineStr"/>
       <c r="J393" t="inlineStr"/>
-      <c r="K393" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K393" t="inlineStr"/>
       <c r="L393" t="n">
         <v>1</v>
       </c>
@@ -14199,15 +13387,11 @@
         <v>-113290.5308163331</v>
       </c>
       <c r="H394" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I394" t="inlineStr"/>
       <c r="J394" t="inlineStr"/>
-      <c r="K394" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K394" t="inlineStr"/>
       <c r="L394" t="n">
         <v>1</v>
       </c>
@@ -14236,15 +13420,11 @@
         <v>-113532.3608163331</v>
       </c>
       <c r="H395" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I395" t="inlineStr"/>
       <c r="J395" t="inlineStr"/>
-      <c r="K395" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K395" t="inlineStr"/>
       <c r="L395" t="n">
         <v>1</v>
       </c>
@@ -14273,15 +13453,11 @@
         <v>-113516.4608163331</v>
       </c>
       <c r="H396" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I396" t="inlineStr"/>
       <c r="J396" t="inlineStr"/>
-      <c r="K396" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K396" t="inlineStr"/>
       <c r="L396" t="n">
         <v>1</v>
       </c>
@@ -14310,15 +13486,11 @@
         <v>-113499.5608163331</v>
       </c>
       <c r="H397" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I397" t="inlineStr"/>
       <c r="J397" t="inlineStr"/>
-      <c r="K397" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K397" t="inlineStr"/>
       <c r="L397" t="n">
         <v>1</v>
       </c>
@@ -14347,15 +13519,11 @@
         <v>-113481.5608163331</v>
       </c>
       <c r="H398" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I398" t="inlineStr"/>
       <c r="J398" t="inlineStr"/>
-      <c r="K398" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K398" t="inlineStr"/>
       <c r="L398" t="n">
         <v>1</v>
       </c>
@@ -14384,15 +13552,11 @@
         <v>-113481.5608163331</v>
       </c>
       <c r="H399" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I399" t="inlineStr"/>
       <c r="J399" t="inlineStr"/>
-      <c r="K399" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K399" t="inlineStr"/>
       <c r="L399" t="n">
         <v>1</v>
       </c>
@@ -14421,15 +13585,11 @@
         <v>-113255.5771163331</v>
       </c>
       <c r="H400" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I400" t="inlineStr"/>
       <c r="J400" t="inlineStr"/>
-      <c r="K400" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K400" t="inlineStr"/>
       <c r="L400" t="n">
         <v>1</v>
       </c>
@@ -14462,11 +13622,7 @@
       </c>
       <c r="I401" t="inlineStr"/>
       <c r="J401" t="inlineStr"/>
-      <c r="K401" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K401" t="inlineStr"/>
       <c r="L401" t="n">
         <v>1</v>
       </c>
@@ -14495,15 +13651,11 @@
         <v>-108820.9574163331</v>
       </c>
       <c r="H402" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I402" t="inlineStr"/>
       <c r="J402" t="inlineStr"/>
-      <c r="K402" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K402" t="inlineStr"/>
       <c r="L402" t="n">
         <v>1</v>
       </c>
@@ -14532,15 +13684,11 @@
         <v>-108955.6937163331</v>
       </c>
       <c r="H403" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I403" t="inlineStr"/>
       <c r="J403" t="inlineStr"/>
-      <c r="K403" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K403" t="inlineStr"/>
       <c r="L403" t="n">
         <v>1</v>
       </c>
@@ -14569,15 +13717,11 @@
         <v>-108929.9412163331</v>
       </c>
       <c r="H404" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I404" t="inlineStr"/>
       <c r="J404" t="inlineStr"/>
-      <c r="K404" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K404" t="inlineStr"/>
       <c r="L404" t="n">
         <v>1</v>
       </c>
@@ -14606,15 +13750,11 @@
         <v>-109255.8527163331</v>
       </c>
       <c r="H405" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I405" t="inlineStr"/>
       <c r="J405" t="inlineStr"/>
-      <c r="K405" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K405" t="inlineStr"/>
       <c r="L405" t="n">
         <v>1</v>
       </c>
@@ -14643,15 +13783,11 @@
         <v>-109393.8364163331</v>
       </c>
       <c r="H406" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I406" t="inlineStr"/>
       <c r="J406" t="inlineStr"/>
-      <c r="K406" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K406" t="inlineStr"/>
       <c r="L406" t="n">
         <v>1</v>
       </c>
@@ -14680,15 +13816,11 @@
         <v>-109393.9364163331</v>
       </c>
       <c r="H407" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I407" t="inlineStr"/>
       <c r="J407" t="inlineStr"/>
-      <c r="K407" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K407" t="inlineStr"/>
       <c r="L407" t="n">
         <v>1</v>
       </c>
@@ -14717,15 +13849,11 @@
         <v>-108455.6023163331</v>
       </c>
       <c r="H408" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I408" t="inlineStr"/>
       <c r="J408" t="inlineStr"/>
-      <c r="K408" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K408" t="inlineStr"/>
       <c r="L408" t="n">
         <v>1</v>
       </c>
@@ -14754,15 +13882,11 @@
         <v>-108436.3023163331</v>
       </c>
       <c r="H409" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I409" t="inlineStr"/>
       <c r="J409" t="inlineStr"/>
-      <c r="K409" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K409" t="inlineStr"/>
       <c r="L409" t="n">
         <v>1</v>
       </c>
@@ -14791,15 +13915,11 @@
         <v>-108435.9096163331</v>
       </c>
       <c r="H410" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I410" t="inlineStr"/>
       <c r="J410" t="inlineStr"/>
-      <c r="K410" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K410" t="inlineStr"/>
       <c r="L410" t="n">
         <v>1</v>
       </c>
@@ -14832,11 +13952,7 @@
       </c>
       <c r="I411" t="inlineStr"/>
       <c r="J411" t="inlineStr"/>
-      <c r="K411" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K411" t="inlineStr"/>
       <c r="L411" t="n">
         <v>1</v>
       </c>
@@ -14869,11 +13985,7 @@
       </c>
       <c r="I412" t="inlineStr"/>
       <c r="J412" t="inlineStr"/>
-      <c r="K412" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K412" t="inlineStr"/>
       <c r="L412" t="n">
         <v>1</v>
       </c>
@@ -14906,11 +14018,7 @@
       </c>
       <c r="I413" t="inlineStr"/>
       <c r="J413" t="inlineStr"/>
-      <c r="K413" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K413" t="inlineStr"/>
       <c r="L413" t="n">
         <v>1</v>
       </c>
@@ -14943,11 +14051,7 @@
       </c>
       <c r="I414" t="inlineStr"/>
       <c r="J414" t="inlineStr"/>
-      <c r="K414" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K414" t="inlineStr"/>
       <c r="L414" t="n">
         <v>1</v>
       </c>
@@ -14980,11 +14084,7 @@
       </c>
       <c r="I415" t="inlineStr"/>
       <c r="J415" t="inlineStr"/>
-      <c r="K415" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K415" t="inlineStr"/>
       <c r="L415" t="n">
         <v>1</v>
       </c>
@@ -15017,11 +14117,7 @@
       </c>
       <c r="I416" t="inlineStr"/>
       <c r="J416" t="inlineStr"/>
-      <c r="K416" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K416" t="inlineStr"/>
       <c r="L416" t="n">
         <v>1</v>
       </c>
@@ -15054,11 +14150,7 @@
       </c>
       <c r="I417" t="inlineStr"/>
       <c r="J417" t="inlineStr"/>
-      <c r="K417" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K417" t="inlineStr"/>
       <c r="L417" t="n">
         <v>1</v>
       </c>
@@ -15091,11 +14183,7 @@
       </c>
       <c r="I418" t="inlineStr"/>
       <c r="J418" t="inlineStr"/>
-      <c r="K418" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K418" t="inlineStr"/>
       <c r="L418" t="n">
         <v>1</v>
       </c>
@@ -15128,11 +14216,7 @@
       </c>
       <c r="I419" t="inlineStr"/>
       <c r="J419" t="inlineStr"/>
-      <c r="K419" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K419" t="inlineStr"/>
       <c r="L419" t="n">
         <v>1</v>
       </c>
@@ -15165,11 +14249,7 @@
       </c>
       <c r="I420" t="inlineStr"/>
       <c r="J420" t="inlineStr"/>
-      <c r="K420" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K420" t="inlineStr"/>
       <c r="L420" t="n">
         <v>1</v>
       </c>
@@ -15202,11 +14282,7 @@
       </c>
       <c r="I421" t="inlineStr"/>
       <c r="J421" t="inlineStr"/>
-      <c r="K421" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K421" t="inlineStr"/>
       <c r="L421" t="n">
         <v>1</v>
       </c>
@@ -15239,11 +14315,7 @@
       </c>
       <c r="I422" t="inlineStr"/>
       <c r="J422" t="inlineStr"/>
-      <c r="K422" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K422" t="inlineStr"/>
       <c r="L422" t="n">
         <v>1</v>
       </c>
@@ -15276,11 +14348,7 @@
       </c>
       <c r="I423" t="inlineStr"/>
       <c r="J423" t="inlineStr"/>
-      <c r="K423" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K423" t="inlineStr"/>
       <c r="L423" t="n">
         <v>1</v>
       </c>
@@ -15313,11 +14381,7 @@
       </c>
       <c r="I424" t="inlineStr"/>
       <c r="J424" t="inlineStr"/>
-      <c r="K424" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K424" t="inlineStr"/>
       <c r="L424" t="n">
         <v>1</v>
       </c>
@@ -15350,11 +14414,7 @@
       </c>
       <c r="I425" t="inlineStr"/>
       <c r="J425" t="inlineStr"/>
-      <c r="K425" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K425" t="inlineStr"/>
       <c r="L425" t="n">
         <v>1</v>
       </c>
@@ -15387,11 +14447,7 @@
       </c>
       <c r="I426" t="inlineStr"/>
       <c r="J426" t="inlineStr"/>
-      <c r="K426" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K426" t="inlineStr"/>
       <c r="L426" t="n">
         <v>1</v>
       </c>
@@ -15424,11 +14480,7 @@
       </c>
       <c r="I427" t="inlineStr"/>
       <c r="J427" t="inlineStr"/>
-      <c r="K427" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K427" t="inlineStr"/>
       <c r="L427" t="n">
         <v>1</v>
       </c>
@@ -15461,11 +14513,7 @@
       </c>
       <c r="I428" t="inlineStr"/>
       <c r="J428" t="inlineStr"/>
-      <c r="K428" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K428" t="inlineStr"/>
       <c r="L428" t="n">
         <v>1</v>
       </c>
@@ -15498,11 +14546,7 @@
       </c>
       <c r="I429" t="inlineStr"/>
       <c r="J429" t="inlineStr"/>
-      <c r="K429" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K429" t="inlineStr"/>
       <c r="L429" t="n">
         <v>1</v>
       </c>
@@ -15535,11 +14579,7 @@
       </c>
       <c r="I430" t="inlineStr"/>
       <c r="J430" t="inlineStr"/>
-      <c r="K430" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K430" t="inlineStr"/>
       <c r="L430" t="n">
         <v>1</v>
       </c>
@@ -15572,11 +14612,7 @@
       </c>
       <c r="I431" t="inlineStr"/>
       <c r="J431" t="inlineStr"/>
-      <c r="K431" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K431" t="inlineStr"/>
       <c r="L431" t="n">
         <v>1</v>
       </c>
@@ -15609,11 +14645,7 @@
       </c>
       <c r="I432" t="inlineStr"/>
       <c r="J432" t="inlineStr"/>
-      <c r="K432" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K432" t="inlineStr"/>
       <c r="L432" t="n">
         <v>1</v>
       </c>
@@ -15646,11 +14678,7 @@
       </c>
       <c r="I433" t="inlineStr"/>
       <c r="J433" t="inlineStr"/>
-      <c r="K433" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K433" t="inlineStr"/>
       <c r="L433" t="n">
         <v>1</v>
       </c>
@@ -15683,11 +14711,7 @@
       </c>
       <c r="I434" t="inlineStr"/>
       <c r="J434" t="inlineStr"/>
-      <c r="K434" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K434" t="inlineStr"/>
       <c r="L434" t="n">
         <v>1</v>
       </c>
@@ -15720,11 +14744,7 @@
       </c>
       <c r="I435" t="inlineStr"/>
       <c r="J435" t="inlineStr"/>
-      <c r="K435" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K435" t="inlineStr"/>
       <c r="L435" t="n">
         <v>1</v>
       </c>
@@ -15757,11 +14777,7 @@
       </c>
       <c r="I436" t="inlineStr"/>
       <c r="J436" t="inlineStr"/>
-      <c r="K436" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K436" t="inlineStr"/>
       <c r="L436" t="n">
         <v>1</v>
       </c>
@@ -15794,11 +14810,7 @@
       </c>
       <c r="I437" t="inlineStr"/>
       <c r="J437" t="inlineStr"/>
-      <c r="K437" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K437" t="inlineStr"/>
       <c r="L437" t="n">
         <v>1</v>
       </c>
@@ -15831,11 +14843,7 @@
       </c>
       <c r="I438" t="inlineStr"/>
       <c r="J438" t="inlineStr"/>
-      <c r="K438" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K438" t="inlineStr"/>
       <c r="L438" t="n">
         <v>1</v>
       </c>
@@ -15868,11 +14876,7 @@
       </c>
       <c r="I439" t="inlineStr"/>
       <c r="J439" t="inlineStr"/>
-      <c r="K439" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K439" t="inlineStr"/>
       <c r="L439" t="n">
         <v>1</v>
       </c>
@@ -15905,11 +14909,7 @@
       </c>
       <c r="I440" t="inlineStr"/>
       <c r="J440" t="inlineStr"/>
-      <c r="K440" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K440" t="inlineStr"/>
       <c r="L440" t="n">
         <v>1</v>
       </c>
@@ -15938,17 +14938,11 @@
         <v>-104517.1500163332</v>
       </c>
       <c r="H441" t="n">
-        <v>1</v>
-      </c>
-      <c r="I441" t="n">
-        <v>2778</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I441" t="inlineStr"/>
       <c r="J441" t="inlineStr"/>
-      <c r="K441" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K441" t="inlineStr"/>
       <c r="L441" t="n">
         <v>1</v>
       </c>
@@ -15977,17 +14971,11 @@
         <v>-104589.1500163332</v>
       </c>
       <c r="H442" t="n">
-        <v>1</v>
-      </c>
-      <c r="I442" t="n">
-        <v>2788</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I442" t="inlineStr"/>
       <c r="J442" t="inlineStr"/>
-      <c r="K442" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K442" t="inlineStr"/>
       <c r="L442" t="n">
         <v>1</v>
       </c>
@@ -16016,17 +15004,11 @@
         <v>-104661.1500163332</v>
       </c>
       <c r="H443" t="n">
-        <v>1</v>
-      </c>
-      <c r="I443" t="n">
-        <v>2785</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I443" t="inlineStr"/>
       <c r="J443" t="inlineStr"/>
-      <c r="K443" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K443" t="inlineStr"/>
       <c r="L443" t="n">
         <v>1</v>
       </c>
@@ -16055,17 +15037,11 @@
         <v>-105392.5377163332</v>
       </c>
       <c r="H444" t="n">
-        <v>1</v>
-      </c>
-      <c r="I444" t="n">
-        <v>2784</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I444" t="inlineStr"/>
       <c r="J444" t="inlineStr"/>
-      <c r="K444" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K444" t="inlineStr"/>
       <c r="L444" t="n">
         <v>1</v>
       </c>
@@ -16094,17 +15070,11 @@
         <v>-105365.3429163332</v>
       </c>
       <c r="H445" t="n">
-        <v>1</v>
-      </c>
-      <c r="I445" t="n">
-        <v>2782</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I445" t="inlineStr"/>
       <c r="J445" t="inlineStr"/>
-      <c r="K445" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K445" t="inlineStr"/>
       <c r="L445" t="n">
         <v>1</v>
       </c>
@@ -16133,17 +15103,11 @@
         <v>-105365.1320163332</v>
       </c>
       <c r="H446" t="n">
-        <v>1</v>
-      </c>
-      <c r="I446" t="n">
-        <v>2785</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I446" t="inlineStr"/>
       <c r="J446" t="inlineStr"/>
-      <c r="K446" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K446" t="inlineStr"/>
       <c r="L446" t="n">
         <v>1</v>
       </c>
@@ -16176,11 +15140,7 @@
       </c>
       <c r="I447" t="inlineStr"/>
       <c r="J447" t="inlineStr"/>
-      <c r="K447" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K447" t="inlineStr"/>
       <c r="L447" t="n">
         <v>1</v>
       </c>
@@ -16213,11 +15173,7 @@
       </c>
       <c r="I448" t="inlineStr"/>
       <c r="J448" t="inlineStr"/>
-      <c r="K448" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K448" t="inlineStr"/>
       <c r="L448" t="n">
         <v>1</v>
       </c>
@@ -16250,11 +15206,7 @@
       </c>
       <c r="I449" t="inlineStr"/>
       <c r="J449" t="inlineStr"/>
-      <c r="K449" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K449" t="inlineStr"/>
       <c r="L449" t="n">
         <v>1</v>
       </c>
@@ -16287,11 +15239,7 @@
       </c>
       <c r="I450" t="inlineStr"/>
       <c r="J450" t="inlineStr"/>
-      <c r="K450" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K450" t="inlineStr"/>
       <c r="L450" t="n">
         <v>1</v>
       </c>
@@ -16324,11 +15272,7 @@
       </c>
       <c r="I451" t="inlineStr"/>
       <c r="J451" t="inlineStr"/>
-      <c r="K451" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K451" t="inlineStr"/>
       <c r="L451" t="n">
         <v>1</v>
       </c>
@@ -16361,11 +15305,7 @@
       </c>
       <c r="I452" t="inlineStr"/>
       <c r="J452" t="inlineStr"/>
-      <c r="K452" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K452" t="inlineStr"/>
       <c r="L452" t="n">
         <v>1</v>
       </c>
@@ -16398,11 +15338,7 @@
       </c>
       <c r="I453" t="inlineStr"/>
       <c r="J453" t="inlineStr"/>
-      <c r="K453" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K453" t="inlineStr"/>
       <c r="L453" t="n">
         <v>1</v>
       </c>
@@ -16435,11 +15371,7 @@
       </c>
       <c r="I454" t="inlineStr"/>
       <c r="J454" t="inlineStr"/>
-      <c r="K454" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K454" t="inlineStr"/>
       <c r="L454" t="n">
         <v>1</v>
       </c>
@@ -16472,11 +15404,7 @@
       </c>
       <c r="I455" t="inlineStr"/>
       <c r="J455" t="inlineStr"/>
-      <c r="K455" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K455" t="inlineStr"/>
       <c r="L455" t="n">
         <v>1</v>
       </c>
@@ -16505,17 +15433,11 @@
         <v>-107225.0488163332</v>
       </c>
       <c r="H456" t="n">
-        <v>1</v>
-      </c>
-      <c r="I456" t="n">
-        <v>2780</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I456" t="inlineStr"/>
       <c r="J456" t="inlineStr"/>
-      <c r="K456" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K456" t="inlineStr"/>
       <c r="L456" t="n">
         <v>1</v>
       </c>
@@ -16544,17 +15466,11 @@
         <v>-108253.4676163332</v>
       </c>
       <c r="H457" t="n">
-        <v>1</v>
-      </c>
-      <c r="I457" t="n">
-        <v>2773</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I457" t="inlineStr"/>
       <c r="J457" t="inlineStr"/>
-      <c r="K457" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K457" t="inlineStr"/>
       <c r="L457" t="n">
         <v>1</v>
       </c>
@@ -16583,17 +15499,11 @@
         <v>-109568.7490163332</v>
       </c>
       <c r="H458" t="n">
-        <v>1</v>
-      </c>
-      <c r="I458" t="n">
-        <v>2760</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I458" t="inlineStr"/>
       <c r="J458" t="inlineStr"/>
-      <c r="K458" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K458" t="inlineStr"/>
       <c r="L458" t="n">
         <v>1</v>
       </c>
@@ -16622,17 +15532,11 @@
         <v>-109253.1490163332</v>
       </c>
       <c r="H459" t="n">
-        <v>1</v>
-      </c>
-      <c r="I459" t="n">
-        <v>2751</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I459" t="inlineStr"/>
       <c r="J459" t="inlineStr"/>
-      <c r="K459" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K459" t="inlineStr"/>
       <c r="L459" t="n">
         <v>1</v>
       </c>
@@ -16661,17 +15565,11 @@
         <v>-108756.9394163332</v>
       </c>
       <c r="H460" t="n">
-        <v>1</v>
-      </c>
-      <c r="I460" t="n">
-        <v>2758</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I460" t="inlineStr"/>
       <c r="J460" t="inlineStr"/>
-      <c r="K460" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K460" t="inlineStr"/>
       <c r="L460" t="n">
         <v>1</v>
       </c>
@@ -16700,17 +15598,11 @@
         <v>-110338.5315163332</v>
       </c>
       <c r="H461" t="n">
-        <v>1</v>
-      </c>
-      <c r="I461" t="n">
-        <v>2759</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I461" t="inlineStr"/>
       <c r="J461" t="inlineStr"/>
-      <c r="K461" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K461" t="inlineStr"/>
       <c r="L461" t="n">
         <v>1</v>
       </c>
@@ -16739,17 +15631,11 @@
         <v>-109389.9040163332</v>
       </c>
       <c r="H462" t="n">
-        <v>1</v>
-      </c>
-      <c r="I462" t="n">
-        <v>2750</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I462" t="inlineStr"/>
       <c r="J462" t="inlineStr"/>
-      <c r="K462" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K462" t="inlineStr"/>
       <c r="L462" t="n">
         <v>1</v>
       </c>
@@ -16778,17 +15664,11 @@
         <v>-108156.7095163332</v>
       </c>
       <c r="H463" t="n">
-        <v>1</v>
-      </c>
-      <c r="I463" t="n">
-        <v>2762</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I463" t="inlineStr"/>
       <c r="J463" t="inlineStr"/>
-      <c r="K463" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K463" t="inlineStr"/>
       <c r="L463" t="n">
         <v>1</v>
       </c>
@@ -16817,17 +15697,11 @@
         <v>-108377.3445163332</v>
       </c>
       <c r="H464" t="n">
-        <v>1</v>
-      </c>
-      <c r="I464" t="n">
-        <v>2766</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I464" t="inlineStr"/>
       <c r="J464" t="inlineStr"/>
-      <c r="K464" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K464" t="inlineStr"/>
       <c r="L464" t="n">
         <v>1</v>
       </c>
@@ -16856,17 +15730,11 @@
         <v>-109451.1361163332</v>
       </c>
       <c r="H465" t="n">
-        <v>1</v>
-      </c>
-      <c r="I465" t="n">
-        <v>2760</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I465" t="inlineStr"/>
       <c r="J465" t="inlineStr"/>
-      <c r="K465" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K465" t="inlineStr"/>
       <c r="L465" t="n">
         <v>1</v>
       </c>
@@ -16895,17 +15763,11 @@
         <v>-109451.1361163332</v>
       </c>
       <c r="H466" t="n">
-        <v>1</v>
-      </c>
-      <c r="I466" t="n">
-        <v>2759</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I466" t="inlineStr"/>
       <c r="J466" t="inlineStr"/>
-      <c r="K466" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K466" t="inlineStr"/>
       <c r="L466" t="n">
         <v>1</v>
       </c>
@@ -16934,17 +15796,11 @@
         <v>-109451.1361163332</v>
       </c>
       <c r="H467" t="n">
-        <v>1</v>
-      </c>
-      <c r="I467" t="n">
-        <v>2759</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I467" t="inlineStr"/>
       <c r="J467" t="inlineStr"/>
-      <c r="K467" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K467" t="inlineStr"/>
       <c r="L467" t="n">
         <v>1</v>
       </c>
@@ -16973,17 +15829,11 @@
         <v>-109451.1361163332</v>
       </c>
       <c r="H468" t="n">
-        <v>1</v>
-      </c>
-      <c r="I468" t="n">
-        <v>2759</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I468" t="inlineStr"/>
       <c r="J468" t="inlineStr"/>
-      <c r="K468" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K468" t="inlineStr"/>
       <c r="L468" t="n">
         <v>1</v>
       </c>
@@ -17012,17 +15862,11 @@
         <v>-109645.8430163332</v>
       </c>
       <c r="H469" t="n">
-        <v>1</v>
-      </c>
-      <c r="I469" t="n">
-        <v>2759</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I469" t="inlineStr"/>
       <c r="J469" t="inlineStr"/>
-      <c r="K469" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K469" t="inlineStr"/>
       <c r="L469" t="n">
         <v>1</v>
       </c>
@@ -17051,17 +15895,11 @@
         <v>-109630.1539163332</v>
       </c>
       <c r="H470" t="n">
-        <v>1</v>
-      </c>
-      <c r="I470" t="n">
-        <v>2754</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I470" t="inlineStr"/>
       <c r="J470" t="inlineStr"/>
-      <c r="K470" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K470" t="inlineStr"/>
       <c r="L470" t="n">
         <v>1</v>
       </c>
@@ -17090,17 +15928,11 @@
         <v>-110314.9930163332</v>
       </c>
       <c r="H471" t="n">
-        <v>1</v>
-      </c>
-      <c r="I471" t="n">
-        <v>2756</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I471" t="inlineStr"/>
       <c r="J471" t="inlineStr"/>
-      <c r="K471" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K471" t="inlineStr"/>
       <c r="L471" t="n">
         <v>1</v>
       </c>
@@ -17129,17 +15961,11 @@
         <v>-110314.9930163332</v>
       </c>
       <c r="H472" t="n">
-        <v>1</v>
-      </c>
-      <c r="I472" t="n">
-        <v>2751</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I472" t="inlineStr"/>
       <c r="J472" t="inlineStr"/>
-      <c r="K472" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K472" t="inlineStr"/>
       <c r="L472" t="n">
         <v>1</v>
       </c>
@@ -17173,12 +15999,10 @@
       <c r="I473" t="n">
         <v>2751</v>
       </c>
-      <c r="J473" t="inlineStr"/>
-      <c r="K473" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J473" t="n">
+        <v>2751</v>
+      </c>
+      <c r="K473" t="inlineStr"/>
       <c r="L473" t="n">
         <v>1</v>
       </c>
@@ -17212,10 +16036,12 @@
       <c r="I474" t="n">
         <v>2752</v>
       </c>
-      <c r="J474" t="inlineStr"/>
+      <c r="J474" t="n">
+        <v>2751</v>
+      </c>
       <c r="K474" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L474" t="n">
@@ -17251,10 +16077,12 @@
       <c r="I475" t="n">
         <v>2752</v>
       </c>
-      <c r="J475" t="inlineStr"/>
+      <c r="J475" t="n">
+        <v>2751</v>
+      </c>
       <c r="K475" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L475" t="n">
@@ -17290,12 +16118,10 @@
       <c r="I476" t="n">
         <v>2760</v>
       </c>
-      <c r="J476" t="inlineStr"/>
-      <c r="K476" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J476" t="n">
+        <v>2760</v>
+      </c>
+      <c r="K476" t="inlineStr"/>
       <c r="L476" t="n">
         <v>1</v>
       </c>
@@ -17329,10 +16155,12 @@
       <c r="I477" t="n">
         <v>2767</v>
       </c>
-      <c r="J477" t="inlineStr"/>
+      <c r="J477" t="n">
+        <v>2760</v>
+      </c>
       <c r="K477" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L477" t="n">
@@ -17366,10 +16194,12 @@
         <v>0</v>
       </c>
       <c r="I478" t="inlineStr"/>
-      <c r="J478" t="inlineStr"/>
+      <c r="J478" t="n">
+        <v>2760</v>
+      </c>
       <c r="K478" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L478" t="n">
@@ -17404,11 +16234,7 @@
       </c>
       <c r="I479" t="inlineStr"/>
       <c r="J479" t="inlineStr"/>
-      <c r="K479" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K479" t="inlineStr"/>
       <c r="L479" t="n">
         <v>1</v>
       </c>
@@ -17441,11 +16267,7 @@
       </c>
       <c r="I480" t="inlineStr"/>
       <c r="J480" t="inlineStr"/>
-      <c r="K480" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K480" t="inlineStr"/>
       <c r="L480" t="n">
         <v>1</v>
       </c>
@@ -17478,11 +16300,7 @@
       </c>
       <c r="I481" t="inlineStr"/>
       <c r="J481" t="inlineStr"/>
-      <c r="K481" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K481" t="inlineStr"/>
       <c r="L481" t="n">
         <v>1</v>
       </c>
@@ -17515,11 +16333,7 @@
       </c>
       <c r="I482" t="inlineStr"/>
       <c r="J482" t="inlineStr"/>
-      <c r="K482" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K482" t="inlineStr"/>
       <c r="L482" t="n">
         <v>1</v>
       </c>
@@ -17552,11 +16366,7 @@
       </c>
       <c r="I483" t="inlineStr"/>
       <c r="J483" t="inlineStr"/>
-      <c r="K483" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K483" t="inlineStr"/>
       <c r="L483" t="n">
         <v>1</v>
       </c>
@@ -17589,11 +16399,7 @@
       </c>
       <c r="I484" t="inlineStr"/>
       <c r="J484" t="inlineStr"/>
-      <c r="K484" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K484" t="inlineStr"/>
       <c r="L484" t="n">
         <v>1</v>
       </c>
@@ -17626,11 +16432,7 @@
       </c>
       <c r="I485" t="inlineStr"/>
       <c r="J485" t="inlineStr"/>
-      <c r="K485" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K485" t="inlineStr"/>
       <c r="L485" t="n">
         <v>1</v>
       </c>
@@ -17663,11 +16465,7 @@
       </c>
       <c r="I486" t="inlineStr"/>
       <c r="J486" t="inlineStr"/>
-      <c r="K486" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K486" t="inlineStr"/>
       <c r="L486" t="n">
         <v>1</v>
       </c>
@@ -17700,11 +16498,7 @@
       </c>
       <c r="I487" t="inlineStr"/>
       <c r="J487" t="inlineStr"/>
-      <c r="K487" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K487" t="inlineStr"/>
       <c r="L487" t="n">
         <v>1</v>
       </c>
@@ -17737,11 +16531,7 @@
       </c>
       <c r="I488" t="inlineStr"/>
       <c r="J488" t="inlineStr"/>
-      <c r="K488" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K488" t="inlineStr"/>
       <c r="L488" t="n">
         <v>1</v>
       </c>
@@ -17774,11 +16564,7 @@
       </c>
       <c r="I489" t="inlineStr"/>
       <c r="J489" t="inlineStr"/>
-      <c r="K489" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K489" t="inlineStr"/>
       <c r="L489" t="n">
         <v>1</v>
       </c>
@@ -17811,11 +16597,7 @@
       </c>
       <c r="I490" t="inlineStr"/>
       <c r="J490" t="inlineStr"/>
-      <c r="K490" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K490" t="inlineStr"/>
       <c r="L490" t="n">
         <v>1</v>
       </c>
@@ -17848,11 +16630,7 @@
       </c>
       <c r="I491" t="inlineStr"/>
       <c r="J491" t="inlineStr"/>
-      <c r="K491" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K491" t="inlineStr"/>
       <c r="L491" t="n">
         <v>1</v>
       </c>
@@ -17885,17 +16663,13 @@
       </c>
       <c r="I492" t="inlineStr"/>
       <c r="J492" t="inlineStr"/>
-      <c r="K492" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K492" t="inlineStr"/>
       <c r="L492" t="n">
         <v>1</v>
       </c>
       <c r="M492" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-19 BackTest LINK.xlsx
+++ b/BackTest/2019-10-19 BackTest LINK.xlsx
@@ -583,7 +583,7 @@
         <v>-4977.550647073258</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
@@ -616,7 +616,7 @@
         <v>-4879.520647073258</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
@@ -649,7 +649,7 @@
         <v>-4923.920647073258</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
@@ -682,7 +682,7 @@
         <v>-4732.926747073258</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
@@ -715,7 +715,7 @@
         <v>-4732.926747073258</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
@@ -748,7 +748,7 @@
         <v>-3926.404447073257</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
@@ -781,7 +781,7 @@
         <v>-4064.683947073258</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
@@ -814,7 +814,7 @@
         <v>-4421.782647073258</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
@@ -847,7 +847,7 @@
         <v>-4555.353247073258</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
@@ -880,7 +880,7 @@
         <v>-4518.474847073258</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
@@ -913,7 +913,7 @@
         <v>-4879.925847073258</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
@@ -946,7 +946,7 @@
         <v>-4847.785147073258</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
@@ -979,7 +979,7 @@
         <v>-4744.040747073259</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
@@ -1012,7 +1012,7 @@
         <v>-4647.882247073259</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
@@ -1045,7 +1045,7 @@
         <v>-4516.15584707326</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
@@ -1078,7 +1078,7 @@
         <v>-4837.44994707326</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
@@ -1111,7 +1111,7 @@
         <v>-4837.44994707326</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
@@ -1144,7 +1144,7 @@
         <v>-5172.04584707326</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
@@ -1177,7 +1177,7 @@
         <v>-5174.47024707326</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
@@ -1210,7 +1210,7 @@
         <v>-5174.47024707326</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
@@ -1243,7 +1243,7 @@
         <v>-5074.47024707326</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
@@ -1276,7 +1276,7 @@
         <v>-5074.47024707326</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
@@ -1309,7 +1309,7 @@
         <v>-5074.47024707326</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
@@ -1375,7 +1375,7 @@
         <v>-5074.47024707326</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
@@ -1408,7 +1408,7 @@
         <v>-5074.47024707326</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
@@ -3883,7 +3883,7 @@
         <v>-41643.20234707327</v>
       </c>
       <c r="H106" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
@@ -3949,7 +3949,7 @@
         <v>-41447.24394707326</v>
       </c>
       <c r="H108" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
@@ -3982,7 +3982,7 @@
         <v>-41141.94904707326</v>
       </c>
       <c r="H109" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
@@ -4015,7 +4015,7 @@
         <v>-40937.36694707326</v>
       </c>
       <c r="H110" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
@@ -4081,7 +4081,7 @@
         <v>-41428.70634707326</v>
       </c>
       <c r="H112" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
@@ -4180,7 +4180,7 @@
         <v>-42522.44524707326</v>
       </c>
       <c r="H115" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
@@ -4213,7 +4213,7 @@
         <v>-46369.90094707326</v>
       </c>
       <c r="H116" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
@@ -4246,7 +4246,7 @@
         <v>-46369.90094707326</v>
       </c>
       <c r="H117" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
@@ -4279,7 +4279,7 @@
         <v>-46369.90094707326</v>
       </c>
       <c r="H118" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
@@ -4312,7 +4312,7 @@
         <v>-46369.56794707326</v>
       </c>
       <c r="H119" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
@@ -4345,7 +4345,7 @@
         <v>-47148.07474707327</v>
       </c>
       <c r="H120" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
@@ -4378,7 +4378,7 @@
         <v>-47131.78824707327</v>
       </c>
       <c r="H121" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
@@ -4411,7 +4411,7 @@
         <v>-47131.78824707327</v>
       </c>
       <c r="H122" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
@@ -4444,7 +4444,7 @@
         <v>-47753.22544707327</v>
       </c>
       <c r="H123" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
@@ -4807,7 +4807,7 @@
         <v>-48730.89634707326</v>
       </c>
       <c r="H134" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
@@ -4840,7 +4840,7 @@
         <v>-48965.91954707327</v>
       </c>
       <c r="H135" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
@@ -7282,10 +7282,14 @@
         <v>-72951.0939069392</v>
       </c>
       <c r="H209" t="n">
-        <v>0</v>
-      </c>
-      <c r="I209" t="inlineStr"/>
-      <c r="J209" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I209" t="n">
+        <v>2731</v>
+      </c>
+      <c r="J209" t="n">
+        <v>2731</v>
+      </c>
       <c r="K209" t="inlineStr"/>
       <c r="L209" t="n">
         <v>1</v>
@@ -7318,8 +7322,14 @@
         <v>0</v>
       </c>
       <c r="I210" t="inlineStr"/>
-      <c r="J210" t="inlineStr"/>
-      <c r="K210" t="inlineStr"/>
+      <c r="J210" t="n">
+        <v>2731</v>
+      </c>
+      <c r="K210" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L210" t="n">
         <v>1</v>
       </c>
@@ -7351,8 +7361,14 @@
         <v>0</v>
       </c>
       <c r="I211" t="inlineStr"/>
-      <c r="J211" t="inlineStr"/>
-      <c r="K211" t="inlineStr"/>
+      <c r="J211" t="n">
+        <v>2731</v>
+      </c>
+      <c r="K211" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L211" t="n">
         <v>1</v>
       </c>
@@ -8206,7 +8222,7 @@
         <v>-73657.72590693925</v>
       </c>
       <c r="H237" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I237" t="inlineStr"/>
       <c r="J237" t="inlineStr"/>
@@ -8239,7 +8255,7 @@
         <v>-73769.43160693925</v>
       </c>
       <c r="H238" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I238" t="inlineStr"/>
       <c r="J238" t="inlineStr"/>
@@ -8371,7 +8387,7 @@
         <v>-71703.1538899493</v>
       </c>
       <c r="H242" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I242" t="inlineStr"/>
       <c r="J242" t="inlineStr"/>
@@ -8404,7 +8420,7 @@
         <v>-71962.44508994931</v>
       </c>
       <c r="H243" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I243" t="inlineStr"/>
       <c r="J243" t="inlineStr"/>
@@ -8437,7 +8453,7 @@
         <v>-72019.4449899493</v>
       </c>
       <c r="H244" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I244" t="inlineStr"/>
       <c r="J244" t="inlineStr"/>
@@ -8470,7 +8486,7 @@
         <v>-72019.4449899493</v>
       </c>
       <c r="H245" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I245" t="inlineStr"/>
       <c r="J245" t="inlineStr"/>
@@ -8503,7 +8519,7 @@
         <v>-72278.0879899493</v>
       </c>
       <c r="H246" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I246" t="inlineStr"/>
       <c r="J246" t="inlineStr"/>
@@ -8536,7 +8552,7 @@
         <v>-72278.0879899493</v>
       </c>
       <c r="H247" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I247" t="inlineStr"/>
       <c r="J247" t="inlineStr"/>
@@ -8569,7 +8585,7 @@
         <v>-72278.0879899493</v>
       </c>
       <c r="H248" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I248" t="inlineStr"/>
       <c r="J248" t="inlineStr"/>
@@ -8602,7 +8618,7 @@
         <v>-72487.8879899493</v>
       </c>
       <c r="H249" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I249" t="inlineStr"/>
       <c r="J249" t="inlineStr"/>
@@ -8635,7 +8651,7 @@
         <v>-72840.02438994931</v>
       </c>
       <c r="H250" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I250" t="inlineStr"/>
       <c r="J250" t="inlineStr"/>
@@ -8668,7 +8684,7 @@
         <v>-72840.02438994931</v>
       </c>
       <c r="H251" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I251" t="inlineStr"/>
       <c r="J251" t="inlineStr"/>
@@ -8701,7 +8717,7 @@
         <v>-72633.39818994931</v>
       </c>
       <c r="H252" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I252" t="inlineStr"/>
       <c r="J252" t="inlineStr"/>
@@ -8734,7 +8750,7 @@
         <v>-72632.63188994931</v>
       </c>
       <c r="H253" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I253" t="inlineStr"/>
       <c r="J253" t="inlineStr"/>
@@ -8767,7 +8783,7 @@
         <v>-72993.6669899493</v>
       </c>
       <c r="H254" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I254" t="inlineStr"/>
       <c r="J254" t="inlineStr"/>
@@ -8800,7 +8816,7 @@
         <v>-72993.6669899493</v>
       </c>
       <c r="H255" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I255" t="inlineStr"/>
       <c r="J255" t="inlineStr"/>
@@ -9130,7 +9146,7 @@
         <v>-74220.8587899493</v>
       </c>
       <c r="H265" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I265" t="inlineStr"/>
       <c r="J265" t="inlineStr"/>
@@ -9229,7 +9245,7 @@
         <v>-74136.3986899493</v>
       </c>
       <c r="H268" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I268" t="inlineStr"/>
       <c r="J268" t="inlineStr"/>
@@ -12133,7 +12149,7 @@
         <v>-78824.93730070199</v>
       </c>
       <c r="H356" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I356" t="inlineStr"/>
       <c r="J356" t="inlineStr"/>
@@ -12166,7 +12182,7 @@
         <v>-79028.046200702</v>
       </c>
       <c r="H357" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I357" t="inlineStr"/>
       <c r="J357" t="inlineStr"/>
@@ -12199,7 +12215,7 @@
         <v>-79028.046200702</v>
       </c>
       <c r="H358" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I358" t="inlineStr"/>
       <c r="J358" t="inlineStr"/>
@@ -12232,7 +12248,7 @@
         <v>-79028.046200702</v>
       </c>
       <c r="H359" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I359" t="inlineStr"/>
       <c r="J359" t="inlineStr"/>
@@ -12265,7 +12281,7 @@
         <v>-76303.23520070199</v>
       </c>
       <c r="H360" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I360" t="inlineStr"/>
       <c r="J360" t="inlineStr"/>
@@ -12298,7 +12314,7 @@
         <v>-76673.39940070199</v>
       </c>
       <c r="H361" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I361" t="inlineStr"/>
       <c r="J361" t="inlineStr"/>
@@ -12331,7 +12347,7 @@
         <v>-76556.42170070199</v>
       </c>
       <c r="H362" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I362" t="inlineStr"/>
       <c r="J362" t="inlineStr"/>
@@ -12364,7 +12380,7 @@
         <v>-68546.30740070199</v>
       </c>
       <c r="H363" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I363" t="inlineStr"/>
       <c r="J363" t="inlineStr"/>
@@ -12397,7 +12413,7 @@
         <v>-69833.91820070198</v>
       </c>
       <c r="H364" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I364" t="inlineStr"/>
       <c r="J364" t="inlineStr"/>
@@ -12430,7 +12446,7 @@
         <v>-68562.67880070198</v>
       </c>
       <c r="H365" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I365" t="inlineStr"/>
       <c r="J365" t="inlineStr"/>
@@ -12463,7 +12479,7 @@
         <v>-66885.67880070198</v>
       </c>
       <c r="H366" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I366" t="inlineStr"/>
       <c r="J366" t="inlineStr"/>
@@ -12496,7 +12512,7 @@
         <v>-66885.67880070198</v>
       </c>
       <c r="H367" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I367" t="inlineStr"/>
       <c r="J367" t="inlineStr"/>
@@ -12529,7 +12545,7 @@
         <v>-67259.87400070198</v>
       </c>
       <c r="H368" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I368" t="inlineStr"/>
       <c r="J368" t="inlineStr"/>
@@ -12562,7 +12578,7 @@
         <v>-67629.73150070198</v>
       </c>
       <c r="H369" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I369" t="inlineStr"/>
       <c r="J369" t="inlineStr"/>
@@ -12595,7 +12611,7 @@
         <v>-68126.45390070198</v>
       </c>
       <c r="H370" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I370" t="inlineStr"/>
       <c r="J370" t="inlineStr"/>
@@ -12628,7 +12644,7 @@
         <v>-65626.45390070198</v>
       </c>
       <c r="H371" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I371" t="inlineStr"/>
       <c r="J371" t="inlineStr"/>
@@ -12661,7 +12677,7 @@
         <v>-65633.55032927341</v>
       </c>
       <c r="H372" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I372" t="inlineStr"/>
       <c r="J372" t="inlineStr"/>
@@ -12694,7 +12710,7 @@
         <v>-65865.3118292734</v>
       </c>
       <c r="H373" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I373" t="inlineStr"/>
       <c r="J373" t="inlineStr"/>
@@ -12727,7 +12743,7 @@
         <v>-66055.5890292734</v>
       </c>
       <c r="H374" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I374" t="inlineStr"/>
       <c r="J374" t="inlineStr"/>
@@ -12760,7 +12776,7 @@
         <v>-66270.6639292734</v>
       </c>
       <c r="H375" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I375" t="inlineStr"/>
       <c r="J375" t="inlineStr"/>
@@ -12859,7 +12875,7 @@
         <v>-114385.1841163331</v>
       </c>
       <c r="H378" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I378" t="inlineStr"/>
       <c r="J378" t="inlineStr"/>
@@ -13057,7 +13073,7 @@
         <v>-107730.1735163331</v>
       </c>
       <c r="H384" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I384" t="inlineStr"/>
       <c r="J384" t="inlineStr"/>
@@ -13090,7 +13106,7 @@
         <v>-113137.3176163331</v>
       </c>
       <c r="H385" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I385" t="inlineStr"/>
       <c r="J385" t="inlineStr"/>
@@ -13123,7 +13139,7 @@
         <v>-113125.9496163331</v>
       </c>
       <c r="H386" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I386" t="inlineStr"/>
       <c r="J386" t="inlineStr"/>
@@ -13156,7 +13172,7 @@
         <v>-113613.6408163331</v>
       </c>
       <c r="H387" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I387" t="inlineStr"/>
       <c r="J387" t="inlineStr"/>
@@ -13189,7 +13205,7 @@
         <v>-113237.6702163331</v>
       </c>
       <c r="H388" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I388" t="inlineStr"/>
       <c r="J388" t="inlineStr"/>
@@ -13222,7 +13238,7 @@
         <v>-113237.6702163331</v>
       </c>
       <c r="H389" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I389" t="inlineStr"/>
       <c r="J389" t="inlineStr"/>
@@ -13255,7 +13271,7 @@
         <v>-113321.3377163331</v>
       </c>
       <c r="H390" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I390" t="inlineStr"/>
       <c r="J390" t="inlineStr"/>
@@ -13288,7 +13304,7 @@
         <v>-113322.3377163331</v>
       </c>
       <c r="H391" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I391" t="inlineStr"/>
       <c r="J391" t="inlineStr"/>
@@ -13321,7 +13337,7 @@
         <v>-113280.5377163331</v>
       </c>
       <c r="H392" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I392" t="inlineStr"/>
       <c r="J392" t="inlineStr"/>
@@ -13354,7 +13370,7 @@
         <v>-113280.5377163331</v>
       </c>
       <c r="H393" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I393" t="inlineStr"/>
       <c r="J393" t="inlineStr"/>
@@ -13387,7 +13403,7 @@
         <v>-113290.5308163331</v>
       </c>
       <c r="H394" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I394" t="inlineStr"/>
       <c r="J394" t="inlineStr"/>
@@ -13420,7 +13436,7 @@
         <v>-113532.3608163331</v>
       </c>
       <c r="H395" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I395" t="inlineStr"/>
       <c r="J395" t="inlineStr"/>
@@ -13453,7 +13469,7 @@
         <v>-113516.4608163331</v>
       </c>
       <c r="H396" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I396" t="inlineStr"/>
       <c r="J396" t="inlineStr"/>
@@ -13486,7 +13502,7 @@
         <v>-113499.5608163331</v>
       </c>
       <c r="H397" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I397" t="inlineStr"/>
       <c r="J397" t="inlineStr"/>
@@ -13519,7 +13535,7 @@
         <v>-113481.5608163331</v>
       </c>
       <c r="H398" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I398" t="inlineStr"/>
       <c r="J398" t="inlineStr"/>
@@ -13552,7 +13568,7 @@
         <v>-113481.5608163331</v>
       </c>
       <c r="H399" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I399" t="inlineStr"/>
       <c r="J399" t="inlineStr"/>
@@ -13585,7 +13601,7 @@
         <v>-113255.5771163331</v>
       </c>
       <c r="H400" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I400" t="inlineStr"/>
       <c r="J400" t="inlineStr"/>
@@ -13651,7 +13667,7 @@
         <v>-108820.9574163331</v>
       </c>
       <c r="H402" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I402" t="inlineStr"/>
       <c r="J402" t="inlineStr"/>
@@ -13684,7 +13700,7 @@
         <v>-108955.6937163331</v>
       </c>
       <c r="H403" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I403" t="inlineStr"/>
       <c r="J403" t="inlineStr"/>
@@ -13717,7 +13733,7 @@
         <v>-108929.9412163331</v>
       </c>
       <c r="H404" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I404" t="inlineStr"/>
       <c r="J404" t="inlineStr"/>
@@ -13750,7 +13766,7 @@
         <v>-109255.8527163331</v>
       </c>
       <c r="H405" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I405" t="inlineStr"/>
       <c r="J405" t="inlineStr"/>
@@ -13783,7 +13799,7 @@
         <v>-109393.8364163331</v>
       </c>
       <c r="H406" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I406" t="inlineStr"/>
       <c r="J406" t="inlineStr"/>
@@ -13816,7 +13832,7 @@
         <v>-109393.9364163331</v>
       </c>
       <c r="H407" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I407" t="inlineStr"/>
       <c r="J407" t="inlineStr"/>
@@ -13849,7 +13865,7 @@
         <v>-108455.6023163331</v>
       </c>
       <c r="H408" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I408" t="inlineStr"/>
       <c r="J408" t="inlineStr"/>
@@ -13882,7 +13898,7 @@
         <v>-108436.3023163331</v>
       </c>
       <c r="H409" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I409" t="inlineStr"/>
       <c r="J409" t="inlineStr"/>
@@ -13915,7 +13931,7 @@
         <v>-108435.9096163331</v>
       </c>
       <c r="H410" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I410" t="inlineStr"/>
       <c r="J410" t="inlineStr"/>
@@ -14707,10 +14723,14 @@
         <v>-102016.0814163332</v>
       </c>
       <c r="H434" t="n">
-        <v>0</v>
-      </c>
-      <c r="I434" t="inlineStr"/>
-      <c r="J434" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I434" t="n">
+        <v>2790</v>
+      </c>
+      <c r="J434" t="n">
+        <v>2790</v>
+      </c>
       <c r="K434" t="inlineStr"/>
       <c r="L434" t="n">
         <v>1</v>
@@ -14743,8 +14763,14 @@
         <v>0</v>
       </c>
       <c r="I435" t="inlineStr"/>
-      <c r="J435" t="inlineStr"/>
-      <c r="K435" t="inlineStr"/>
+      <c r="J435" t="n">
+        <v>2790</v>
+      </c>
+      <c r="K435" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L435" t="n">
         <v>1</v>
       </c>
@@ -14776,8 +14802,14 @@
         <v>0</v>
       </c>
       <c r="I436" t="inlineStr"/>
-      <c r="J436" t="inlineStr"/>
-      <c r="K436" t="inlineStr"/>
+      <c r="J436" t="n">
+        <v>2790</v>
+      </c>
+      <c r="K436" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L436" t="n">
         <v>1</v>
       </c>
@@ -14905,11 +14937,17 @@
         <v>-104537.1500163332</v>
       </c>
       <c r="H440" t="n">
-        <v>0</v>
-      </c>
-      <c r="I440" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I440" t="n">
+        <v>2789</v>
+      </c>
       <c r="J440" t="inlineStr"/>
-      <c r="K440" t="inlineStr"/>
+      <c r="K440" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L440" t="n">
         <v>1</v>
       </c>
@@ -14938,11 +14976,17 @@
         <v>-104517.1500163332</v>
       </c>
       <c r="H441" t="n">
-        <v>0</v>
-      </c>
-      <c r="I441" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I441" t="n">
+        <v>2778</v>
+      </c>
       <c r="J441" t="inlineStr"/>
-      <c r="K441" t="inlineStr"/>
+      <c r="K441" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L441" t="n">
         <v>1</v>
       </c>
@@ -14971,11 +15015,17 @@
         <v>-104589.1500163332</v>
       </c>
       <c r="H442" t="n">
-        <v>0</v>
-      </c>
-      <c r="I442" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I442" t="n">
+        <v>2788</v>
+      </c>
       <c r="J442" t="inlineStr"/>
-      <c r="K442" t="inlineStr"/>
+      <c r="K442" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L442" t="n">
         <v>1</v>
       </c>
@@ -15008,7 +15058,11 @@
       </c>
       <c r="I443" t="inlineStr"/>
       <c r="J443" t="inlineStr"/>
-      <c r="K443" t="inlineStr"/>
+      <c r="K443" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L443" t="n">
         <v>1</v>
       </c>
@@ -15041,7 +15095,11 @@
       </c>
       <c r="I444" t="inlineStr"/>
       <c r="J444" t="inlineStr"/>
-      <c r="K444" t="inlineStr"/>
+      <c r="K444" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L444" t="n">
         <v>1</v>
       </c>
@@ -15074,7 +15132,11 @@
       </c>
       <c r="I445" t="inlineStr"/>
       <c r="J445" t="inlineStr"/>
-      <c r="K445" t="inlineStr"/>
+      <c r="K445" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L445" t="n">
         <v>1</v>
       </c>
@@ -15107,7 +15169,11 @@
       </c>
       <c r="I446" t="inlineStr"/>
       <c r="J446" t="inlineStr"/>
-      <c r="K446" t="inlineStr"/>
+      <c r="K446" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L446" t="n">
         <v>1</v>
       </c>
@@ -15140,7 +15206,11 @@
       </c>
       <c r="I447" t="inlineStr"/>
       <c r="J447" t="inlineStr"/>
-      <c r="K447" t="inlineStr"/>
+      <c r="K447" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L447" t="n">
         <v>1</v>
       </c>
@@ -15173,7 +15243,11 @@
       </c>
       <c r="I448" t="inlineStr"/>
       <c r="J448" t="inlineStr"/>
-      <c r="K448" t="inlineStr"/>
+      <c r="K448" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L448" t="n">
         <v>1</v>
       </c>
@@ -15206,7 +15280,11 @@
       </c>
       <c r="I449" t="inlineStr"/>
       <c r="J449" t="inlineStr"/>
-      <c r="K449" t="inlineStr"/>
+      <c r="K449" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L449" t="n">
         <v>1</v>
       </c>
@@ -15239,7 +15317,11 @@
       </c>
       <c r="I450" t="inlineStr"/>
       <c r="J450" t="inlineStr"/>
-      <c r="K450" t="inlineStr"/>
+      <c r="K450" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L450" t="n">
         <v>1</v>
       </c>
@@ -15272,7 +15354,11 @@
       </c>
       <c r="I451" t="inlineStr"/>
       <c r="J451" t="inlineStr"/>
-      <c r="K451" t="inlineStr"/>
+      <c r="K451" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L451" t="n">
         <v>1</v>
       </c>
@@ -15305,7 +15391,11 @@
       </c>
       <c r="I452" t="inlineStr"/>
       <c r="J452" t="inlineStr"/>
-      <c r="K452" t="inlineStr"/>
+      <c r="K452" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L452" t="n">
         <v>1</v>
       </c>
@@ -15338,7 +15428,11 @@
       </c>
       <c r="I453" t="inlineStr"/>
       <c r="J453" t="inlineStr"/>
-      <c r="K453" t="inlineStr"/>
+      <c r="K453" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L453" t="n">
         <v>1</v>
       </c>
@@ -15371,7 +15465,11 @@
       </c>
       <c r="I454" t="inlineStr"/>
       <c r="J454" t="inlineStr"/>
-      <c r="K454" t="inlineStr"/>
+      <c r="K454" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L454" t="n">
         <v>1</v>
       </c>
@@ -15404,7 +15502,11 @@
       </c>
       <c r="I455" t="inlineStr"/>
       <c r="J455" t="inlineStr"/>
-      <c r="K455" t="inlineStr"/>
+      <c r="K455" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L455" t="n">
         <v>1</v>
       </c>
@@ -15437,7 +15539,11 @@
       </c>
       <c r="I456" t="inlineStr"/>
       <c r="J456" t="inlineStr"/>
-      <c r="K456" t="inlineStr"/>
+      <c r="K456" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L456" t="n">
         <v>1</v>
       </c>
@@ -15466,11 +15572,17 @@
         <v>-108253.4676163332</v>
       </c>
       <c r="H457" t="n">
-        <v>0</v>
-      </c>
-      <c r="I457" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I457" t="n">
+        <v>2773</v>
+      </c>
       <c r="J457" t="inlineStr"/>
-      <c r="K457" t="inlineStr"/>
+      <c r="K457" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L457" t="n">
         <v>1</v>
       </c>
@@ -15499,11 +15611,17 @@
         <v>-109568.7490163332</v>
       </c>
       <c r="H458" t="n">
-        <v>0</v>
-      </c>
-      <c r="I458" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I458" t="n">
+        <v>2760</v>
+      </c>
       <c r="J458" t="inlineStr"/>
-      <c r="K458" t="inlineStr"/>
+      <c r="K458" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L458" t="n">
         <v>1</v>
       </c>
@@ -15532,11 +15650,17 @@
         <v>-109253.1490163332</v>
       </c>
       <c r="H459" t="n">
-        <v>0</v>
-      </c>
-      <c r="I459" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I459" t="n">
+        <v>2751</v>
+      </c>
       <c r="J459" t="inlineStr"/>
-      <c r="K459" t="inlineStr"/>
+      <c r="K459" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L459" t="n">
         <v>1</v>
       </c>
@@ -15565,11 +15689,17 @@
         <v>-108756.9394163332</v>
       </c>
       <c r="H460" t="n">
-        <v>0</v>
-      </c>
-      <c r="I460" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I460" t="n">
+        <v>2758</v>
+      </c>
       <c r="J460" t="inlineStr"/>
-      <c r="K460" t="inlineStr"/>
+      <c r="K460" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L460" t="n">
         <v>1</v>
       </c>
@@ -15598,11 +15728,17 @@
         <v>-110338.5315163332</v>
       </c>
       <c r="H461" t="n">
-        <v>0</v>
-      </c>
-      <c r="I461" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I461" t="n">
+        <v>2759</v>
+      </c>
       <c r="J461" t="inlineStr"/>
-      <c r="K461" t="inlineStr"/>
+      <c r="K461" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L461" t="n">
         <v>1</v>
       </c>
@@ -15631,11 +15767,17 @@
         <v>-109389.9040163332</v>
       </c>
       <c r="H462" t="n">
-        <v>0</v>
-      </c>
-      <c r="I462" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I462" t="n">
+        <v>2750</v>
+      </c>
       <c r="J462" t="inlineStr"/>
-      <c r="K462" t="inlineStr"/>
+      <c r="K462" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L462" t="n">
         <v>1</v>
       </c>
@@ -15664,11 +15806,17 @@
         <v>-108156.7095163332</v>
       </c>
       <c r="H463" t="n">
-        <v>0</v>
-      </c>
-      <c r="I463" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I463" t="n">
+        <v>2762</v>
+      </c>
       <c r="J463" t="inlineStr"/>
-      <c r="K463" t="inlineStr"/>
+      <c r="K463" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L463" t="n">
         <v>1</v>
       </c>
@@ -15697,11 +15845,17 @@
         <v>-108377.3445163332</v>
       </c>
       <c r="H464" t="n">
-        <v>0</v>
-      </c>
-      <c r="I464" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I464" t="n">
+        <v>2766</v>
+      </c>
       <c r="J464" t="inlineStr"/>
-      <c r="K464" t="inlineStr"/>
+      <c r="K464" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L464" t="n">
         <v>1</v>
       </c>
@@ -15730,11 +15884,17 @@
         <v>-109451.1361163332</v>
       </c>
       <c r="H465" t="n">
-        <v>0</v>
-      </c>
-      <c r="I465" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I465" t="n">
+        <v>2760</v>
+      </c>
       <c r="J465" t="inlineStr"/>
-      <c r="K465" t="inlineStr"/>
+      <c r="K465" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L465" t="n">
         <v>1</v>
       </c>
@@ -15763,11 +15923,17 @@
         <v>-109451.1361163332</v>
       </c>
       <c r="H466" t="n">
-        <v>0</v>
-      </c>
-      <c r="I466" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I466" t="n">
+        <v>2759</v>
+      </c>
       <c r="J466" t="inlineStr"/>
-      <c r="K466" t="inlineStr"/>
+      <c r="K466" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L466" t="n">
         <v>1</v>
       </c>
@@ -15796,11 +15962,17 @@
         <v>-109451.1361163332</v>
       </c>
       <c r="H467" t="n">
-        <v>0</v>
-      </c>
-      <c r="I467" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I467" t="n">
+        <v>2759</v>
+      </c>
       <c r="J467" t="inlineStr"/>
-      <c r="K467" t="inlineStr"/>
+      <c r="K467" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L467" t="n">
         <v>1</v>
       </c>
@@ -15829,11 +16001,17 @@
         <v>-109451.1361163332</v>
       </c>
       <c r="H468" t="n">
-        <v>0</v>
-      </c>
-      <c r="I468" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I468" t="n">
+        <v>2759</v>
+      </c>
       <c r="J468" t="inlineStr"/>
-      <c r="K468" t="inlineStr"/>
+      <c r="K468" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L468" t="n">
         <v>1</v>
       </c>
@@ -15862,11 +16040,17 @@
         <v>-109645.8430163332</v>
       </c>
       <c r="H469" t="n">
-        <v>0</v>
-      </c>
-      <c r="I469" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I469" t="n">
+        <v>2759</v>
+      </c>
       <c r="J469" t="inlineStr"/>
-      <c r="K469" t="inlineStr"/>
+      <c r="K469" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L469" t="n">
         <v>1</v>
       </c>
@@ -15895,11 +16079,17 @@
         <v>-109630.1539163332</v>
       </c>
       <c r="H470" t="n">
-        <v>0</v>
-      </c>
-      <c r="I470" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I470" t="n">
+        <v>2754</v>
+      </c>
       <c r="J470" t="inlineStr"/>
-      <c r="K470" t="inlineStr"/>
+      <c r="K470" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L470" t="n">
         <v>1</v>
       </c>
@@ -15928,11 +16118,17 @@
         <v>-110314.9930163332</v>
       </c>
       <c r="H471" t="n">
-        <v>0</v>
-      </c>
-      <c r="I471" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I471" t="n">
+        <v>2756</v>
+      </c>
       <c r="J471" t="inlineStr"/>
-      <c r="K471" t="inlineStr"/>
+      <c r="K471" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L471" t="n">
         <v>1</v>
       </c>
@@ -15961,11 +16157,17 @@
         <v>-110314.9930163332</v>
       </c>
       <c r="H472" t="n">
-        <v>0</v>
-      </c>
-      <c r="I472" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I472" t="n">
+        <v>2751</v>
+      </c>
       <c r="J472" t="inlineStr"/>
-      <c r="K472" t="inlineStr"/>
+      <c r="K472" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L472" t="n">
         <v>1</v>
       </c>
@@ -15999,10 +16201,12 @@
       <c r="I473" t="n">
         <v>2751</v>
       </c>
-      <c r="J473" t="n">
-        <v>2751</v>
-      </c>
-      <c r="K473" t="inlineStr"/>
+      <c r="J473" t="inlineStr"/>
+      <c r="K473" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L473" t="n">
         <v>1</v>
       </c>
@@ -16036,12 +16240,10 @@
       <c r="I474" t="n">
         <v>2752</v>
       </c>
-      <c r="J474" t="n">
-        <v>2751</v>
-      </c>
+      <c r="J474" t="inlineStr"/>
       <c r="K474" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L474" t="n">
@@ -16077,12 +16279,10 @@
       <c r="I475" t="n">
         <v>2752</v>
       </c>
-      <c r="J475" t="n">
-        <v>2751</v>
-      </c>
+      <c r="J475" t="inlineStr"/>
       <c r="K475" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L475" t="n">
@@ -16118,10 +16318,12 @@
       <c r="I476" t="n">
         <v>2760</v>
       </c>
-      <c r="J476" t="n">
-        <v>2760</v>
-      </c>
-      <c r="K476" t="inlineStr"/>
+      <c r="J476" t="inlineStr"/>
+      <c r="K476" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L476" t="n">
         <v>1</v>
       </c>
@@ -16155,12 +16357,10 @@
       <c r="I477" t="n">
         <v>2767</v>
       </c>
-      <c r="J477" t="n">
-        <v>2760</v>
-      </c>
+      <c r="J477" t="inlineStr"/>
       <c r="K477" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L477" t="n">
@@ -16191,15 +16391,15 @@
         <v>-109111.7615163332</v>
       </c>
       <c r="H478" t="n">
-        <v>0</v>
-      </c>
-      <c r="I478" t="inlineStr"/>
-      <c r="J478" t="n">
-        <v>2760</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I478" t="n">
+        <v>2767</v>
+      </c>
+      <c r="J478" t="inlineStr"/>
       <c r="K478" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L478" t="n">
@@ -16230,11 +16430,17 @@
         <v>-109111.7615163332</v>
       </c>
       <c r="H479" t="n">
-        <v>0</v>
-      </c>
-      <c r="I479" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I479" t="n">
+        <v>2770</v>
+      </c>
       <c r="J479" t="inlineStr"/>
-      <c r="K479" t="inlineStr"/>
+      <c r="K479" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L479" t="n">
         <v>1</v>
       </c>
@@ -16263,11 +16469,17 @@
         <v>-109111.7615163332</v>
       </c>
       <c r="H480" t="n">
-        <v>0</v>
-      </c>
-      <c r="I480" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I480" t="n">
+        <v>2770</v>
+      </c>
       <c r="J480" t="inlineStr"/>
-      <c r="K480" t="inlineStr"/>
+      <c r="K480" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L480" t="n">
         <v>1</v>
       </c>
@@ -16296,11 +16508,17 @@
         <v>-109111.7615163332</v>
       </c>
       <c r="H481" t="n">
-        <v>0</v>
-      </c>
-      <c r="I481" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I481" t="n">
+        <v>2770</v>
+      </c>
       <c r="J481" t="inlineStr"/>
-      <c r="K481" t="inlineStr"/>
+      <c r="K481" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L481" t="n">
         <v>1</v>
       </c>
@@ -16329,11 +16547,17 @@
         <v>-109111.7615163332</v>
       </c>
       <c r="H482" t="n">
-        <v>0</v>
-      </c>
-      <c r="I482" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I482" t="n">
+        <v>2770</v>
+      </c>
       <c r="J482" t="inlineStr"/>
-      <c r="K482" t="inlineStr"/>
+      <c r="K482" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L482" t="n">
         <v>1</v>
       </c>
@@ -16362,11 +16586,17 @@
         <v>-109311.6878163332</v>
       </c>
       <c r="H483" t="n">
-        <v>0</v>
-      </c>
-      <c r="I483" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I483" t="n">
+        <v>2770</v>
+      </c>
       <c r="J483" t="inlineStr"/>
-      <c r="K483" t="inlineStr"/>
+      <c r="K483" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L483" t="n">
         <v>1</v>
       </c>
@@ -16395,11 +16625,17 @@
         <v>-108759.1868163332</v>
       </c>
       <c r="H484" t="n">
-        <v>0</v>
-      </c>
-      <c r="I484" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I484" t="n">
+        <v>2767</v>
+      </c>
       <c r="J484" t="inlineStr"/>
-      <c r="K484" t="inlineStr"/>
+      <c r="K484" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L484" t="n">
         <v>1</v>
       </c>
@@ -16428,11 +16664,17 @@
         <v>-105687.0039163332</v>
       </c>
       <c r="H485" t="n">
-        <v>0</v>
-      </c>
-      <c r="I485" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I485" t="n">
+        <v>2775</v>
+      </c>
       <c r="J485" t="inlineStr"/>
-      <c r="K485" t="inlineStr"/>
+      <c r="K485" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L485" t="n">
         <v>1</v>
       </c>
@@ -16461,11 +16703,17 @@
         <v>-105657.0039163332</v>
       </c>
       <c r="H486" t="n">
-        <v>0</v>
-      </c>
-      <c r="I486" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I486" t="n">
+        <v>2786</v>
+      </c>
       <c r="J486" t="inlineStr"/>
-      <c r="K486" t="inlineStr"/>
+      <c r="K486" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L486" t="n">
         <v>1</v>
       </c>
@@ -16494,11 +16742,17 @@
         <v>-105647.6319163332</v>
       </c>
       <c r="H487" t="n">
-        <v>0</v>
-      </c>
-      <c r="I487" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I487" t="n">
+        <v>2787</v>
+      </c>
       <c r="J487" t="inlineStr"/>
-      <c r="K487" t="inlineStr"/>
+      <c r="K487" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L487" t="n">
         <v>1</v>
       </c>
@@ -16527,11 +16781,17 @@
         <v>-106452.4676163331</v>
       </c>
       <c r="H488" t="n">
-        <v>0</v>
-      </c>
-      <c r="I488" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I488" t="n">
+        <v>2794</v>
+      </c>
       <c r="J488" t="inlineStr"/>
-      <c r="K488" t="inlineStr"/>
+      <c r="K488" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L488" t="n">
         <v>1</v>
       </c>
@@ -16560,11 +16820,17 @@
         <v>-106205.4648163331</v>
       </c>
       <c r="H489" t="n">
-        <v>0</v>
-      </c>
-      <c r="I489" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I489" t="n">
+        <v>2788</v>
+      </c>
       <c r="J489" t="inlineStr"/>
-      <c r="K489" t="inlineStr"/>
+      <c r="K489" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L489" t="n">
         <v>1</v>
       </c>
@@ -16593,11 +16859,17 @@
         <v>-106135.9231163331</v>
       </c>
       <c r="H490" t="n">
-        <v>0</v>
-      </c>
-      <c r="I490" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I490" t="n">
+        <v>2797</v>
+      </c>
       <c r="J490" t="inlineStr"/>
-      <c r="K490" t="inlineStr"/>
+      <c r="K490" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L490" t="n">
         <v>1</v>
       </c>
@@ -16630,7 +16902,11 @@
       </c>
       <c r="I491" t="inlineStr"/>
       <c r="J491" t="inlineStr"/>
-      <c r="K491" t="inlineStr"/>
+      <c r="K491" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L491" t="n">
         <v>1</v>
       </c>
@@ -16663,7 +16939,11 @@
       </c>
       <c r="I492" t="inlineStr"/>
       <c r="J492" t="inlineStr"/>
-      <c r="K492" t="inlineStr"/>
+      <c r="K492" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L492" t="n">
         <v>1</v>
       </c>
